--- a/MA case analysis.xlsx
+++ b/MA case analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mserviciosrc-my.sharepoint.com/personal/lmelahn_lcred_org/Documents/COVID/MA-Covid-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{73E9C425-0FEB-9D45-862D-63319681AE9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1182664-B9F9-D047-AAE2-DCB640B1D6AA}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{73E9C425-0FEB-9D45-862D-63319681AE9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B28B5990-4B57-5740-9948-FB5BFC85D01B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,9 @@
   <si>
     <t>Daily Deaths Model *20</t>
   </si>
+  <si>
+    <t>Model (deaths/day)</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +151,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -163,6 +166,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -316,10 +322,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Massachussets!$O$2:$O$47</c:f>
+              <c:f>Massachussets!$O$2:$O$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>43908</c:v>
                 </c:pt>
@@ -457,16 +463,85 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Massachussets!$P$2:$P$47</c:f>
+              <c:f>Massachussets!$P$2:$P$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -651,10 +726,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Massachussets!$O$2:$O$47</c:f>
+              <c:f>Massachussets!$O$2:$O$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>43908</c:v>
                 </c:pt>
@@ -792,16 +867,85 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Massachussets!$Q$2:$Q$47</c:f>
+              <c:f>Massachussets!$Q$2:$Q$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -978,10 +1122,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Massachussets!$O$2:$O$47</c:f>
+              <c:f>Massachussets!$O$2:$O$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>43908</c:v>
                 </c:pt>
@@ -1119,16 +1263,85 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Massachussets!$R$2:$R$47</c:f>
+              <c:f>Massachussets!$R$2:$R$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>6.4120156502429433</c:v>
                 </c:pt>
@@ -1266,6 +1479,75 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>4096.1318945103394</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4186.4651018128388</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4267.602263685063</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4339.880151630472</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4403.7365402390569</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4459.6886558109718</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4508.3116757407624</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4550.2180998549557</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4586.0386735132643</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4616.4053824553284</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4641.9368732461489</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4663.2264916951817</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4680.8329838880854</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4695.2737772915661</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4707.0206571424833</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4716.4975779999741</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4724.080301773226</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4730.0975298275926</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4734.8331947035704</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4738.5295925171422</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4741.391065835136</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4743.5879843497569</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4745.2608129651326</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4746.524100468635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,10 +1587,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Massachussets!$O$2:$O$47</c:f>
+              <c:f>Massachussets!$O$2:$O$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="0">
                   <c:v>43908</c:v>
                 </c:pt>
@@ -1446,16 +1728,85 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Massachussets!$S$2:$S$47</c:f>
+              <c:f>Massachussets!$S$2:$S$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="69"/>
                 <c:pt idx="1">
                   <c:v>43.93837029243015</c:v>
                 </c:pt>
@@ -1590,6 +1941,75 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1994.8870136951973</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1806.6641460499886</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1622.7432374444834</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1445.5577589081804</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1277.1277721716979</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1119.0423114382975</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>972.46039859581288</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>838.12848228386429</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>716.41147316617207</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>607.33417884128357</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>510.62981581640997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>425.79236898065574</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>352.12984385807431</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>288.81586806961423</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>234.93759701834279</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>189.53841714981536</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>151.65447546503856</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>120.34456108733139</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>94.713297519556363</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>73.927956271436415</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57.229466359876824</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43.938370292416948</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33.456572307513852</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25.265750070047943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,23 +2845,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{48D865E2-D08D-CC4B-A5A5-2BC248F5DA8C}" name="Table26" displayName="Table26" ref="A1:G47" totalsRowShown="0">
-  <autoFilter ref="A1:G47" xr:uid="{21911FD9-E9A7-7B4E-AA91-03E566661BC3}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{39A5DFED-1B78-7E47-AC29-6651F47201A9}" name="Date of Death" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{D2CBDB34-DDA1-9F49-AF6D-641094478C0F}" name="Time" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{48D865E2-D08D-CC4B-A5A5-2BC248F5DA8C}" name="Table26" displayName="Table26" ref="A1:H74" totalsRowShown="0">
+  <autoFilter ref="A1:H74" xr:uid="{21911FD9-E9A7-7B4E-AA91-03E566661BC3}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{39A5DFED-1B78-7E47-AC29-6651F47201A9}" name="Date of Death" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{D2CBDB34-DDA1-9F49-AF6D-641094478C0F}" name="Time" dataDxfId="11">
       <calculatedColumnFormula>A2-A$2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{C8EE336B-20C3-2246-910B-AF1DB6248AD7}" name="New Deaths"/>
     <tableColumn id="3" xr3:uid="{C1DC7C41-39B7-0549-A511-08ED5BD187E3}" name="Running Total"/>
-    <tableColumn id="4" xr3:uid="{FA5D296B-F3F7-984E-87F9-6DC88F8FABE0}" name="Deaths (normalized)" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{FA5D296B-F3F7-984E-87F9-6DC88F8FABE0}" name="Deaths (normalized)" dataDxfId="10">
       <calculatedColumnFormula>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F786D82B-4E95-4A44-999E-055BE7FA65F1}" name="Running Total (normalized)" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{F786D82B-4E95-4A44-999E-055BE7FA65F1}" name="Running Total (normalized)" dataDxfId="9">
       <calculatedColumnFormula>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{02B4EB61-1F0A-7145-8FE5-CE2A0884B2FB}" name="Model (deaths)" dataDxfId="7">
+    <tableColumn id="12" xr3:uid="{02B4EB61-1F0A-7145-8FE5-CE2A0884B2FB}" name="Model (deaths)" dataDxfId="8">
       <calculatedColumnFormula>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{7E3E1C27-B544-574D-A6B9-FDBD2E213244}" name="Model (deaths/day)" dataDxfId="7">
+      <calculatedColumnFormula>G2-G1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2461,8 +2884,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4A3EC810-A7B9-E347-9B79-6E99EDD0658A}" name="Table9" displayName="Table9" ref="O1:S47" totalsRowShown="0">
-  <autoFilter ref="O1:S47" xr:uid="{8A567930-1BEC-2B42-8586-CA71B39AA169}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4A3EC810-A7B9-E347-9B79-6E99EDD0658A}" name="Table9" displayName="Table9" ref="O1:S70" totalsRowShown="0">
+  <autoFilter ref="O1:S70" xr:uid="{8A567930-1BEC-2B42-8586-CA71B39AA169}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A915EA15-2EFD-014C-B345-428AF1988EE3}" name="Date" dataDxfId="4">
       <calculatedColumnFormula>Table26[[#This Row],[Date of Death]]</calculatedColumnFormula>
@@ -2477,7 +2900,7 @@
       <calculatedColumnFormula>Table26[[#This Row],[Model (deaths)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{C947925D-F742-9C48-8E43-A291681642B4}" name="Daily Deaths Model *20" dataDxfId="0">
-      <calculatedColumnFormula>Table9[[#This Row],[Deaths Model]]-R1</calculatedColumnFormula>
+      <calculatedColumnFormula>Table26[[#This Row],[Model (deaths/day)]]*20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2747,9 +3170,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED21C7-CBD5-CB48-9B6A-6B58F98A2F4A}">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J22" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2786,6 +3211,9 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
       <c r="J1" t="s">
         <v>6</v>
       </c>
@@ -2837,6 +3265,7 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>6.4120156502429433</v>
       </c>
+      <c r="H2" s="2"/>
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2890,6 +3319,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>8.6089341648644506</v>
       </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H33" si="1">G3-G2</f>
+        <v>2.1969185146215073</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2916,7 +3349,7 @@
         <v>8.6089341648644506</v>
       </c>
       <c r="S3" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R2)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>43.93837029243015</v>
       </c>
     </row>
@@ -2946,6 +3379,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>11.470407482857341</v>
       </c>
+      <c r="H4" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8614733179928908</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2972,7 +3409,7 @@
         <v>11.470407482857341</v>
       </c>
       <c r="S4" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R3)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>57.229466359857817</v>
       </c>
     </row>
@@ -3002,6 +3439,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>15.16680529642926</v>
       </c>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6963978135719184</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3028,7 +3469,7 @@
         <v>15.16680529642926</v>
       </c>
       <c r="S5" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R4)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>73.927956271438376</v>
       </c>
     </row>
@@ -3058,6 +3499,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>19.90247017240744</v>
       </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7356648759781805</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
@@ -3084,7 +3529,7 @@
         <v>19.90247017240744</v>
       </c>
       <c r="S6" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R5)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>94.713297519563611</v>
       </c>
     </row>
@@ -3114,6 +3559,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>25.919698226774216</v>
       </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>6.0172280543667753</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="O7" s="1">
@@ -3133,7 +3582,7 @@
         <v>25.919698226774216</v>
       </c>
       <c r="S7" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R6)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>120.34456108733551</v>
       </c>
     </row>
@@ -3163,6 +3612,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>33.502422000026378</v>
       </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>7.5827237732521624</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="O8" s="1">
@@ -3182,7 +3635,7 @@
         <v>33.502422000026378</v>
       </c>
       <c r="S8" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R7)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>151.65447546504325</v>
       </c>
     </row>
@@ -3212,6 +3665,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>42.979342857516379</v>
       </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>9.4769208574900006</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="O9" s="1">
@@ -3231,7 +3688,7 @@
         <v>42.979342857516379</v>
       </c>
       <c r="S9" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R8)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>189.53841714980001</v>
       </c>
     </row>
@@ -3261,6 +3718,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>54.726222708434371</v>
       </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>11.746879850917992</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="O10" s="1">
@@ -3280,7 +3741,7 @@
         <v>54.726222708434371</v>
       </c>
       <c r="S10" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R9)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>234.93759701835984</v>
       </c>
     </row>
@@ -3310,6 +3771,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>69.167016111914492</v>
       </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>14.440793403480122</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="O11" s="1">
@@ -3329,7 +3794,7 @@
         <v>69.167016111914492</v>
       </c>
       <c r="S11" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R10)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>288.8158680696024</v>
       </c>
     </row>
@@ -3359,6 +3824,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>86.77350830481808</v>
       </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>17.606492192903588</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="O12" s="1">
@@ -3378,7 +3847,7 @@
         <v>86.77350830481808</v>
       </c>
       <c r="S12" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R11)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>352.12984385807175</v>
       </c>
     </row>
@@ -3408,6 +3877,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>108.06312675385117</v>
       </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>21.289618449033085</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="O13" s="1">
@@ -3427,7 +3900,7 @@
         <v>108.06312675385117</v>
       </c>
       <c r="S13" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R12)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>425.79236898066171</v>
       </c>
     </row>
@@ -3457,6 +3930,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>133.59461754467122</v>
       </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>25.531490790820058</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="O14" s="1">
@@ -3476,7 +3953,7 @@
         <v>133.59461754467122</v>
       </c>
       <c r="S14" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R13)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>510.62981581640116</v>
       </c>
     </row>
@@ -3506,6 +3983,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>163.96132648673623</v>
       </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>30.366708942065003</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="O15" s="1">
@@ -3525,7 +4006,7 @@
         <v>163.96132648673623</v>
       </c>
       <c r="S15" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R14)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>607.33417884130006</v>
       </c>
     </row>
@@ -3555,6 +4036,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>199.78190014504457</v>
       </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>35.820573658308348</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="O16" s="1">
@@ -3574,7 +4059,7 @@
         <v>199.78190014504457</v>
       </c>
       <c r="S16" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R15)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>716.41147316616696</v>
       </c>
     </row>
@@ -3604,6 +4089,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>241.68832425923688</v>
       </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>41.906424114192305</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="O17" s="1">
@@ -3623,7 +4112,7 @@
         <v>241.68832425923688</v>
       </c>
       <c r="S17" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R16)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>838.1284822838461</v>
       </c>
     </row>
@@ -3653,6 +4142,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>290.31134418902798</v>
       </c>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>48.623019929791099</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="O18" s="1">
@@ -3672,7 +4165,7 @@
         <v>290.31134418902798</v>
       </c>
       <c r="S18" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R17)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>972.46039859582197</v>
       </c>
     </row>
@@ -3702,6 +4195,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>346.26345976094302</v>
       </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>55.952115571915044</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="O19" s="1">
@@ -3721,7 +4218,7 @@
         <v>346.26345976094302</v>
       </c>
       <c r="S19" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R18)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1119.0423114383009</v>
       </c>
     </row>
@@ -3751,6 +4248,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>410.11984836952757</v>
       </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>63.856388608584552</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="O20" s="1">
@@ -3770,7 +4271,7 @@
         <v>410.11984836952757</v>
       </c>
       <c r="S20" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R19)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1277.127772171691</v>
       </c>
     </row>
@@ -3800,6 +4301,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>482.39773631493733</v>
       </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>72.277887945409759</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="O21" s="1">
@@ -3819,7 +4324,7 @@
         <v>482.39773631493733</v>
       </c>
       <c r="S21" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R20)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1445.5577589081952</v>
       </c>
     </row>
@@ -3849,6 +4354,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>563.53489818716093</v>
       </c>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>81.137161872223601</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="O22" s="1">
@@ -3868,7 +4377,7 @@
         <v>563.53489818716093</v>
       </c>
       <c r="S22" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R21)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1622.743237444472</v>
       </c>
     </row>
@@ -3898,6 +4407,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>653.86810548966105</v>
       </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>90.333207302500114</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="O23" s="1">
@@ -3917,7 +4430,7 @@
         <v>653.86810548966105</v>
       </c>
       <c r="S23" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R22)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1806.6641460500023</v>
       </c>
     </row>
@@ -3947,6 +4460,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>753.61245617442069</v>
       </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>99.744350684759638</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="O24" s="1">
@@ -3966,7 +4483,7 @@
         <v>753.61245617442069</v>
       </c>
       <c r="S24" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R23)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1994.8870136951928</v>
       </c>
     </row>
@@ -3996,6 +4513,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>862.8425846063825</v>
       </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>109.23012843196182</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="O25" s="1">
@@ -4015,7 +4536,7 @@
         <v>862.8425846063825</v>
       </c>
       <c r="S25" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R24)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2184.6025686392363</v>
       </c>
     </row>
@@ -4045,6 +4566,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>981.47676679739618</v>
       </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>118.63418219101368</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="O26" s="1">
@@ -4064,7 +4589,7 @@
         <v>981.47676679739618</v>
       </c>
       <c r="S26" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R25)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2372.6836438202736</v>
       </c>
     </row>
@@ -4094,6 +4619,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1109.2648915735372</v>
       </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>127.78812477614099</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="O27" s="1">
@@ -4113,7 +4642,7 @@
         <v>1109.2648915735372</v>
       </c>
       <c r="S27" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R26)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2555.7624955228198</v>
       </c>
     </row>
@@ -4143,6 +4672,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1245.781161533868</v>
       </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>136.51626996033087</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="O28" s="1">
@@ -4162,7 +4695,7 @@
         <v>1245.781161533868</v>
       </c>
       <c r="S28" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R27)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2730.3253992066175</v>
       </c>
     </row>
@@ -4192,6 +4725,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1390.422219601202</v>
       </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>144.64105806733392</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="O29" s="1">
@@ -4211,7 +4748,7 @@
         <v>1390.422219601202</v>
       </c>
       <c r="S29" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R28)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2892.8211613466783</v>
       </c>
     </row>
@@ -4241,6 +4778,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1542.4111738510423</v>
       </c>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>151.98895424984039</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="O30" s="1">
@@ -4260,7 +4801,7 @@
         <v>1542.4111738510423</v>
       </c>
       <c r="S30" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R29)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3039.7790849968078</v>
       </c>
     </row>
@@ -4290,6 +4831,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1700.8077260319676</v>
       </c>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>158.39655218092526</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="O31" s="1">
@@ -4309,7 +4854,7 @@
         <v>1700.8077260319676</v>
       </c>
       <c r="S31" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R30)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3167.9310436185051</v>
       </c>
     </row>
@@ -4339,6 +4884,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1864.5243128004536</v>
       </c>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>163.71658676848597</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="O32" s="1">
@@ -4358,7 +4907,7 @@
         <v>1864.5243128004536</v>
       </c>
       <c r="S32" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R31)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3274.3317353697194</v>
       </c>
     </row>
@@ -4388,6 +4937,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2032.3478613851698</v>
       </c>
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
+        <v>167.82354858471626</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="O33" s="1">
@@ -4407,7 +4960,7 @@
         <v>2032.3478613851698</v>
       </c>
       <c r="S33" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R32)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3356.4709716943253</v>
       </c>
     </row>
@@ -4437,6 +4990,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2202.9664631897517</v>
       </c>
+      <c r="H34" s="2">
+        <f t="shared" ref="H34:H65" si="2">G34-G33</f>
+        <v>170.61860180458189</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="O34" s="1">
@@ -4456,7 +5013,7 @@
         <v>2202.9664631897517</v>
       </c>
       <c r="S34" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R33)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3412.3720360916377</v>
       </c>
     </row>
@@ -4486,6 +5043,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2375</v>
       </c>
+      <c r="H35" s="2">
+        <f t="shared" si="2"/>
+        <v>172.03353681024828</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="O35" s="1">
@@ -4505,7 +5066,7 @@
         <v>2375</v>
       </c>
       <c r="S35" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R34)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3440.6707362049656</v>
       </c>
     </row>
@@ -4535,6 +5096,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2547.0335368102483</v>
       </c>
+      <c r="H36" s="2">
+        <f t="shared" si="2"/>
+        <v>172.03353681024828</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="O36" s="1">
@@ -4554,7 +5119,7 @@
         <v>2547.0335368102483</v>
       </c>
       <c r="S36" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R35)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3440.6707362049656</v>
       </c>
     </row>
@@ -4584,6 +5149,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2717.6521386148302</v>
       </c>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
+        <v>170.61860180458189</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="O37" s="1">
@@ -4603,7 +5172,7 @@
         <v>2717.6521386148302</v>
       </c>
       <c r="S37" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R36)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3412.3720360916377</v>
       </c>
     </row>
@@ -4633,6 +5202,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2885.4756871995464</v>
       </c>
+      <c r="H38" s="2">
+        <f t="shared" si="2"/>
+        <v>167.82354858471626</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="O38" s="1">
@@ -4652,7 +5225,7 @@
         <v>2885.4756871995464</v>
       </c>
       <c r="S38" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R37)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3356.4709716943253</v>
       </c>
     </row>
@@ -4682,6 +5255,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3049.1922739680322</v>
       </c>
+      <c r="H39" s="2">
+        <f t="shared" si="2"/>
+        <v>163.71658676848574</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="O39" s="1">
@@ -4701,7 +5278,7 @@
         <v>3049.1922739680322</v>
       </c>
       <c r="S39" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R38)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3274.3317353697148</v>
       </c>
     </row>
@@ -4731,6 +5308,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3207.5888261489577</v>
       </c>
+      <c r="H40" s="2">
+        <f t="shared" si="2"/>
+        <v>158.39655218092548</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="O40" s="1">
@@ -4750,7 +5331,7 @@
         <v>3207.5888261489577</v>
       </c>
       <c r="S40" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R39)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3167.9310436185096</v>
       </c>
     </row>
@@ -4780,6 +5361,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3359.577780398798</v>
       </c>
+      <c r="H41" s="2">
+        <f t="shared" si="2"/>
+        <v>151.98895424984039</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="O41" s="1">
@@ -4799,7 +5384,7 @@
         <v>3359.577780398798</v>
       </c>
       <c r="S41" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R40)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3039.7790849968078</v>
       </c>
     </row>
@@ -4829,6 +5414,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3504.2188384661317</v>
       </c>
+      <c r="H42" s="2">
+        <f t="shared" si="2"/>
+        <v>144.64105806733369</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="O42" s="1">
@@ -4848,7 +5437,7 @@
         <v>3504.2188384661317</v>
       </c>
       <c r="S42" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R41)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2892.8211613466738</v>
       </c>
     </row>
@@ -4878,6 +5467,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3640.7351084264628</v>
       </c>
+      <c r="H43" s="2">
+        <f t="shared" si="2"/>
+        <v>136.5162699603311</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="O43" s="1">
@@ -4897,7 +5490,7 @@
         <v>3640.7351084264628</v>
       </c>
       <c r="S43" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R42)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2730.325399206622</v>
       </c>
     </row>
@@ -4927,6 +5520,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3768.5232332026039</v>
       </c>
+      <c r="H44" s="2">
+        <f t="shared" si="2"/>
+        <v>127.7881247761411</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="O44" s="1">
@@ -4946,7 +5543,7 @@
         <v>3768.5232332026039</v>
       </c>
       <c r="S44" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R43)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2555.7624955228221</v>
       </c>
     </row>
@@ -4976,6 +5573,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3887.1574153936176</v>
       </c>
+      <c r="H45" s="2">
+        <f t="shared" si="2"/>
+        <v>118.63418219101368</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="O45" s="1">
@@ -4995,7 +5596,7 @@
         <v>3887.1574153936176</v>
       </c>
       <c r="S45" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R44)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2372.6836438202736</v>
       </c>
     </row>
@@ -5025,6 +5626,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3996.3875438255795</v>
       </c>
+      <c r="H46" s="2">
+        <f t="shared" si="2"/>
+        <v>109.23012843196193</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="O46" s="1">
@@ -5044,7 +5649,7 @@
         <v>3996.3875438255795</v>
       </c>
       <c r="S46" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R45)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2184.6025686392386</v>
       </c>
     </row>
@@ -5074,6 +5679,10 @@
         <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4096.1318945103394</v>
       </c>
+      <c r="H47" s="2">
+        <f t="shared" si="2"/>
+        <v>99.744350684759866</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="O47" s="1">
@@ -5093,12 +5702,841 @@
         <v>4096.1318945103394</v>
       </c>
       <c r="S47" s="2">
-        <f>(Table9[[#This Row],[Deaths Model]]-R46)*20</f>
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1994.8870136951973</v>
       </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" ref="B48:B54" si="3">A48-A$2</f>
+        <v>46</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4186.4651018128388</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="2"/>
+        <v>90.333207302499432</v>
+      </c>
+      <c r="O48" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43954</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4186.4651018128388</v>
+      </c>
+      <c r="S48" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>1806.6641460499886</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4267.602263685063</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="2"/>
+        <v>81.137161872224169</v>
+      </c>
+      <c r="O49" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43955</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4267.602263685063</v>
+      </c>
+      <c r="S49" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>1622.7432374444834</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4339.880151630472</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="2"/>
+        <v>72.27788794540902</v>
+      </c>
+      <c r="O50" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43956</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4339.880151630472</v>
+      </c>
+      <c r="S50" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>1445.5577589081804</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4403.7365402390569</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="2"/>
+        <v>63.856388608584894</v>
+      </c>
+      <c r="O51" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43957</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4403.7365402390569</v>
+      </c>
+      <c r="S51" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>1277.1277721716979</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4459.6886558109718</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="2"/>
+        <v>55.952115571914874</v>
+      </c>
+      <c r="O52" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43958</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4459.6886558109718</v>
+      </c>
+      <c r="S52" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>1119.0423114382975</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4508.3116757407624</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="2"/>
+        <v>48.623019929790644</v>
+      </c>
+      <c r="O53" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43959</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4508.3116757407624</v>
+      </c>
+      <c r="S53" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>972.46039859581288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4550.2180998549557</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="2"/>
+        <v>41.906424114193214</v>
+      </c>
+      <c r="O54" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43960</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4550.2180998549557</v>
+      </c>
+      <c r="S54" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>838.12848228386429</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" ref="B55:B62" si="4">A55-A$2</f>
+        <v>53</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4586.0386735132643</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="2"/>
+        <v>35.820573658308604</v>
+      </c>
+      <c r="O55" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43961</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4586.0386735132643</v>
+      </c>
+      <c r="S55" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>716.41147316617207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4616.4053824553284</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="2"/>
+        <v>30.366708942064179</v>
+      </c>
+      <c r="O56" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43962</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4616.4053824553284</v>
+      </c>
+      <c r="S56" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>607.33417884128357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4641.9368732461489</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="2"/>
+        <v>25.531490790820499</v>
+      </c>
+      <c r="O57" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43963</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4641.9368732461489</v>
+      </c>
+      <c r="S57" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>510.62981581640997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4663.2264916951817</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="2"/>
+        <v>21.289618449032787</v>
+      </c>
+      <c r="O58" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43964</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4663.2264916951817</v>
+      </c>
+      <c r="S58" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>425.79236898065574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4680.8329838880854</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="2"/>
+        <v>17.606492192903715</v>
+      </c>
+      <c r="O59" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43965</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4680.8329838880854</v>
+      </c>
+      <c r="S59" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>352.12984385807431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4695.2737772915661</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="2"/>
+        <v>14.440793403480711</v>
+      </c>
+      <c r="O60" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43966</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4695.2737772915661</v>
+      </c>
+      <c r="S60" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>288.81586806961423</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4707.0206571424833</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="2"/>
+        <v>11.746879850917139</v>
+      </c>
+      <c r="O61" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43967</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4707.0206571424833</v>
+      </c>
+      <c r="S61" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>234.93759701834279</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4716.4975779999741</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="2"/>
+        <v>9.476920857490768</v>
+      </c>
+      <c r="O62" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43968</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4716.4975779999741</v>
+      </c>
+      <c r="S62" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>189.53841714981536</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" ref="B63:B69" si="5">A63-A$2</f>
+        <v>61</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4724.080301773226</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="2"/>
+        <v>7.5827237732519279</v>
+      </c>
+      <c r="O63" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43969</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4724.080301773226</v>
+      </c>
+      <c r="S63" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>151.65447546503856</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4730.0975298275926</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0172280543665693</v>
+      </c>
+      <c r="O64" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43970</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4730.0975298275926</v>
+      </c>
+      <c r="S64" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>120.34456108733139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4734.8331947035704</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7356648759778182</v>
+      </c>
+      <c r="O65" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43971</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4734.8331947035704</v>
+      </c>
+      <c r="S65" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>94.713297519556363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4738.5295925171422</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" ref="H66:H74" si="6">G66-G65</f>
+        <v>3.6963978135718207</v>
+      </c>
+      <c r="O66" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43972</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4738.5295925171422</v>
+      </c>
+      <c r="S66" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>73.927956271436415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4741.391065835136</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="6"/>
+        <v>2.8614733179938412</v>
+      </c>
+      <c r="O67" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43973</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4741.391065835136</v>
+      </c>
+      <c r="S67" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>57.229466359876824</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4743.5879843497569</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1969185146208474</v>
+      </c>
+      <c r="O68" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43974</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4743.5879843497569</v>
+      </c>
+      <c r="S68" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>43.938370292416948</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4745.2608129651326</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6728286153756926</v>
+      </c>
+      <c r="O69" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43975</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4745.2608129651326</v>
+      </c>
+      <c r="S69" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>33.456572307513852</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" ref="B70:B74" si="7">A70-A$2</f>
+        <v>68</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4746.524100468635</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="6"/>
+        <v>1.2632875035023972</v>
+      </c>
+      <c r="O70" s="1">
+        <f>Table26[[#This Row],[Date of Death]]</f>
+        <v>43976</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2">
+        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <v>4746.524100468635</v>
+      </c>
+      <c r="S70" s="2">
+        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+        <v>25.265750070047943</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4747.4702639938905</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="6"/>
+        <v>0.94616352525554248</v>
+      </c>
+      <c r="O71" s="1"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4748.1730829292883</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="6"/>
+        <v>0.70281893539777229</v>
+      </c>
+      <c r="O72" s="1"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4748.6908494380332</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="6"/>
+        <v>0.5177665087448986</v>
+      </c>
+      <c r="O73" s="1"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2">
+        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <v>4749.0691506260637</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="6"/>
+        <v>0.37830118803049118</v>
+      </c>
+      <c r="O74" s="1"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <tableParts count="3">
     <tablePart r:id="rId2"/>

--- a/MA case analysis.xlsx
+++ b/MA case analysis.xlsx
@@ -2,24 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
-  <workbookPr checkCompatibility="1"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mserviciosrc-my.sharepoint.com/personal/lmelahn_lcred_org/Documents/COVID/MA-Covid-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{73E9C425-0FEB-9D45-862D-63319681AE9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B28B5990-4B57-5740-9948-FB5BFC85D01B}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{57D028E9-32F3-A142-888D-E37C1EB3B3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A904E06A-2188-9B4B-B03D-C722D5CAE0FA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{53B553D5-63C9-1943-8F02-62576D22A04A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Massachussets" sheetId="4" r:id="rId1"/>
+    <sheet name="Massachusetts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="InitialDate">#REF!</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,43 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
-    <t>Date</t>
+    <t>Date of Death</t>
   </si>
   <si>
-    <t>Total Deaths</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std Dev</t>
-  </si>
-  <si>
-    <t>Amplitude</t>
-  </si>
-  <si>
-    <t>Death Rate</t>
-  </si>
-  <si>
-    <t>Simple Model</t>
-  </si>
-  <si>
-    <t>Death Delay</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day </t>
-  </si>
-  <si>
-    <t>(raw rate)</t>
-  </si>
-  <si>
-    <t>cases (will equal total cases at the end)</t>
-  </si>
-  <si>
-    <t>Date of Death</t>
+    <t>Time</t>
   </si>
   <si>
     <t>New Deaths</t>
@@ -86,7 +56,13 @@
     <t>Running Total (normalized)</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Model (deaths)</t>
+  </si>
+  <si>
+    <t>Model (deaths/day)</t>
+  </si>
+  <si>
+    <t>Simple Model</t>
   </si>
   <si>
     <t>Value</t>
@@ -95,19 +71,46 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Deaths Model</t>
-  </si>
-  <si>
-    <t>Model (deaths)</t>
+    <t>Date</t>
   </si>
   <si>
     <t>Deaths/day * 20</t>
   </si>
   <si>
+    <t>Total Deaths</t>
+  </si>
+  <si>
+    <t>Deaths Model</t>
+  </si>
+  <si>
     <t>Daily Deaths Model *20</t>
   </si>
   <si>
-    <t>Model (deaths/day)</t>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day </t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>Amplitude</t>
+  </si>
+  <si>
+    <t>cases (will equal total cases at the end)</t>
+  </si>
+  <si>
+    <t>Death Rate</t>
+  </si>
+  <si>
+    <t>(raw rate)</t>
+  </si>
+  <si>
+    <t>Death Delay</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -143,26 +146,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
@@ -175,21 +168,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -285,11 +263,1342 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Massachussets!$P$1</c:f>
+              <c:f>Massachusetts!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Deaths</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Massachusetts!$O$2:$O$70</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Massachusetts!$Q$2:$Q$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1683</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2182</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2352</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2654</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2843</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3316</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3475</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3613</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3755</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3877</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7EA1-B04D-B506-FBE1D00F736D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Massachusetts!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deaths Model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Massachusetts!$O$2:$O$70</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Massachusetts!$R$2:$R$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>6.4120156502429433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6089341648644506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.470407482857341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.16680529642926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.90247017240744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.919698226774216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.502422000026378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.979342857516379</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.726222708434371</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.167016111914492</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.77350830481808</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>108.06312675385117</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>133.59461754467122</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>163.96132648673623</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>199.78190014504457</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>241.68832425923688</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>290.31134418902798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>346.26345976094302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>410.11984836952757</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>482.39773631493733</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>563.53489818716093</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>653.86810548966105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>753.61245617442069</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>862.8425846063825</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>981.47676679739618</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1109.2648915735372</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1245.781161533868</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1390.422219601202</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1542.4111738510423</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1700.8077260319676</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1864.5243128004536</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2032.3478613851698</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2202.9664631897517</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2547.0335368102483</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2717.6521386148302</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2885.4756871995464</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3049.1922739680322</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3207.5888261489577</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3359.577780398798</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3504.2188384661317</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3640.7351084264628</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3768.5232332026039</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3887.1574153936176</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3996.3875438255795</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4096.1318945103394</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4186.4651018128388</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4267.602263685063</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4339.880151630472</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4403.7365402390569</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4459.6886558109718</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4508.3116757407624</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4550.2180998549557</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4586.0386735132643</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4616.4053824553284</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4641.9368732461489</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4663.2264916951817</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4680.8329838880854</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4695.2737772915661</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4707.0206571424833</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4716.4975779999741</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4724.080301773226</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4730.0975298275926</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4734.8331947035704</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4738.5295925171422</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4741.391065835136</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4743.5879843497569</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4745.2608129651326</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4746.524100468635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7EA1-B04D-B506-FBE1D00F736D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Massachusetts!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Daily Deaths Model *20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Massachusetts!$O$2:$O$70</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Massachusetts!$S$2:$S$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="1">
+                  <c:v>43.93837029243015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.229466359857817</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.927956271438376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.713297519563611</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.34456108733551</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151.65447546504325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>189.53841714980001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>234.93759701835984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>288.8158680696024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>352.12984385807175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>425.79236898066171</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>510.62981581640116</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>607.33417884130006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>716.41147316616696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>838.1284822838461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>972.46039859582197</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1119.0423114383009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1277.127772171691</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1445.5577589081952</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1622.743237444472</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1806.6641460500023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1994.8870136951928</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2184.6025686392363</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2372.6836438202736</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2555.7624955228198</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2730.3253992066175</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2892.8211613466783</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3039.7790849968078</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3167.9310436185051</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3274.3317353697194</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3356.4709716943253</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3412.3720360916377</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3440.6707362049656</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3440.6707362049656</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3412.3720360916377</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3356.4709716943253</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3274.3317353697148</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3167.9310436185096</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3039.7790849968078</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2892.8211613466738</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2730.325399206622</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2555.7624955228221</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2372.6836438202736</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2184.6025686392386</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1994.8870136951973</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1806.6641460499886</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1622.7432374444834</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1445.5577589081804</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1277.1277721716979</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1119.0423114382975</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>972.46039859581288</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>838.12848228386429</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>716.41147316617207</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>607.33417884128357</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>510.62981581640997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>425.79236898065574</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>352.12984385807431</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>288.81586806961423</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>234.93759701834279</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>189.53841714981536</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>151.65447546503856</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>120.34456108733139</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>94.713297519556363</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>73.927956271436415</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57.229466359876824</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43.938370292416948</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33.456572307513852</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25.265750070047943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7EA1-B04D-B506-FBE1D00F736D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Massachusetts!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -322,7 +1631,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Massachussets!$O$2:$O$70</c:f>
+              <c:f>Massachusetts!$O$2:$O$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="69"/>
@@ -538,7 +1847,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Massachussets!$P$2:$P$70</c:f>
+              <c:f>Massachusetts!$P$2:$P$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -686,1338 +1995,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D254-0347-AA6D-70E7D581CB2D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Massachussets!$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Deaths</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Massachussets!$O$2:$O$70</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="69"/>
-                <c:pt idx="0">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43925</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43926</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43927</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43928</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43929</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43930</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43931</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43932</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43933</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43934</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43935</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43936</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43937</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43938</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43939</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43940</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43941</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43942</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43943</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43944</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43945</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43946</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43947</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43948</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43949</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43950</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43953</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43954</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43955</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43956</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43957</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43958</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43959</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43960</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43961</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43962</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43963</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43964</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43965</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43966</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43967</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43968</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43969</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43970</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43971</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43972</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43973</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43974</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43975</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43976</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Massachussets!$Q$2:$Q$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>519</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>619</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>731</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>953</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1064</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1222</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1341</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1516</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1683</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1845</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2182</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2352</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2504</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2654</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2843</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3027</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3170</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3316</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3475</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3613</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3755</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3877</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4056</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D254-0347-AA6D-70E7D581CB2D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Massachussets!$R$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Deaths Model</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Massachussets!$O$2:$O$70</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="69"/>
-                <c:pt idx="0">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43925</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43926</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43927</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43928</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43929</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43930</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43931</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43932</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43933</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43934</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43935</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43936</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43937</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43938</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43939</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43940</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43941</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43942</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43943</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43944</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43945</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43946</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43947</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43948</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43949</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43950</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43953</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43954</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43955</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43956</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43957</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43958</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43959</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43960</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43961</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43962</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43963</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43964</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43965</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43966</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43967</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43968</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43969</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43970</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43971</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43972</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43973</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43974</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43975</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43976</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Massachussets!$R$2:$R$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-                <c:pt idx="0">
-                  <c:v>6.4120156502429433</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6089341648644506</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.470407482857341</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.16680529642926</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.90247017240744</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.919698226774216</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33.502422000026378</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42.979342857516379</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54.726222708434371</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69.167016111914492</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>86.77350830481808</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>108.06312675385117</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>133.59461754467122</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>163.96132648673623</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>199.78190014504457</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>241.68832425923688</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>290.31134418902798</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>346.26345976094302</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>410.11984836952757</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>482.39773631493733</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>563.53489818716093</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>653.86810548966105</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>753.61245617442069</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>862.8425846063825</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>981.47676679739618</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1109.2648915735372</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1245.781161533868</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1390.422219601202</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1542.4111738510423</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1700.8077260319676</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1864.5243128004536</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2032.3478613851698</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2202.9664631897517</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2547.0335368102483</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2717.6521386148302</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2885.4756871995464</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3049.1922739680322</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3207.5888261489577</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3359.577780398798</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3504.2188384661317</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3640.7351084264628</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3768.5232332026039</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3887.1574153936176</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3996.3875438255795</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4096.1318945103394</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4186.4651018128388</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4267.602263685063</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4339.880151630472</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4403.7365402390569</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4459.6886558109718</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4508.3116757407624</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4550.2180998549557</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4586.0386735132643</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4616.4053824553284</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4641.9368732461489</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4663.2264916951817</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4680.8329838880854</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4695.2737772915661</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4707.0206571424833</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4716.4975779999741</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4724.080301773226</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4730.0975298275926</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4734.8331947035704</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4738.5295925171422</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>4741.391065835136</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4743.5879843497569</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4745.2608129651326</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4746.524100468635</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D254-0347-AA6D-70E7D581CB2D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Massachussets!$S$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Daily Deaths Model *20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Massachussets!$O$2:$O$70</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="69"/>
-                <c:pt idx="0">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43925</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43926</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43927</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43928</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43929</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43930</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43931</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43932</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43933</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43934</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43935</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43936</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43937</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43938</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43939</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43940</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43941</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43942</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43943</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43944</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43945</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43946</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43947</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43948</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43949</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43950</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43953</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43954</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43955</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43956</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43957</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43958</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43959</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43960</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43961</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43962</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43963</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43964</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>43965</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43966</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43967</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43968</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43969</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43970</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43971</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43972</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43973</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43974</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43975</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43976</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Massachussets!$S$2:$S$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-                <c:pt idx="1">
-                  <c:v>43.93837029243015</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>57.229466359857817</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>73.927956271438376</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94.713297519563611</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120.34456108733551</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>151.65447546504325</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>189.53841714980001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>234.93759701835984</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>288.8158680696024</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>352.12984385807175</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>425.79236898066171</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>510.62981581640116</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>607.33417884130006</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>716.41147316616696</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>838.1284822838461</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>972.46039859582197</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1119.0423114383009</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1277.127772171691</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1445.5577589081952</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1622.743237444472</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1806.6641460500023</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1994.8870136951928</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2184.6025686392363</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2372.6836438202736</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2555.7624955228198</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2730.3253992066175</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2892.8211613466783</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3039.7790849968078</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3167.9310436185051</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3274.3317353697194</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3356.4709716943253</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3412.3720360916377</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3440.6707362049656</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3440.6707362049656</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3412.3720360916377</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3356.4709716943253</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3274.3317353697148</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3167.9310436185096</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3039.7790849968078</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2892.8211613466738</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2730.325399206622</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2555.7624955228221</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2372.6836438202736</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2184.6025686392386</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1994.8870136951973</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1806.6641460499886</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1622.7432374444834</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1445.5577589081804</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1277.1277721716979</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1119.0423114382975</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>972.46039859581288</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>838.12848228386429</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>716.41147316617207</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>607.33417884128357</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>510.62981581640997</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>425.79236898065574</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>352.12984385807431</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>288.81586806961423</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>234.93759701834279</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>189.53841714981536</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>151.65447546503856</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>120.34456108733139</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>94.713297519556363</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>73.927956271436415</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>57.229466359876824</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43.938370292416948</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>33.456572307513852</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>25.265750070047943</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D254-0347-AA6D-70E7D581CB2D}"/>
+              <c16:uniqueId val="{00000000-7EA1-B04D-B506-FBE1D00F736D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2167,11 +2145,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:legendEntry>
-        <c:idx val="2"/>
+        <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="3"/>
+        <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -2807,27 +2785,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B9DA1B-B96F-6743-981F-A97F7E77964F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B911F92C-CB1B-2B42-8308-172BF7700565}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2844,26 +2824,1084 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Massachussets"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="P1" t="str">
+            <v>Deaths/day * 20</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>Total Deaths</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>Deaths Model</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>Daily Deaths Model *20</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="O2">
+            <v>43908</v>
+          </cell>
+          <cell r="P2">
+            <v>40</v>
+          </cell>
+          <cell r="Q2">
+            <v>2</v>
+          </cell>
+          <cell r="R2">
+            <v>6.4120156502429433</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="O3">
+            <v>43909</v>
+          </cell>
+          <cell r="P3">
+            <v>20</v>
+          </cell>
+          <cell r="Q3">
+            <v>3</v>
+          </cell>
+          <cell r="R3">
+            <v>8.6089341648644506</v>
+          </cell>
+          <cell r="S3">
+            <v>43.93837029243015</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="O4">
+            <v>43910</v>
+          </cell>
+          <cell r="P4">
+            <v>40</v>
+          </cell>
+          <cell r="Q4">
+            <v>5</v>
+          </cell>
+          <cell r="R4">
+            <v>11.470407482857341</v>
+          </cell>
+          <cell r="S4">
+            <v>57.229466359857817</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="O5">
+            <v>43911</v>
+          </cell>
+          <cell r="P5">
+            <v>40</v>
+          </cell>
+          <cell r="Q5">
+            <v>7</v>
+          </cell>
+          <cell r="R5">
+            <v>15.16680529642926</v>
+          </cell>
+          <cell r="S5">
+            <v>73.927956271438376</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="O6">
+            <v>43912</v>
+          </cell>
+          <cell r="P6">
+            <v>80</v>
+          </cell>
+          <cell r="Q6">
+            <v>11</v>
+          </cell>
+          <cell r="R6">
+            <v>19.90247017240744</v>
+          </cell>
+          <cell r="S6">
+            <v>94.713297519563611</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="O7">
+            <v>43913</v>
+          </cell>
+          <cell r="P7">
+            <v>120</v>
+          </cell>
+          <cell r="Q7">
+            <v>17</v>
+          </cell>
+          <cell r="R7">
+            <v>25.919698226774216</v>
+          </cell>
+          <cell r="S7">
+            <v>120.34456108733551</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="O8">
+            <v>43914</v>
+          </cell>
+          <cell r="P8">
+            <v>180</v>
+          </cell>
+          <cell r="Q8">
+            <v>26</v>
+          </cell>
+          <cell r="R8">
+            <v>33.502422000026378</v>
+          </cell>
+          <cell r="S8">
+            <v>151.65447546504325</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="O9">
+            <v>43915</v>
+          </cell>
+          <cell r="P9">
+            <v>140</v>
+          </cell>
+          <cell r="Q9">
+            <v>33</v>
+          </cell>
+          <cell r="R9">
+            <v>42.979342857516379</v>
+          </cell>
+          <cell r="S9">
+            <v>189.53841714980001</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="O10">
+            <v>43916</v>
+          </cell>
+          <cell r="P10">
+            <v>180</v>
+          </cell>
+          <cell r="Q10">
+            <v>42</v>
+          </cell>
+          <cell r="R10">
+            <v>54.726222708434371</v>
+          </cell>
+          <cell r="S10">
+            <v>234.93759701835984</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="O11">
+            <v>43917</v>
+          </cell>
+          <cell r="P11">
+            <v>300</v>
+          </cell>
+          <cell r="Q11">
+            <v>57</v>
+          </cell>
+          <cell r="R11">
+            <v>69.167016111914492</v>
+          </cell>
+          <cell r="S11">
+            <v>288.8158680696024</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="O12">
+            <v>43918</v>
+          </cell>
+          <cell r="P12">
+            <v>300</v>
+          </cell>
+          <cell r="Q12">
+            <v>72</v>
+          </cell>
+          <cell r="R12">
+            <v>86.77350830481808</v>
+          </cell>
+          <cell r="S12">
+            <v>352.12984385807175</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="O13">
+            <v>43919</v>
+          </cell>
+          <cell r="P13">
+            <v>540</v>
+          </cell>
+          <cell r="Q13">
+            <v>99</v>
+          </cell>
+          <cell r="R13">
+            <v>108.06312675385117</v>
+          </cell>
+          <cell r="S13">
+            <v>425.79236898066171</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="O14">
+            <v>43920</v>
+          </cell>
+          <cell r="P14">
+            <v>520</v>
+          </cell>
+          <cell r="Q14">
+            <v>125</v>
+          </cell>
+          <cell r="R14">
+            <v>133.59461754467122</v>
+          </cell>
+          <cell r="S14">
+            <v>510.62981581640116</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="O15">
+            <v>43921</v>
+          </cell>
+          <cell r="P15">
+            <v>580</v>
+          </cell>
+          <cell r="Q15">
+            <v>154</v>
+          </cell>
+          <cell r="R15">
+            <v>163.96132648673623</v>
+          </cell>
+          <cell r="S15">
+            <v>607.33417884130006</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="O16">
+            <v>43922</v>
+          </cell>
+          <cell r="P16">
+            <v>700</v>
+          </cell>
+          <cell r="Q16">
+            <v>189</v>
+          </cell>
+          <cell r="R16">
+            <v>199.78190014504457</v>
+          </cell>
+          <cell r="S16">
+            <v>716.41147316616696</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="O17">
+            <v>43923</v>
+          </cell>
+          <cell r="P17">
+            <v>840</v>
+          </cell>
+          <cell r="Q17">
+            <v>231</v>
+          </cell>
+          <cell r="R17">
+            <v>241.68832425923688</v>
+          </cell>
+          <cell r="S17">
+            <v>838.1284822838461</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="O18">
+            <v>43924</v>
+          </cell>
+          <cell r="P18">
+            <v>720</v>
+          </cell>
+          <cell r="Q18">
+            <v>267</v>
+          </cell>
+          <cell r="R18">
+            <v>290.31134418902798</v>
+          </cell>
+          <cell r="S18">
+            <v>972.46039859582197</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="O19">
+            <v>43925</v>
+          </cell>
+          <cell r="P19">
+            <v>780</v>
+          </cell>
+          <cell r="Q19">
+            <v>306</v>
+          </cell>
+          <cell r="R19">
+            <v>346.26345976094302</v>
+          </cell>
+          <cell r="S19">
+            <v>1119.0423114383009</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="O20">
+            <v>43926</v>
+          </cell>
+          <cell r="P20">
+            <v>1340</v>
+          </cell>
+          <cell r="Q20">
+            <v>373</v>
+          </cell>
+          <cell r="R20">
+            <v>410.11984836952757</v>
+          </cell>
+          <cell r="S20">
+            <v>1277.127772171691</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="O21">
+            <v>43927</v>
+          </cell>
+          <cell r="P21">
+            <v>1580</v>
+          </cell>
+          <cell r="Q21">
+            <v>452</v>
+          </cell>
+          <cell r="R21">
+            <v>482.39773631493733</v>
+          </cell>
+          <cell r="S21">
+            <v>1445.5577589081952</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="O22">
+            <v>43928</v>
+          </cell>
+          <cell r="P22">
+            <v>1340</v>
+          </cell>
+          <cell r="Q22">
+            <v>519</v>
+          </cell>
+          <cell r="R22">
+            <v>563.53489818716093</v>
+          </cell>
+          <cell r="S22">
+            <v>1622.743237444472</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="O23">
+            <v>43929</v>
+          </cell>
+          <cell r="P23">
+            <v>2000</v>
+          </cell>
+          <cell r="Q23">
+            <v>619</v>
+          </cell>
+          <cell r="R23">
+            <v>653.86810548966105</v>
+          </cell>
+          <cell r="S23">
+            <v>1806.6641460500023</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="O24">
+            <v>43930</v>
+          </cell>
+          <cell r="P24">
+            <v>2240</v>
+          </cell>
+          <cell r="Q24">
+            <v>731</v>
+          </cell>
+          <cell r="R24">
+            <v>753.61245617442069</v>
+          </cell>
+          <cell r="S24">
+            <v>1994.8870136951928</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="O25">
+            <v>43931</v>
+          </cell>
+          <cell r="P25">
+            <v>2100</v>
+          </cell>
+          <cell r="Q25">
+            <v>836</v>
+          </cell>
+          <cell r="R25">
+            <v>862.8425846063825</v>
+          </cell>
+          <cell r="S25">
+            <v>2184.6025686392363</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="O26">
+            <v>43932</v>
+          </cell>
+          <cell r="P26">
+            <v>2340</v>
+          </cell>
+          <cell r="Q26">
+            <v>953</v>
+          </cell>
+          <cell r="R26">
+            <v>981.47676679739618</v>
+          </cell>
+          <cell r="S26">
+            <v>2372.6836438202736</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="O27">
+            <v>43933</v>
+          </cell>
+          <cell r="P27">
+            <v>2220</v>
+          </cell>
+          <cell r="Q27">
+            <v>1064</v>
+          </cell>
+          <cell r="R27">
+            <v>1109.2648915735372</v>
+          </cell>
+          <cell r="S27">
+            <v>2555.7624955228198</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="O28">
+            <v>43934</v>
+          </cell>
+          <cell r="P28">
+            <v>3160</v>
+          </cell>
+          <cell r="Q28">
+            <v>1222</v>
+          </cell>
+          <cell r="R28">
+            <v>1245.781161533868</v>
+          </cell>
+          <cell r="S28">
+            <v>2730.3253992066175</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="O29">
+            <v>43935</v>
+          </cell>
+          <cell r="P29">
+            <v>2380</v>
+          </cell>
+          <cell r="Q29">
+            <v>1341</v>
+          </cell>
+          <cell r="R29">
+            <v>1390.422219601202</v>
+          </cell>
+          <cell r="S29">
+            <v>2892.8211613466783</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="O30">
+            <v>43936</v>
+          </cell>
+          <cell r="P30">
+            <v>3500</v>
+          </cell>
+          <cell r="Q30">
+            <v>1516</v>
+          </cell>
+          <cell r="R30">
+            <v>1542.4111738510423</v>
+          </cell>
+          <cell r="S30">
+            <v>3039.7790849968078</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="O31">
+            <v>43937</v>
+          </cell>
+          <cell r="P31">
+            <v>3340</v>
+          </cell>
+          <cell r="Q31">
+            <v>1683</v>
+          </cell>
+          <cell r="R31">
+            <v>1700.8077260319676</v>
+          </cell>
+          <cell r="S31">
+            <v>3167.9310436185051</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="O32">
+            <v>43938</v>
+          </cell>
+          <cell r="P32">
+            <v>3240</v>
+          </cell>
+          <cell r="Q32">
+            <v>1845</v>
+          </cell>
+          <cell r="R32">
+            <v>1864.5243128004536</v>
+          </cell>
+          <cell r="S32">
+            <v>3274.3317353697194</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="O33">
+            <v>43939</v>
+          </cell>
+          <cell r="P33">
+            <v>3320</v>
+          </cell>
+          <cell r="Q33">
+            <v>2011</v>
+          </cell>
+          <cell r="R33">
+            <v>2032.3478613851698</v>
+          </cell>
+          <cell r="S33">
+            <v>3356.4709716943253</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="O34">
+            <v>43940</v>
+          </cell>
+          <cell r="P34">
+            <v>3420</v>
+          </cell>
+          <cell r="Q34">
+            <v>2182</v>
+          </cell>
+          <cell r="R34">
+            <v>2202.9664631897517</v>
+          </cell>
+          <cell r="S34">
+            <v>3412.3720360916377</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="O35">
+            <v>43941</v>
+          </cell>
+          <cell r="P35">
+            <v>3400</v>
+          </cell>
+          <cell r="Q35">
+            <v>2352</v>
+          </cell>
+          <cell r="R35">
+            <v>2375</v>
+          </cell>
+          <cell r="S35">
+            <v>3440.6707362049656</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="O36">
+            <v>43942</v>
+          </cell>
+          <cell r="P36">
+            <v>3040</v>
+          </cell>
+          <cell r="Q36">
+            <v>2504</v>
+          </cell>
+          <cell r="R36">
+            <v>2547.0335368102483</v>
+          </cell>
+          <cell r="S36">
+            <v>3440.6707362049656</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="O37">
+            <v>43943</v>
+          </cell>
+          <cell r="P37">
+            <v>3000</v>
+          </cell>
+          <cell r="Q37">
+            <v>2654</v>
+          </cell>
+          <cell r="R37">
+            <v>2717.6521386148302</v>
+          </cell>
+          <cell r="S37">
+            <v>3412.3720360916377</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="O38">
+            <v>43944</v>
+          </cell>
+          <cell r="P38">
+            <v>3780</v>
+          </cell>
+          <cell r="Q38">
+            <v>2843</v>
+          </cell>
+          <cell r="R38">
+            <v>2885.4756871995464</v>
+          </cell>
+          <cell r="S38">
+            <v>3356.4709716943253</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="O39">
+            <v>43945</v>
+          </cell>
+          <cell r="P39">
+            <v>3680</v>
+          </cell>
+          <cell r="Q39">
+            <v>3027</v>
+          </cell>
+          <cell r="R39">
+            <v>3049.1922739680322</v>
+          </cell>
+          <cell r="S39">
+            <v>3274.3317353697148</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="O40">
+            <v>43946</v>
+          </cell>
+          <cell r="P40">
+            <v>2860</v>
+          </cell>
+          <cell r="Q40">
+            <v>3170</v>
+          </cell>
+          <cell r="R40">
+            <v>3207.5888261489577</v>
+          </cell>
+          <cell r="S40">
+            <v>3167.9310436185096</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="O41">
+            <v>43947</v>
+          </cell>
+          <cell r="P41">
+            <v>2920</v>
+          </cell>
+          <cell r="Q41">
+            <v>3316</v>
+          </cell>
+          <cell r="R41">
+            <v>3359.577780398798</v>
+          </cell>
+          <cell r="S41">
+            <v>3039.7790849968078</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="O42">
+            <v>43948</v>
+          </cell>
+          <cell r="P42">
+            <v>3180</v>
+          </cell>
+          <cell r="Q42">
+            <v>3475</v>
+          </cell>
+          <cell r="R42">
+            <v>3504.2188384661317</v>
+          </cell>
+          <cell r="S42">
+            <v>2892.8211613466738</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="O43">
+            <v>43949</v>
+          </cell>
+          <cell r="P43">
+            <v>2760</v>
+          </cell>
+          <cell r="Q43">
+            <v>3613</v>
+          </cell>
+          <cell r="R43">
+            <v>3640.7351084264628</v>
+          </cell>
+          <cell r="S43">
+            <v>2730.325399206622</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="O44">
+            <v>43950</v>
+          </cell>
+          <cell r="P44">
+            <v>2840</v>
+          </cell>
+          <cell r="Q44">
+            <v>3755</v>
+          </cell>
+          <cell r="R44">
+            <v>3768.5232332026039</v>
+          </cell>
+          <cell r="S44">
+            <v>2555.7624955228221</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="O45">
+            <v>43951</v>
+          </cell>
+          <cell r="P45">
+            <v>2440</v>
+          </cell>
+          <cell r="Q45">
+            <v>3877</v>
+          </cell>
+          <cell r="R45">
+            <v>3887.1574153936176</v>
+          </cell>
+          <cell r="S45">
+            <v>2372.6836438202736</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="O46">
+            <v>43952</v>
+          </cell>
+          <cell r="P46">
+            <v>2440</v>
+          </cell>
+          <cell r="Q46">
+            <v>3999</v>
+          </cell>
+          <cell r="R46">
+            <v>3996.3875438255795</v>
+          </cell>
+          <cell r="S46">
+            <v>2184.6025686392386</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="O47">
+            <v>43953</v>
+          </cell>
+          <cell r="P47">
+            <v>1140</v>
+          </cell>
+          <cell r="Q47">
+            <v>4056</v>
+          </cell>
+          <cell r="R47">
+            <v>4096.1318945103394</v>
+          </cell>
+          <cell r="S47">
+            <v>1994.8870136951973</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="O48">
+            <v>43954</v>
+          </cell>
+          <cell r="R48">
+            <v>4186.4651018128388</v>
+          </cell>
+          <cell r="S48">
+            <v>1806.6641460499886</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="O49">
+            <v>43955</v>
+          </cell>
+          <cell r="R49">
+            <v>4267.602263685063</v>
+          </cell>
+          <cell r="S49">
+            <v>1622.7432374444834</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="O50">
+            <v>43956</v>
+          </cell>
+          <cell r="R50">
+            <v>4339.880151630472</v>
+          </cell>
+          <cell r="S50">
+            <v>1445.5577589081804</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="O51">
+            <v>43957</v>
+          </cell>
+          <cell r="R51">
+            <v>4403.7365402390569</v>
+          </cell>
+          <cell r="S51">
+            <v>1277.1277721716979</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="O52">
+            <v>43958</v>
+          </cell>
+          <cell r="R52">
+            <v>4459.6886558109718</v>
+          </cell>
+          <cell r="S52">
+            <v>1119.0423114382975</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="O53">
+            <v>43959</v>
+          </cell>
+          <cell r="R53">
+            <v>4508.3116757407624</v>
+          </cell>
+          <cell r="S53">
+            <v>972.46039859581288</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="O54">
+            <v>43960</v>
+          </cell>
+          <cell r="R54">
+            <v>4550.2180998549557</v>
+          </cell>
+          <cell r="S54">
+            <v>838.12848228386429</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="O55">
+            <v>43961</v>
+          </cell>
+          <cell r="R55">
+            <v>4586.0386735132643</v>
+          </cell>
+          <cell r="S55">
+            <v>716.41147316617207</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="O56">
+            <v>43962</v>
+          </cell>
+          <cell r="R56">
+            <v>4616.4053824553284</v>
+          </cell>
+          <cell r="S56">
+            <v>607.33417884128357</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="O57">
+            <v>43963</v>
+          </cell>
+          <cell r="R57">
+            <v>4641.9368732461489</v>
+          </cell>
+          <cell r="S57">
+            <v>510.62981581640997</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="O58">
+            <v>43964</v>
+          </cell>
+          <cell r="R58">
+            <v>4663.2264916951817</v>
+          </cell>
+          <cell r="S58">
+            <v>425.79236898065574</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="O59">
+            <v>43965</v>
+          </cell>
+          <cell r="R59">
+            <v>4680.8329838880854</v>
+          </cell>
+          <cell r="S59">
+            <v>352.12984385807431</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="O60">
+            <v>43966</v>
+          </cell>
+          <cell r="R60">
+            <v>4695.2737772915661</v>
+          </cell>
+          <cell r="S60">
+            <v>288.81586806961423</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="O61">
+            <v>43967</v>
+          </cell>
+          <cell r="R61">
+            <v>4707.0206571424833</v>
+          </cell>
+          <cell r="S61">
+            <v>234.93759701834279</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="O62">
+            <v>43968</v>
+          </cell>
+          <cell r="R62">
+            <v>4716.4975779999741</v>
+          </cell>
+          <cell r="S62">
+            <v>189.53841714981536</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="O63">
+            <v>43969</v>
+          </cell>
+          <cell r="R63">
+            <v>4724.080301773226</v>
+          </cell>
+          <cell r="S63">
+            <v>151.65447546503856</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="O64">
+            <v>43970</v>
+          </cell>
+          <cell r="R64">
+            <v>4730.0975298275926</v>
+          </cell>
+          <cell r="S64">
+            <v>120.34456108733139</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="O65">
+            <v>43971</v>
+          </cell>
+          <cell r="R65">
+            <v>4734.8331947035704</v>
+          </cell>
+          <cell r="S65">
+            <v>94.713297519556363</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="O66">
+            <v>43972</v>
+          </cell>
+          <cell r="R66">
+            <v>4738.5295925171422</v>
+          </cell>
+          <cell r="S66">
+            <v>73.927956271436415</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="O67">
+            <v>43973</v>
+          </cell>
+          <cell r="R67">
+            <v>4741.391065835136</v>
+          </cell>
+          <cell r="S67">
+            <v>57.229466359876824</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="O68">
+            <v>43974</v>
+          </cell>
+          <cell r="R68">
+            <v>4743.5879843497569</v>
+          </cell>
+          <cell r="S68">
+            <v>43.938370292416948</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="O69">
+            <v>43975</v>
+          </cell>
+          <cell r="R69">
+            <v>4745.2608129651326</v>
+          </cell>
+          <cell r="S69">
+            <v>33.456572307513852</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="O70">
+            <v>43976</v>
+          </cell>
+          <cell r="R70">
+            <v>4746.524100468635</v>
+          </cell>
+          <cell r="S70">
+            <v>25.265750070047943</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{48D865E2-D08D-CC4B-A5A5-2BC248F5DA8C}" name="Table26" displayName="Table26" ref="A1:H74" totalsRowShown="0">
-  <autoFilter ref="A1:H74" xr:uid="{21911FD9-E9A7-7B4E-AA91-03E566661BC3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDEDC61A-DAAD-344B-A64E-DA3E1E2A3D1B}" name="Table1" displayName="Table1" ref="A1:H74" totalsRowShown="0">
+  <autoFilter ref="A1:H74" xr:uid="{9F5FAF62-E848-F54F-963B-0F29B33B7744}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{39A5DFED-1B78-7E47-AC29-6651F47201A9}" name="Date of Death" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{D2CBDB34-DDA1-9F49-AF6D-641094478C0F}" name="Time" dataDxfId="11">
-      <calculatedColumnFormula>A2-A$2</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{406E5C67-6DBF-2D4A-862E-59F357A3BC34}" name="Date of Death" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{C87E43E7-C161-A041-8A3A-FB6D2DB3CB30}" name="Time"/>
+    <tableColumn id="3" xr3:uid="{C60420CB-D4C9-B24C-A088-DB19FA78F336}" name="New Deaths"/>
+    <tableColumn id="4" xr3:uid="{11A4F42F-EFD9-6645-B6A9-D7706A134FA0}" name="Running Total"/>
+    <tableColumn id="5" xr3:uid="{E40C8084-3C05-7A4B-8262-0EBD2C4D0196}" name="Deaths (normalized)" dataDxfId="4">
+      <calculatedColumnFormula>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C8EE336B-20C3-2246-910B-AF1DB6248AD7}" name="New Deaths"/>
-    <tableColumn id="3" xr3:uid="{C1DC7C41-39B7-0549-A511-08ED5BD187E3}" name="Running Total"/>
-    <tableColumn id="4" xr3:uid="{FA5D296B-F3F7-984E-87F9-6DC88F8FABE0}" name="Deaths (normalized)" dataDxfId="10">
-      <calculatedColumnFormula>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{DD75D7D1-AF29-894F-82B1-4172DC3A9275}" name="Running Total (normalized)" dataDxfId="3">
+      <calculatedColumnFormula>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F786D82B-4E95-4A44-999E-055BE7FA65F1}" name="Running Total (normalized)" dataDxfId="9">
-      <calculatedColumnFormula>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{DE2BC88E-C406-2548-B151-92BB5C26883B}" name="Model (deaths)">
+      <calculatedColumnFormula>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{02B4EB61-1F0A-7145-8FE5-CE2A0884B2FB}" name="Model (deaths)" dataDxfId="8">
-      <calculatedColumnFormula>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{7E3E1C27-B544-574D-A6B9-FDBD2E213244}" name="Model (deaths/day)" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{F8EE4233-E2D0-4748-AF5F-505A7DAF2B2D}" name="Model (deaths/day)" dataDxfId="2">
       <calculatedColumnFormula>G2-G1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2872,36 +3910,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0D85075E-7970-674A-8CF6-D1A8FF91FDE7}" name="Table8" displayName="Table8" ref="J1:L6" totalsRowShown="0">
-  <autoFilter ref="J1:L6" xr:uid="{E5E313FE-7D52-6B43-955C-DD357C1FE44F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B1C575D-43F6-924C-9F38-628E176E8842}" name="Table2" displayName="Table2" ref="J1:L6" totalsRowShown="0">
+  <autoFilter ref="J1:L6" xr:uid="{DE297445-6B90-674C-97B2-6539F8CED9C5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{243E4FA5-3B72-8645-AD07-E23F12D0294F}" name="Simple Model" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{680A248B-F6B5-8A4C-BCED-4B3968D0D9C0}" name="Value" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C91F822F-B93B-964B-8E4B-619616E8BF3F}" name="Unit"/>
+    <tableColumn id="1" xr3:uid="{63222C2C-B819-BF4A-BA1A-ADE530C34EB3}" name="Simple Model"/>
+    <tableColumn id="2" xr3:uid="{37CD1CE7-957E-FE4F-9B73-EEACEBDD1983}" name="Value"/>
+    <tableColumn id="3" xr3:uid="{A342AB75-EFC1-1B4F-8D1D-C755ACAFB4A0}" name="Unit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4A3EC810-A7B9-E347-9B79-6E99EDD0658A}" name="Table9" displayName="Table9" ref="O1:S70" totalsRowShown="0">
-  <autoFilter ref="O1:S70" xr:uid="{8A567930-1BEC-2B42-8586-CA71B39AA169}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4304B0B4-4584-1042-B599-94E8681E1826}" name="Table3" displayName="Table3" ref="O1:S70" totalsRowShown="0">
+  <autoFilter ref="O1:S70" xr:uid="{2EE0D2BC-E15D-7A42-843A-5D5504704ACD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A915EA15-2EFD-014C-B345-428AF1988EE3}" name="Date" dataDxfId="4">
-      <calculatedColumnFormula>Table26[[#This Row],[Date of Death]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{382F6E45-81FC-7B4B-B325-C82811E0590F}" name="Deaths/day * 20" dataDxfId="3">
-      <calculatedColumnFormula>Table26[[#This Row],[New Deaths]]*20</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{C5BEC951-FA8B-EC4B-B81E-6B36D0FC8F93}" name="Total Deaths" dataDxfId="2">
-      <calculatedColumnFormula>Table26[[#This Row],[Running Total]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{66F5B1D6-158B-2743-8726-57BE2AB4AB3D}" name="Deaths Model" dataDxfId="1">
-      <calculatedColumnFormula>Table26[[#This Row],[Model (deaths)]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{C947925D-F742-9C48-8E43-A291681642B4}" name="Daily Deaths Model *20" dataDxfId="0">
-      <calculatedColumnFormula>Table26[[#This Row],[Model (deaths/day)]]*20</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{19A56E58-C143-D642-AF7B-876C7956CBF2}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C8EAD9F4-C4ED-EE49-9DB8-25A845742D11}" name="Deaths/day * 20"/>
+    <tableColumn id="3" xr3:uid="{90083916-7BA6-A14C-817D-2ADAE0D4BB0A}" name="Total Deaths"/>
+    <tableColumn id="4" xr3:uid="{9D2EAB4E-D3A4-7840-AEA4-406E756DDAC1}" name="Deaths Model"/>
+    <tableColumn id="5" xr3:uid="{00156412-23EF-CB47-A53F-880FF66A43C7}" name="Daily Deaths Model *20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2924,7 +3952,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2936,7 +3964,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2950,12 +3978,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2983,14 +4011,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3018,6 +4063,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3169,82 +4231,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED21C7-CBD5-CB48-9B6A-6B58F98A2F4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039AF893-0F3E-7648-8E22-05B45FBF5E08}">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="9" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="17.1640625" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43908</v>
       </c>
-      <c r="B2" s="2">
-        <f t="shared" ref="B2:B47" si="0">A2-A$2</f>
+      <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
@@ -3254,51 +4319,48 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>1.0582010582010581E-2</v>
       </c>
       <c r="F2">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>4.9309664694280081E-4</v>
       </c>
-      <c r="G2" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G2">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>6.4120156502429433</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1">
+        <f>Table1[[#This Row],[Date of Death]]</f>
+        <v>43908</v>
+      </c>
+      <c r="P2">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>40</v>
+      </c>
+      <c r="Q2">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>2</v>
       </c>
-      <c r="K2" s="2">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
-        <v>43908</v>
-      </c>
-      <c r="P2" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
-        <v>40</v>
-      </c>
-      <c r="Q2">
-        <f>Table26[[#This Row],[Running Total]]</f>
-        <v>2</v>
-      </c>
       <c r="R2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>6.4120156502429433</v>
       </c>
-      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43909</v>
       </c>
-      <c r="B3" s="2">
-        <f t="shared" si="0"/>
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
@@ -3308,48 +4370,43 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>5.2910052910052907E-3</v>
       </c>
       <c r="F3">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>7.3964497041420117E-4</v>
       </c>
-      <c r="G3" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G3">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>8.6089341648644506</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H33" si="1">G3-G2</f>
+      <c r="H3">
+        <f t="shared" ref="H2:H33" si="0">G3-G2</f>
         <v>2.1969185146215073</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1">
+        <v>43909</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
         <v>3</v>
       </c>
-      <c r="K3" s="2">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
-        <v>43909</v>
-      </c>
-      <c r="P3" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
-        <v>20</v>
-      </c>
-      <c r="Q3">
-        <f>Table26[[#This Row],[Running Total]]</f>
-        <v>3</v>
-      </c>
       <c r="R3">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>8.6089341648644506</v>
       </c>
-      <c r="S3" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S3">
         <v>43.93837029243015</v>
       </c>
     </row>
@@ -3357,8 +4414,7 @@
       <c r="A4" s="1">
         <v>43910</v>
       </c>
-      <c r="B4" s="2">
-        <f t="shared" si="0"/>
+      <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
@@ -3368,48 +4424,43 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>1.0582010582010581E-2</v>
       </c>
       <c r="F4">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>1.232741617357002E-3</v>
       </c>
-      <c r="G4" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G4">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>11.470407482857341</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" si="1"/>
+      <c r="H4">
+        <f t="shared" si="0"/>
         <v>2.8614733179928908</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
         <v>4750</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O4" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43910</v>
       </c>
-      <c r="P4" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P4">
         <v>40</v>
       </c>
       <c r="Q4">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>5</v>
       </c>
       <c r="R4">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>11.470407482857341</v>
       </c>
-      <c r="S4" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S4">
         <v>57.229466359857817</v>
       </c>
     </row>
@@ -3417,8 +4468,7 @@
       <c r="A5" s="1">
         <v>43911</v>
       </c>
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
+      <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
@@ -3428,48 +4478,43 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>1.0582010582010581E-2</v>
       </c>
       <c r="F5">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>1.7258382642998027E-3</v>
       </c>
-      <c r="G5" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G5">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>15.16680529642926</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" si="1"/>
+      <c r="H5">
+        <f t="shared" si="0"/>
         <v>3.6963978135719184</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="O5" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43911</v>
       </c>
-      <c r="P5" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P5">
         <v>40</v>
       </c>
       <c r="Q5">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>7</v>
       </c>
       <c r="R5">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>15.16680529642926</v>
       </c>
-      <c r="S5" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S5">
         <v>73.927956271438376</v>
       </c>
     </row>
@@ -3477,8 +4522,7 @@
       <c r="A6" s="1">
         <v>43912</v>
       </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
+      <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
@@ -3488,48 +4532,43 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>2.1164021164021163E-2</v>
       </c>
       <c r="F6">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>2.7120315581854043E-3</v>
       </c>
-      <c r="G6" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G6">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>19.90247017240744</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
+      <c r="H6">
+        <f t="shared" si="0"/>
         <v>4.7356648759781805</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="O6" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43912</v>
       </c>
-      <c r="P6" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P6">
         <v>80</v>
       </c>
       <c r="Q6">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>11</v>
       </c>
       <c r="R6">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>19.90247017240744</v>
       </c>
-      <c r="S6" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S6">
         <v>94.713297519563611</v>
       </c>
     </row>
@@ -3537,8 +4576,7 @@
       <c r="A7" s="1">
         <v>43913</v>
       </c>
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
+      <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
@@ -3548,41 +4586,34 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>3.1746031746031744E-2</v>
       </c>
       <c r="F7">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>4.1913214990138064E-3</v>
       </c>
-      <c r="G7" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G7">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>25.919698226774216</v>
       </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
+      <c r="H7">
+        <f t="shared" si="0"/>
         <v>6.0172280543667753</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
       <c r="O7" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43913</v>
       </c>
-      <c r="P7" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P7">
         <v>120</v>
       </c>
       <c r="Q7">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>17</v>
       </c>
       <c r="R7">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>25.919698226774216</v>
       </c>
-      <c r="S7" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S7">
         <v>120.34456108733551</v>
       </c>
     </row>
@@ -3590,8 +4621,7 @@
       <c r="A8" s="1">
         <v>43914</v>
       </c>
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
+      <c r="B8">
         <v>6</v>
       </c>
       <c r="C8">
@@ -3601,41 +4631,34 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="F8">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>6.41025641025641E-3</v>
       </c>
-      <c r="G8" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G8">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>33.502422000026378</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
+      <c r="H8">
+        <f t="shared" si="0"/>
         <v>7.5827237732521624</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
       <c r="O8" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43914</v>
       </c>
-      <c r="P8" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P8">
         <v>180</v>
       </c>
       <c r="Q8">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>26</v>
       </c>
       <c r="R8">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>33.502422000026378</v>
       </c>
-      <c r="S8" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S8">
         <v>151.65447546504325</v>
       </c>
     </row>
@@ -3643,8 +4666,7 @@
       <c r="A9" s="1">
         <v>43915</v>
       </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
+      <c r="B9">
         <v>7</v>
       </c>
       <c r="C9">
@@ -3654,41 +4676,34 @@
         <v>33</v>
       </c>
       <c r="E9">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="F9">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>8.1360946745562129E-3</v>
       </c>
-      <c r="G9" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G9">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>42.979342857516379</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
+      <c r="H9">
+        <f t="shared" si="0"/>
         <v>9.4769208574900006</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
       <c r="O9" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43915</v>
       </c>
-      <c r="P9" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P9">
         <v>140</v>
       </c>
       <c r="Q9">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>33</v>
       </c>
       <c r="R9">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>42.979342857516379</v>
       </c>
-      <c r="S9" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S9">
         <v>189.53841714980001</v>
       </c>
     </row>
@@ -3696,8 +4711,7 @@
       <c r="A10" s="1">
         <v>43916</v>
       </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
+      <c r="B10">
         <v>8</v>
       </c>
       <c r="C10">
@@ -3707,41 +4721,34 @@
         <v>42</v>
       </c>
       <c r="E10">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="F10">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>1.0355029585798817E-2</v>
       </c>
-      <c r="G10" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G10">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>54.726222708434371</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
+      <c r="H10">
+        <f t="shared" si="0"/>
         <v>11.746879850917992</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
       <c r="O10" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43916</v>
       </c>
-      <c r="P10" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P10">
         <v>180</v>
       </c>
       <c r="Q10">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>42</v>
       </c>
       <c r="R10">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>54.726222708434371</v>
       </c>
-      <c r="S10" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S10">
         <v>234.93759701835984</v>
       </c>
     </row>
@@ -3749,8 +4756,7 @@
       <c r="A11" s="1">
         <v>43917</v>
       </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
+      <c r="B11">
         <v>9</v>
       </c>
       <c r="C11">
@@ -3760,41 +4766,34 @@
         <v>57</v>
       </c>
       <c r="E11">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>7.9365079365079361E-2</v>
       </c>
       <c r="F11">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>1.4053254437869823E-2</v>
       </c>
-      <c r="G11" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G11">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>69.167016111914492</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
+      <c r="H11">
+        <f t="shared" si="0"/>
         <v>14.440793403480122</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
       <c r="O11" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43917</v>
       </c>
-      <c r="P11" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P11">
         <v>300</v>
       </c>
       <c r="Q11">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>57</v>
       </c>
       <c r="R11">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>69.167016111914492</v>
       </c>
-      <c r="S11" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S11">
         <v>288.8158680696024</v>
       </c>
     </row>
@@ -3802,8 +4801,7 @@
       <c r="A12" s="1">
         <v>43918</v>
       </c>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
+      <c r="B12">
         <v>10</v>
       </c>
       <c r="C12">
@@ -3813,41 +4811,34 @@
         <v>72</v>
       </c>
       <c r="E12">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>7.9365079365079361E-2</v>
       </c>
       <c r="F12">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>1.7751479289940829E-2</v>
       </c>
-      <c r="G12" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G12">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>86.77350830481808</v>
       </c>
-      <c r="H12" s="2">
-        <f t="shared" si="1"/>
+      <c r="H12">
+        <f t="shared" si="0"/>
         <v>17.606492192903588</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
       <c r="O12" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43918</v>
       </c>
-      <c r="P12" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P12">
         <v>300</v>
       </c>
       <c r="Q12">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>72</v>
       </c>
       <c r="R12">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>86.77350830481808</v>
       </c>
-      <c r="S12" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S12">
         <v>352.12984385807175</v>
       </c>
     </row>
@@ -3855,8 +4846,7 @@
       <c r="A13" s="1">
         <v>43919</v>
       </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
+      <c r="B13">
         <v>11</v>
       </c>
       <c r="C13">
@@ -3866,41 +4856,34 @@
         <v>99</v>
       </c>
       <c r="E13">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="F13">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>2.4408284023668639E-2</v>
       </c>
-      <c r="G13" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G13">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>108.06312675385117</v>
       </c>
-      <c r="H13" s="2">
-        <f t="shared" si="1"/>
+      <c r="H13">
+        <f t="shared" si="0"/>
         <v>21.289618449033085</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
       <c r="O13" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43919</v>
       </c>
-      <c r="P13" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P13">
         <v>540</v>
       </c>
       <c r="Q13">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>99</v>
       </c>
       <c r="R13">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>108.06312675385117</v>
       </c>
-      <c r="S13" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S13">
         <v>425.79236898066171</v>
       </c>
     </row>
@@ -3908,8 +4891,7 @@
       <c r="A14" s="1">
         <v>43920</v>
       </c>
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
+      <c r="B14">
         <v>12</v>
       </c>
       <c r="C14">
@@ -3919,41 +4901,34 @@
         <v>125</v>
       </c>
       <c r="E14">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.13756613756613756</v>
       </c>
       <c r="F14">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>3.0818540433925051E-2</v>
       </c>
-      <c r="G14" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G14">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>133.59461754467122</v>
       </c>
-      <c r="H14" s="2">
-        <f t="shared" si="1"/>
+      <c r="H14">
+        <f t="shared" si="0"/>
         <v>25.531490790820058</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
       <c r="O14" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43920</v>
       </c>
-      <c r="P14" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P14">
         <v>520</v>
       </c>
       <c r="Q14">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>125</v>
       </c>
       <c r="R14">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>133.59461754467122</v>
       </c>
-      <c r="S14" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S14">
         <v>510.62981581640116</v>
       </c>
     </row>
@@ -3961,8 +4936,7 @@
       <c r="A15" s="1">
         <v>43921</v>
       </c>
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
+      <c r="B15">
         <v>13</v>
       </c>
       <c r="C15">
@@ -3972,41 +4946,34 @@
         <v>154</v>
       </c>
       <c r="E15">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.15343915343915343</v>
       </c>
       <c r="F15">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>3.796844181459566E-2</v>
       </c>
-      <c r="G15" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G15">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>163.96132648673623</v>
       </c>
-      <c r="H15" s="2">
-        <f t="shared" si="1"/>
+      <c r="H15">
+        <f t="shared" si="0"/>
         <v>30.366708942065003</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
       <c r="O15" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43921</v>
       </c>
-      <c r="P15" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P15">
         <v>580</v>
       </c>
       <c r="Q15">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>154</v>
       </c>
       <c r="R15">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>163.96132648673623</v>
       </c>
-      <c r="S15" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S15">
         <v>607.33417884130006</v>
       </c>
     </row>
@@ -4014,8 +4981,7 @@
       <c r="A16" s="1">
         <v>43922</v>
       </c>
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
+      <c r="B16">
         <v>14</v>
       </c>
       <c r="C16">
@@ -4025,41 +4991,34 @@
         <v>189</v>
       </c>
       <c r="E16">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.18518518518518517</v>
       </c>
       <c r="F16">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>4.6597633136094677E-2</v>
       </c>
-      <c r="G16" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G16">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>199.78190014504457</v>
       </c>
-      <c r="H16" s="2">
-        <f t="shared" si="1"/>
+      <c r="H16">
+        <f t="shared" si="0"/>
         <v>35.820573658308348</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
       <c r="O16" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43922</v>
       </c>
-      <c r="P16" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P16">
         <v>700</v>
       </c>
       <c r="Q16">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>189</v>
       </c>
       <c r="R16">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>199.78190014504457</v>
       </c>
-      <c r="S16" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S16">
         <v>716.41147316616696</v>
       </c>
     </row>
@@ -4067,8 +5026,7 @@
       <c r="A17" s="1">
         <v>43923</v>
       </c>
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
+      <c r="B17">
         <v>15</v>
       </c>
       <c r="C17">
@@ -4078,41 +5036,34 @@
         <v>231</v>
       </c>
       <c r="E17">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="F17">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>5.6952662721893491E-2</v>
       </c>
-      <c r="G17" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G17">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>241.68832425923688</v>
       </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
+      <c r="H17">
+        <f t="shared" si="0"/>
         <v>41.906424114192305</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
       <c r="O17" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43923</v>
       </c>
-      <c r="P17" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P17">
         <v>840</v>
       </c>
       <c r="Q17">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>231</v>
       </c>
       <c r="R17">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>241.68832425923688</v>
       </c>
-      <c r="S17" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S17">
         <v>838.1284822838461</v>
       </c>
     </row>
@@ -4120,8 +5071,7 @@
       <c r="A18" s="1">
         <v>43924</v>
       </c>
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
+      <c r="B18">
         <v>16</v>
       </c>
       <c r="C18">
@@ -4131,41 +5081,34 @@
         <v>267</v>
       </c>
       <c r="E18">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.19047619047619047</v>
       </c>
       <c r="F18">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>6.5828402366863908E-2</v>
       </c>
-      <c r="G18" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G18">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>290.31134418902798</v>
       </c>
-      <c r="H18" s="2">
-        <f t="shared" si="1"/>
+      <c r="H18">
+        <f t="shared" si="0"/>
         <v>48.623019929791099</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
       <c r="O18" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43924</v>
       </c>
-      <c r="P18" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P18">
         <v>720</v>
       </c>
       <c r="Q18">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>267</v>
       </c>
       <c r="R18">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>290.31134418902798</v>
       </c>
-      <c r="S18" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S18">
         <v>972.46039859582197</v>
       </c>
     </row>
@@ -4173,8 +5116,7 @@
       <c r="A19" s="1">
         <v>43925</v>
       </c>
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
+      <c r="B19">
         <v>17</v>
       </c>
       <c r="C19">
@@ -4184,41 +5126,34 @@
         <v>306</v>
       </c>
       <c r="E19">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.20634920634920634</v>
       </c>
       <c r="F19">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>7.5443786982248517E-2</v>
       </c>
-      <c r="G19" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G19">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>346.26345976094302</v>
       </c>
-      <c r="H19" s="2">
-        <f t="shared" si="1"/>
+      <c r="H19">
+        <f t="shared" si="0"/>
         <v>55.952115571915044</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
       <c r="O19" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43925</v>
       </c>
-      <c r="P19" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P19">
         <v>780</v>
       </c>
       <c r="Q19">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>306</v>
       </c>
       <c r="R19">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>346.26345976094302</v>
       </c>
-      <c r="S19" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S19">
         <v>1119.0423114383009</v>
       </c>
     </row>
@@ -4226,8 +5161,7 @@
       <c r="A20" s="1">
         <v>43926</v>
       </c>
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
+      <c r="B20">
         <v>18</v>
       </c>
       <c r="C20">
@@ -4237,41 +5171,34 @@
         <v>373</v>
       </c>
       <c r="E20">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.35449735449735448</v>
       </c>
       <c r="F20">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>9.1962524654832345E-2</v>
       </c>
-      <c r="G20" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G20">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>410.11984836952757</v>
       </c>
-      <c r="H20" s="2">
-        <f t="shared" si="1"/>
+      <c r="H20">
+        <f t="shared" si="0"/>
         <v>63.856388608584552</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
       <c r="O20" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43926</v>
       </c>
-      <c r="P20" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P20">
         <v>1340</v>
       </c>
       <c r="Q20">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>373</v>
       </c>
       <c r="R20">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>410.11984836952757</v>
       </c>
-      <c r="S20" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S20">
         <v>1277.127772171691</v>
       </c>
     </row>
@@ -4279,8 +5206,7 @@
       <c r="A21" s="1">
         <v>43927</v>
       </c>
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
+      <c r="B21">
         <v>19</v>
       </c>
       <c r="C21">
@@ -4290,41 +5216,34 @@
         <v>452</v>
       </c>
       <c r="E21">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.41798941798941797</v>
       </c>
       <c r="F21">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.11143984220907298</v>
       </c>
-      <c r="G21" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G21">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>482.39773631493733</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
+      <c r="H21">
+        <f t="shared" si="0"/>
         <v>72.277887945409759</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
       <c r="O21" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43927</v>
       </c>
-      <c r="P21" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P21">
         <v>1580</v>
       </c>
       <c r="Q21">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>452</v>
       </c>
       <c r="R21">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>482.39773631493733</v>
       </c>
-      <c r="S21" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S21">
         <v>1445.5577589081952</v>
       </c>
     </row>
@@ -4332,8 +5251,7 @@
       <c r="A22" s="1">
         <v>43928</v>
       </c>
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
+      <c r="B22">
         <v>20</v>
       </c>
       <c r="C22">
@@ -4343,41 +5261,34 @@
         <v>519</v>
       </c>
       <c r="E22">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.35449735449735448</v>
       </c>
       <c r="F22">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.12795857988165679</v>
       </c>
-      <c r="G22" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G22">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>563.53489818716093</v>
       </c>
-      <c r="H22" s="2">
-        <f t="shared" si="1"/>
+      <c r="H22">
+        <f t="shared" si="0"/>
         <v>81.137161872223601</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
       <c r="O22" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43928</v>
       </c>
-      <c r="P22" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P22">
         <v>1340</v>
       </c>
       <c r="Q22">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>519</v>
       </c>
       <c r="R22">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>563.53489818716093</v>
       </c>
-      <c r="S22" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S22">
         <v>1622.743237444472</v>
       </c>
     </row>
@@ -4385,8 +5296,7 @@
       <c r="A23" s="1">
         <v>43929</v>
       </c>
-      <c r="B23" s="2">
-        <f t="shared" si="0"/>
+      <c r="B23">
         <v>21</v>
       </c>
       <c r="C23">
@@ -4396,41 +5306,34 @@
         <v>619</v>
       </c>
       <c r="E23">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.52910052910052907</v>
       </c>
       <c r="F23">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.15261341222879685</v>
       </c>
-      <c r="G23" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G23">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>653.86810548966105</v>
       </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
+      <c r="H23">
+        <f t="shared" si="0"/>
         <v>90.333207302500114</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
       <c r="O23" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43929</v>
       </c>
-      <c r="P23" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P23">
         <v>2000</v>
       </c>
       <c r="Q23">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>619</v>
       </c>
       <c r="R23">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>653.86810548966105</v>
       </c>
-      <c r="S23" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S23">
         <v>1806.6641460500023</v>
       </c>
     </row>
@@ -4438,8 +5341,7 @@
       <c r="A24" s="1">
         <v>43930</v>
       </c>
-      <c r="B24" s="2">
-        <f t="shared" si="0"/>
+      <c r="B24">
         <v>22</v>
       </c>
       <c r="C24">
@@ -4449,41 +5351,34 @@
         <v>731</v>
       </c>
       <c r="E24">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.59259259259259256</v>
       </c>
       <c r="F24">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.18022682445759369</v>
       </c>
-      <c r="G24" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G24">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>753.61245617442069</v>
       </c>
-      <c r="H24" s="2">
-        <f t="shared" si="1"/>
+      <c r="H24">
+        <f t="shared" si="0"/>
         <v>99.744350684759638</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
       <c r="O24" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43930</v>
       </c>
-      <c r="P24" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P24">
         <v>2240</v>
       </c>
       <c r="Q24">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>731</v>
       </c>
       <c r="R24">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>753.61245617442069</v>
       </c>
-      <c r="S24" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S24">
         <v>1994.8870136951928</v>
       </c>
     </row>
@@ -4491,8 +5386,7 @@
       <c r="A25" s="1">
         <v>43931</v>
       </c>
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
+      <c r="B25">
         <v>23</v>
       </c>
       <c r="C25">
@@ -4502,41 +5396,34 @@
         <v>836</v>
       </c>
       <c r="E25">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.55555555555555558</v>
       </c>
       <c r="F25">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.20611439842209073</v>
       </c>
-      <c r="G25" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G25">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>862.8425846063825</v>
       </c>
-      <c r="H25" s="2">
-        <f t="shared" si="1"/>
+      <c r="H25">
+        <f t="shared" si="0"/>
         <v>109.23012843196182</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
       <c r="O25" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43931</v>
       </c>
-      <c r="P25" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P25">
         <v>2100</v>
       </c>
       <c r="Q25">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>836</v>
       </c>
       <c r="R25">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>862.8425846063825</v>
       </c>
-      <c r="S25" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S25">
         <v>2184.6025686392363</v>
       </c>
     </row>
@@ -4544,8 +5431,7 @@
       <c r="A26" s="1">
         <v>43932</v>
       </c>
-      <c r="B26" s="2">
-        <f t="shared" si="0"/>
+      <c r="B26">
         <v>24</v>
       </c>
       <c r="C26">
@@ -4555,41 +5441,34 @@
         <v>953</v>
       </c>
       <c r="E26">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.61904761904761907</v>
       </c>
       <c r="F26">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.23496055226824458</v>
       </c>
-      <c r="G26" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G26">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>981.47676679739618</v>
       </c>
-      <c r="H26" s="2">
-        <f t="shared" si="1"/>
+      <c r="H26">
+        <f t="shared" si="0"/>
         <v>118.63418219101368</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
       <c r="O26" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43932</v>
       </c>
-      <c r="P26" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P26">
         <v>2340</v>
       </c>
       <c r="Q26">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>953</v>
       </c>
       <c r="R26">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>981.47676679739618</v>
       </c>
-      <c r="S26" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S26">
         <v>2372.6836438202736</v>
       </c>
     </row>
@@ -4597,8 +5476,7 @@
       <c r="A27" s="1">
         <v>43933</v>
       </c>
-      <c r="B27" s="2">
-        <f t="shared" si="0"/>
+      <c r="B27">
         <v>25</v>
       </c>
       <c r="C27">
@@ -4608,41 +5486,34 @@
         <v>1064</v>
       </c>
       <c r="E27">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.58730158730158732</v>
       </c>
       <c r="F27">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.26232741617357003</v>
       </c>
-      <c r="G27" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G27">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1109.2648915735372</v>
       </c>
-      <c r="H27" s="2">
-        <f t="shared" si="1"/>
+      <c r="H27">
+        <f t="shared" si="0"/>
         <v>127.78812477614099</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
       <c r="O27" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43933</v>
       </c>
-      <c r="P27" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P27">
         <v>2220</v>
       </c>
       <c r="Q27">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>1064</v>
       </c>
       <c r="R27">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>1109.2648915735372</v>
       </c>
-      <c r="S27" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S27">
         <v>2555.7624955228198</v>
       </c>
     </row>
@@ -4650,8 +5521,7 @@
       <c r="A28" s="1">
         <v>43934</v>
       </c>
-      <c r="B28" s="2">
-        <f t="shared" si="0"/>
+      <c r="B28">
         <v>26</v>
       </c>
       <c r="C28">
@@ -4661,41 +5531,34 @@
         <v>1222</v>
       </c>
       <c r="E28">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.83597883597883593</v>
       </c>
       <c r="F28">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.30128205128205127</v>
       </c>
-      <c r="G28" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G28">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1245.781161533868</v>
       </c>
-      <c r="H28" s="2">
-        <f t="shared" si="1"/>
+      <c r="H28">
+        <f t="shared" si="0"/>
         <v>136.51626996033087</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
       <c r="O28" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43934</v>
       </c>
-      <c r="P28" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P28">
         <v>3160</v>
       </c>
       <c r="Q28">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>1222</v>
       </c>
       <c r="R28">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>1245.781161533868</v>
       </c>
-      <c r="S28" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S28">
         <v>2730.3253992066175</v>
       </c>
     </row>
@@ -4703,8 +5566,7 @@
       <c r="A29" s="1">
         <v>43935</v>
       </c>
-      <c r="B29" s="2">
-        <f t="shared" si="0"/>
+      <c r="B29">
         <v>27</v>
       </c>
       <c r="C29">
@@ -4714,41 +5576,34 @@
         <v>1341</v>
       </c>
       <c r="E29">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.62962962962962965</v>
       </c>
       <c r="F29">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.33062130177514792</v>
       </c>
-      <c r="G29" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G29">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1390.422219601202</v>
       </c>
-      <c r="H29" s="2">
-        <f t="shared" si="1"/>
+      <c r="H29">
+        <f t="shared" si="0"/>
         <v>144.64105806733392</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
       <c r="O29" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43935</v>
       </c>
-      <c r="P29" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P29">
         <v>2380</v>
       </c>
       <c r="Q29">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>1341</v>
       </c>
       <c r="R29">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>1390.422219601202</v>
       </c>
-      <c r="S29" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S29">
         <v>2892.8211613466783</v>
       </c>
     </row>
@@ -4756,8 +5611,7 @@
       <c r="A30" s="1">
         <v>43936</v>
       </c>
-      <c r="B30" s="2">
-        <f t="shared" si="0"/>
+      <c r="B30">
         <v>28</v>
       </c>
       <c r="C30">
@@ -4767,41 +5621,34 @@
         <v>1516</v>
       </c>
       <c r="E30">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.92592592592592593</v>
       </c>
       <c r="F30">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.37376725838264302</v>
       </c>
-      <c r="G30" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G30">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1542.4111738510423</v>
       </c>
-      <c r="H30" s="2">
-        <f t="shared" si="1"/>
+      <c r="H30">
+        <f t="shared" si="0"/>
         <v>151.98895424984039</v>
       </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
       <c r="O30" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43936</v>
       </c>
-      <c r="P30" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P30">
         <v>3500</v>
       </c>
       <c r="Q30">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>1516</v>
       </c>
       <c r="R30">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>1542.4111738510423</v>
       </c>
-      <c r="S30" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S30">
         <v>3039.7790849968078</v>
       </c>
     </row>
@@ -4809,8 +5656,7 @@
       <c r="A31" s="1">
         <v>43937</v>
       </c>
-      <c r="B31" s="2">
-        <f t="shared" si="0"/>
+      <c r="B31">
         <v>29</v>
       </c>
       <c r="C31">
@@ -4820,41 +5666,34 @@
         <v>1683</v>
       </c>
       <c r="E31">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.8835978835978836</v>
       </c>
       <c r="F31">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.41494082840236685</v>
       </c>
-      <c r="G31" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G31">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1700.8077260319676</v>
       </c>
-      <c r="H31" s="2">
-        <f t="shared" si="1"/>
+      <c r="H31">
+        <f t="shared" si="0"/>
         <v>158.39655218092526</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
       <c r="O31" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43937</v>
       </c>
-      <c r="P31" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P31">
         <v>3340</v>
       </c>
       <c r="Q31">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>1683</v>
       </c>
       <c r="R31">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>1700.8077260319676</v>
       </c>
-      <c r="S31" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S31">
         <v>3167.9310436185051</v>
       </c>
     </row>
@@ -4862,8 +5701,7 @@
       <c r="A32" s="1">
         <v>43938</v>
       </c>
-      <c r="B32" s="2">
-        <f t="shared" si="0"/>
+      <c r="B32">
         <v>30</v>
       </c>
       <c r="C32">
@@ -4873,41 +5711,34 @@
         <v>1845</v>
       </c>
       <c r="E32">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="F32">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.45488165680473375</v>
       </c>
-      <c r="G32" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G32">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1864.5243128004536</v>
       </c>
-      <c r="H32" s="2">
-        <f t="shared" si="1"/>
+      <c r="H32">
+        <f t="shared" si="0"/>
         <v>163.71658676848597</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
       <c r="O32" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43938</v>
       </c>
-      <c r="P32" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P32">
         <v>3240</v>
       </c>
       <c r="Q32">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>1845</v>
       </c>
       <c r="R32">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>1864.5243128004536</v>
       </c>
-      <c r="S32" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S32">
         <v>3274.3317353697194</v>
       </c>
     </row>
@@ -4915,8 +5746,7 @@
       <c r="A33" s="1">
         <v>43939</v>
       </c>
-      <c r="B33" s="2">
-        <f t="shared" si="0"/>
+      <c r="B33">
         <v>31</v>
       </c>
       <c r="C33">
@@ -4926,41 +5756,34 @@
         <v>2011</v>
       </c>
       <c r="E33">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.87830687830687826</v>
       </c>
       <c r="F33">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.4958086785009862</v>
       </c>
-      <c r="G33" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G33">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2032.3478613851698</v>
       </c>
-      <c r="H33" s="2">
-        <f t="shared" si="1"/>
+      <c r="H33">
+        <f t="shared" si="0"/>
         <v>167.82354858471626</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
       <c r="O33" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43939</v>
       </c>
-      <c r="P33" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P33">
         <v>3320</v>
       </c>
       <c r="Q33">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>2011</v>
       </c>
       <c r="R33">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>2032.3478613851698</v>
       </c>
-      <c r="S33" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S33">
         <v>3356.4709716943253</v>
       </c>
     </row>
@@ -4968,8 +5791,7 @@
       <c r="A34" s="1">
         <v>43940</v>
       </c>
-      <c r="B34" s="2">
-        <f t="shared" si="0"/>
+      <c r="B34">
         <v>32</v>
       </c>
       <c r="C34">
@@ -4979,41 +5801,34 @@
         <v>2182</v>
       </c>
       <c r="E34">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.90476190476190477</v>
       </c>
       <c r="F34">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.53796844181459569</v>
       </c>
-      <c r="G34" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G34">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2202.9664631897517</v>
       </c>
-      <c r="H34" s="2">
-        <f t="shared" ref="H34:H65" si="2">G34-G33</f>
+      <c r="H34">
+        <f t="shared" ref="H34:H65" si="1">G34-G33</f>
         <v>170.61860180458189</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
       <c r="O34" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43940</v>
       </c>
-      <c r="P34" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P34">
         <v>3420</v>
       </c>
       <c r="Q34">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>2182</v>
       </c>
       <c r="R34">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>2202.9664631897517</v>
       </c>
-      <c r="S34" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S34">
         <v>3412.3720360916377</v>
       </c>
     </row>
@@ -5021,8 +5836,7 @@
       <c r="A35" s="1">
         <v>43941</v>
       </c>
-      <c r="B35" s="2">
-        <f t="shared" si="0"/>
+      <c r="B35">
         <v>33</v>
       </c>
       <c r="C35">
@@ -5032,41 +5846,34 @@
         <v>2352</v>
       </c>
       <c r="E35">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.89947089947089942</v>
       </c>
       <c r="F35">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.57988165680473369</v>
       </c>
-      <c r="G35" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G35">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2375</v>
       </c>
-      <c r="H35" s="2">
-        <f t="shared" si="2"/>
+      <c r="H35">
+        <f t="shared" si="1"/>
         <v>172.03353681024828</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
       <c r="O35" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43941</v>
       </c>
-      <c r="P35" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P35">
         <v>3400</v>
       </c>
       <c r="Q35">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>2352</v>
       </c>
       <c r="R35">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>2375</v>
       </c>
-      <c r="S35" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S35">
         <v>3440.6707362049656</v>
       </c>
     </row>
@@ -5074,8 +5881,7 @@
       <c r="A36" s="1">
         <v>43942</v>
       </c>
-      <c r="B36" s="2">
-        <f t="shared" si="0"/>
+      <c r="B36">
         <v>34</v>
       </c>
       <c r="C36">
@@ -5085,41 +5891,34 @@
         <v>2504</v>
       </c>
       <c r="E36">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.80423280423280419</v>
       </c>
       <c r="F36">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.61735700197238663</v>
       </c>
-      <c r="G36" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G36">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2547.0335368102483</v>
       </c>
-      <c r="H36" s="2">
-        <f t="shared" si="2"/>
+      <c r="H36">
+        <f t="shared" si="1"/>
         <v>172.03353681024828</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
       <c r="O36" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43942</v>
       </c>
-      <c r="P36" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P36">
         <v>3040</v>
       </c>
       <c r="Q36">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>2504</v>
       </c>
       <c r="R36">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>2547.0335368102483</v>
       </c>
-      <c r="S36" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S36">
         <v>3440.6707362049656</v>
       </c>
     </row>
@@ -5127,8 +5926,7 @@
       <c r="A37" s="1">
         <v>43943</v>
       </c>
-      <c r="B37" s="2">
-        <f t="shared" si="0"/>
+      <c r="B37">
         <v>35</v>
       </c>
       <c r="C37">
@@ -5138,41 +5936,34 @@
         <v>2654</v>
       </c>
       <c r="E37">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.79365079365079361</v>
       </c>
       <c r="F37">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.6543392504930966</v>
       </c>
-      <c r="G37" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G37">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2717.6521386148302</v>
       </c>
-      <c r="H37" s="2">
-        <f t="shared" si="2"/>
+      <c r="H37">
+        <f t="shared" si="1"/>
         <v>170.61860180458189</v>
       </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
       <c r="O37" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43943</v>
       </c>
-      <c r="P37" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P37">
         <v>3000</v>
       </c>
       <c r="Q37">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>2654</v>
       </c>
       <c r="R37">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>2717.6521386148302</v>
       </c>
-      <c r="S37" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S37">
         <v>3412.3720360916377</v>
       </c>
     </row>
@@ -5180,8 +5971,7 @@
       <c r="A38" s="1">
         <v>43944</v>
       </c>
-      <c r="B38" s="2">
-        <f t="shared" si="0"/>
+      <c r="B38">
         <v>36</v>
       </c>
       <c r="C38">
@@ -5191,41 +5981,34 @@
         <v>2843</v>
       </c>
       <c r="E38">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>1</v>
       </c>
       <c r="F38">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.70093688362919138</v>
       </c>
-      <c r="G38" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G38">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2885.4756871995464</v>
       </c>
-      <c r="H38" s="2">
-        <f t="shared" si="2"/>
+      <c r="H38">
+        <f t="shared" si="1"/>
         <v>167.82354858471626</v>
       </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
       <c r="O38" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43944</v>
       </c>
-      <c r="P38" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P38">
         <v>3780</v>
       </c>
       <c r="Q38">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>2843</v>
       </c>
       <c r="R38">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>2885.4756871995464</v>
       </c>
-      <c r="S38" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S38">
         <v>3356.4709716943253</v>
       </c>
     </row>
@@ -5233,8 +6016,7 @@
       <c r="A39" s="1">
         <v>43945</v>
       </c>
-      <c r="B39" s="2">
-        <f t="shared" si="0"/>
+      <c r="B39">
         <v>37</v>
       </c>
       <c r="C39">
@@ -5244,41 +6026,34 @@
         <v>3027</v>
       </c>
       <c r="E39">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.97354497354497349</v>
       </c>
       <c r="F39">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.74630177514792895</v>
       </c>
-      <c r="G39" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G39">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3049.1922739680322</v>
       </c>
-      <c r="H39" s="2">
-        <f t="shared" si="2"/>
+      <c r="H39">
+        <f t="shared" si="1"/>
         <v>163.71658676848574</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
       <c r="O39" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43945</v>
       </c>
-      <c r="P39" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P39">
         <v>3680</v>
       </c>
       <c r="Q39">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>3027</v>
       </c>
       <c r="R39">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>3049.1922739680322</v>
       </c>
-      <c r="S39" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S39">
         <v>3274.3317353697148</v>
       </c>
     </row>
@@ -5286,8 +6061,7 @@
       <c r="A40" s="1">
         <v>43946</v>
       </c>
-      <c r="B40" s="2">
-        <f t="shared" si="0"/>
+      <c r="B40">
         <v>38</v>
       </c>
       <c r="C40">
@@ -5297,41 +6071,34 @@
         <v>3170</v>
       </c>
       <c r="E40">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.75661375661375663</v>
       </c>
       <c r="F40">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.7815581854043393</v>
       </c>
-      <c r="G40" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G40">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3207.5888261489577</v>
       </c>
-      <c r="H40" s="2">
-        <f t="shared" si="2"/>
+      <c r="H40">
+        <f t="shared" si="1"/>
         <v>158.39655218092548</v>
       </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
       <c r="O40" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43946</v>
       </c>
-      <c r="P40" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P40">
         <v>2860</v>
       </c>
       <c r="Q40">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>3170</v>
       </c>
       <c r="R40">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>3207.5888261489577</v>
       </c>
-      <c r="S40" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S40">
         <v>3167.9310436185096</v>
       </c>
     </row>
@@ -5339,8 +6106,7 @@
       <c r="A41" s="1">
         <v>43947</v>
       </c>
-      <c r="B41" s="2">
-        <f t="shared" si="0"/>
+      <c r="B41">
         <v>39</v>
       </c>
       <c r="C41">
@@ -5350,41 +6116,34 @@
         <v>3316</v>
       </c>
       <c r="E41">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.77248677248677244</v>
       </c>
       <c r="F41">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.81755424063116366</v>
       </c>
-      <c r="G41" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G41">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3359.577780398798</v>
       </c>
-      <c r="H41" s="2">
-        <f t="shared" si="2"/>
+      <c r="H41">
+        <f t="shared" si="1"/>
         <v>151.98895424984039</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
       <c r="O41" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43947</v>
       </c>
-      <c r="P41" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P41">
         <v>2920</v>
       </c>
       <c r="Q41">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>3316</v>
       </c>
       <c r="R41">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>3359.577780398798</v>
       </c>
-      <c r="S41" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S41">
         <v>3039.7790849968078</v>
       </c>
     </row>
@@ -5392,8 +6151,7 @@
       <c r="A42" s="1">
         <v>43948</v>
       </c>
-      <c r="B42" s="2">
-        <f t="shared" si="0"/>
+      <c r="B42">
         <v>40</v>
       </c>
       <c r="C42">
@@ -5403,41 +6161,34 @@
         <v>3475</v>
       </c>
       <c r="E42">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.84126984126984128</v>
       </c>
       <c r="F42">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.85675542406311633</v>
       </c>
-      <c r="G42" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G42">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3504.2188384661317</v>
       </c>
-      <c r="H42" s="2">
-        <f t="shared" si="2"/>
+      <c r="H42">
+        <f t="shared" si="1"/>
         <v>144.64105806733369</v>
       </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
       <c r="O42" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43948</v>
       </c>
-      <c r="P42" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P42">
         <v>3180</v>
       </c>
       <c r="Q42">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>3475</v>
       </c>
       <c r="R42">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>3504.2188384661317</v>
       </c>
-      <c r="S42" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S42">
         <v>2892.8211613466738</v>
       </c>
     </row>
@@ -5445,8 +6196,7 @@
       <c r="A43" s="1">
         <v>43949</v>
       </c>
-      <c r="B43" s="2">
-        <f t="shared" si="0"/>
+      <c r="B43">
         <v>41</v>
       </c>
       <c r="C43">
@@ -5456,41 +6206,34 @@
         <v>3613</v>
       </c>
       <c r="E43">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.73015873015873012</v>
       </c>
       <c r="F43">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.89077909270216959</v>
       </c>
-      <c r="G43" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G43">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3640.7351084264628</v>
       </c>
-      <c r="H43" s="2">
-        <f t="shared" si="2"/>
+      <c r="H43">
+        <f t="shared" si="1"/>
         <v>136.5162699603311</v>
       </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
       <c r="O43" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43949</v>
       </c>
-      <c r="P43" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P43">
         <v>2760</v>
       </c>
       <c r="Q43">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>3613</v>
       </c>
       <c r="R43">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>3640.7351084264628</v>
       </c>
-      <c r="S43" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S43">
         <v>2730.325399206622</v>
       </c>
     </row>
@@ -5498,8 +6241,7 @@
       <c r="A44" s="1">
         <v>43950</v>
       </c>
-      <c r="B44" s="2">
-        <f t="shared" si="0"/>
+      <c r="B44">
         <v>42</v>
       </c>
       <c r="C44">
@@ -5509,41 +6251,34 @@
         <v>3755</v>
       </c>
       <c r="E44">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.75132275132275128</v>
       </c>
       <c r="F44">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.92578895463510846</v>
       </c>
-      <c r="G44" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G44">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3768.5232332026039</v>
       </c>
-      <c r="H44" s="2">
-        <f t="shared" si="2"/>
+      <c r="H44">
+        <f t="shared" si="1"/>
         <v>127.7881247761411</v>
       </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
       <c r="O44" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43950</v>
       </c>
-      <c r="P44" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P44">
         <v>2840</v>
       </c>
       <c r="Q44">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>3755</v>
       </c>
       <c r="R44">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>3768.5232332026039</v>
       </c>
-      <c r="S44" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S44">
         <v>2555.7624955228221</v>
       </c>
     </row>
@@ -5551,8 +6286,7 @@
       <c r="A45" s="1">
         <v>43951</v>
       </c>
-      <c r="B45" s="2">
-        <f t="shared" si="0"/>
+      <c r="B45">
         <v>43</v>
       </c>
       <c r="C45">
@@ -5562,41 +6296,34 @@
         <v>3877</v>
       </c>
       <c r="E45">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.64550264550264547</v>
       </c>
       <c r="F45">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.9558678500986193</v>
       </c>
-      <c r="G45" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G45">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3887.1574153936176</v>
       </c>
-      <c r="H45" s="2">
-        <f t="shared" si="2"/>
+      <c r="H45">
+        <f t="shared" si="1"/>
         <v>118.63418219101368</v>
       </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
       <c r="O45" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43951</v>
       </c>
-      <c r="P45" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P45">
         <v>2440</v>
       </c>
       <c r="Q45">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>3877</v>
       </c>
       <c r="R45">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>3887.1574153936176</v>
       </c>
-      <c r="S45" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S45">
         <v>2372.6836438202736</v>
       </c>
     </row>
@@ -5604,8 +6331,7 @@
       <c r="A46" s="1">
         <v>43952</v>
       </c>
-      <c r="B46" s="2">
-        <f t="shared" si="0"/>
+      <c r="B46">
         <v>44</v>
       </c>
       <c r="C46">
@@ -5615,41 +6341,34 @@
         <v>3999</v>
       </c>
       <c r="E46">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.64550264550264547</v>
       </c>
       <c r="F46">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>0.98594674556213013</v>
       </c>
-      <c r="G46" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G46">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3996.3875438255795</v>
       </c>
-      <c r="H46" s="2">
-        <f t="shared" si="2"/>
+      <c r="H46">
+        <f t="shared" si="1"/>
         <v>109.23012843196193</v>
       </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
       <c r="O46" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43952</v>
       </c>
-      <c r="P46" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P46">
         <v>2440</v>
       </c>
       <c r="Q46">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>3999</v>
       </c>
       <c r="R46">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>3996.3875438255795</v>
       </c>
-      <c r="S46" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S46">
         <v>2184.6025686392386</v>
       </c>
     </row>
@@ -5657,8 +6376,7 @@
       <c r="A47" s="1">
         <v>43953</v>
       </c>
-      <c r="B47" s="2">
-        <f t="shared" si="0"/>
+      <c r="B47">
         <v>45</v>
       </c>
       <c r="C47">
@@ -5668,41 +6386,34 @@
         <v>4056</v>
       </c>
       <c r="E47">
-        <f>Table26[[#This Row],[New Deaths]]/MAX(Table26[New Deaths])</f>
+        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
         <v>0.30158730158730157</v>
       </c>
       <c r="F47">
-        <f>Table26[[#This Row],[Running Total]]/MAX(Table26[Running Total])</f>
+        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
         <v>1</v>
       </c>
-      <c r="G47" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G47">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4096.1318945103394</v>
       </c>
-      <c r="H47" s="2">
-        <f t="shared" si="2"/>
+      <c r="H47">
+        <f t="shared" si="1"/>
         <v>99.744350684759866</v>
       </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
       <c r="O47" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43953</v>
       </c>
-      <c r="P47" s="2">
-        <f>Table26[[#This Row],[New Deaths]]*20</f>
+      <c r="P47">
         <v>1140</v>
       </c>
       <c r="Q47">
-        <f>Table26[[#This Row],[Running Total]]</f>
         <v>4056</v>
       </c>
       <c r="R47">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
         <v>4096.1318945103394</v>
       </c>
-      <c r="S47" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S47">
         <v>1994.8870136951973</v>
       </c>
     </row>
@@ -5710,31 +6421,24 @@
       <c r="A48" s="1">
         <v>43954</v>
       </c>
-      <c r="B48" s="2">
-        <f t="shared" ref="B48:B54" si="3">A48-A$2</f>
+      <c r="B48">
         <v>46</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G48">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4186.4651018128388</v>
       </c>
-      <c r="H48" s="2">
-        <f t="shared" si="2"/>
+      <c r="H48">
+        <f t="shared" si="1"/>
         <v>90.333207302499432</v>
       </c>
       <c r="O48" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43954</v>
       </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R48">
         <v>4186.4651018128388</v>
       </c>
-      <c r="S48" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S48">
         <v>1806.6641460499886</v>
       </c>
     </row>
@@ -5742,31 +6446,24 @@
       <c r="A49" s="1">
         <v>43955</v>
       </c>
-      <c r="B49" s="2">
-        <f t="shared" si="3"/>
+      <c r="B49">
         <v>47</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G49">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4267.602263685063</v>
       </c>
-      <c r="H49" s="2">
-        <f t="shared" si="2"/>
+      <c r="H49">
+        <f t="shared" si="1"/>
         <v>81.137161872224169</v>
       </c>
       <c r="O49" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43955</v>
       </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R49">
         <v>4267.602263685063</v>
       </c>
-      <c r="S49" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S49">
         <v>1622.7432374444834</v>
       </c>
     </row>
@@ -5774,31 +6471,24 @@
       <c r="A50" s="1">
         <v>43956</v>
       </c>
-      <c r="B50" s="2">
-        <f t="shared" si="3"/>
+      <c r="B50">
         <v>48</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G50">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4339.880151630472</v>
       </c>
-      <c r="H50" s="2">
-        <f t="shared" si="2"/>
+      <c r="H50">
+        <f t="shared" si="1"/>
         <v>72.27788794540902</v>
       </c>
       <c r="O50" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43956</v>
       </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R50">
         <v>4339.880151630472</v>
       </c>
-      <c r="S50" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S50">
         <v>1445.5577589081804</v>
       </c>
     </row>
@@ -5806,31 +6496,24 @@
       <c r="A51" s="1">
         <v>43957</v>
       </c>
-      <c r="B51" s="2">
-        <f t="shared" si="3"/>
+      <c r="B51">
         <v>49</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G51">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4403.7365402390569</v>
       </c>
-      <c r="H51" s="2">
-        <f t="shared" si="2"/>
+      <c r="H51">
+        <f t="shared" si="1"/>
         <v>63.856388608584894</v>
       </c>
       <c r="O51" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43957</v>
       </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R51">
         <v>4403.7365402390569</v>
       </c>
-      <c r="S51" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S51">
         <v>1277.1277721716979</v>
       </c>
     </row>
@@ -5838,31 +6521,24 @@
       <c r="A52" s="1">
         <v>43958</v>
       </c>
-      <c r="B52" s="2">
-        <f t="shared" si="3"/>
+      <c r="B52">
         <v>50</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G52">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4459.6886558109718</v>
       </c>
-      <c r="H52" s="2">
-        <f t="shared" si="2"/>
+      <c r="H52">
+        <f t="shared" si="1"/>
         <v>55.952115571914874</v>
       </c>
       <c r="O52" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43958</v>
       </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R52">
         <v>4459.6886558109718</v>
       </c>
-      <c r="S52" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S52">
         <v>1119.0423114382975</v>
       </c>
     </row>
@@ -5870,31 +6546,24 @@
       <c r="A53" s="1">
         <v>43959</v>
       </c>
-      <c r="B53" s="2">
-        <f t="shared" si="3"/>
+      <c r="B53">
         <v>51</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G53">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4508.3116757407624</v>
       </c>
-      <c r="H53" s="2">
-        <f t="shared" si="2"/>
+      <c r="H53">
+        <f t="shared" si="1"/>
         <v>48.623019929790644</v>
       </c>
       <c r="O53" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43959</v>
       </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R53">
         <v>4508.3116757407624</v>
       </c>
-      <c r="S53" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S53">
         <v>972.46039859581288</v>
       </c>
     </row>
@@ -5902,31 +6571,24 @@
       <c r="A54" s="1">
         <v>43960</v>
       </c>
-      <c r="B54" s="2">
-        <f t="shared" si="3"/>
+      <c r="B54">
         <v>52</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G54">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4550.2180998549557</v>
       </c>
-      <c r="H54" s="2">
-        <f t="shared" si="2"/>
+      <c r="H54">
+        <f t="shared" si="1"/>
         <v>41.906424114193214</v>
       </c>
       <c r="O54" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43960</v>
       </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R54">
         <v>4550.2180998549557</v>
       </c>
-      <c r="S54" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S54">
         <v>838.12848228386429</v>
       </c>
     </row>
@@ -5934,31 +6596,24 @@
       <c r="A55" s="1">
         <v>43961</v>
       </c>
-      <c r="B55" s="2">
-        <f t="shared" ref="B55:B62" si="4">A55-A$2</f>
+      <c r="B55">
         <v>53</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G55">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4586.0386735132643</v>
       </c>
-      <c r="H55" s="2">
-        <f t="shared" si="2"/>
+      <c r="H55">
+        <f t="shared" si="1"/>
         <v>35.820573658308604</v>
       </c>
       <c r="O55" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43961</v>
       </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R55">
         <v>4586.0386735132643</v>
       </c>
-      <c r="S55" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S55">
         <v>716.41147316617207</v>
       </c>
     </row>
@@ -5966,31 +6621,24 @@
       <c r="A56" s="1">
         <v>43962</v>
       </c>
-      <c r="B56" s="2">
-        <f t="shared" si="4"/>
+      <c r="B56">
         <v>54</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G56">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4616.4053824553284</v>
       </c>
-      <c r="H56" s="2">
-        <f t="shared" si="2"/>
+      <c r="H56">
+        <f t="shared" si="1"/>
         <v>30.366708942064179</v>
       </c>
       <c r="O56" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43962</v>
       </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R56">
         <v>4616.4053824553284</v>
       </c>
-      <c r="S56" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S56">
         <v>607.33417884128357</v>
       </c>
     </row>
@@ -5998,31 +6646,24 @@
       <c r="A57" s="1">
         <v>43963</v>
       </c>
-      <c r="B57" s="2">
-        <f t="shared" si="4"/>
+      <c r="B57">
         <v>55</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G57">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4641.9368732461489</v>
       </c>
-      <c r="H57" s="2">
-        <f t="shared" si="2"/>
+      <c r="H57">
+        <f t="shared" si="1"/>
         <v>25.531490790820499</v>
       </c>
       <c r="O57" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43963</v>
       </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R57">
         <v>4641.9368732461489</v>
       </c>
-      <c r="S57" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S57">
         <v>510.62981581640997</v>
       </c>
     </row>
@@ -6030,31 +6671,24 @@
       <c r="A58" s="1">
         <v>43964</v>
       </c>
-      <c r="B58" s="2">
-        <f t="shared" si="4"/>
+      <c r="B58">
         <v>56</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G58">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4663.2264916951817</v>
       </c>
-      <c r="H58" s="2">
-        <f t="shared" si="2"/>
+      <c r="H58">
+        <f t="shared" si="1"/>
         <v>21.289618449032787</v>
       </c>
       <c r="O58" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43964</v>
       </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R58">
         <v>4663.2264916951817</v>
       </c>
-      <c r="S58" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S58">
         <v>425.79236898065574</v>
       </c>
     </row>
@@ -6062,31 +6696,24 @@
       <c r="A59" s="1">
         <v>43965</v>
       </c>
-      <c r="B59" s="2">
-        <f t="shared" si="4"/>
+      <c r="B59">
         <v>57</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G59">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4680.8329838880854</v>
       </c>
-      <c r="H59" s="2">
-        <f t="shared" si="2"/>
+      <c r="H59">
+        <f t="shared" si="1"/>
         <v>17.606492192903715</v>
       </c>
       <c r="O59" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43965</v>
       </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R59">
         <v>4680.8329838880854</v>
       </c>
-      <c r="S59" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S59">
         <v>352.12984385807431</v>
       </c>
     </row>
@@ -6094,31 +6721,24 @@
       <c r="A60" s="1">
         <v>43966</v>
       </c>
-      <c r="B60" s="2">
-        <f t="shared" si="4"/>
+      <c r="B60">
         <v>58</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G60">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4695.2737772915661</v>
       </c>
-      <c r="H60" s="2">
-        <f t="shared" si="2"/>
+      <c r="H60">
+        <f t="shared" si="1"/>
         <v>14.440793403480711</v>
       </c>
       <c r="O60" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43966</v>
       </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R60">
         <v>4695.2737772915661</v>
       </c>
-      <c r="S60" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S60">
         <v>288.81586806961423</v>
       </c>
     </row>
@@ -6126,31 +6746,24 @@
       <c r="A61" s="1">
         <v>43967</v>
       </c>
-      <c r="B61" s="2">
-        <f t="shared" si="4"/>
+      <c r="B61">
         <v>59</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G61">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4707.0206571424833</v>
       </c>
-      <c r="H61" s="2">
-        <f t="shared" si="2"/>
+      <c r="H61">
+        <f t="shared" si="1"/>
         <v>11.746879850917139</v>
       </c>
       <c r="O61" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43967</v>
       </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R61">
         <v>4707.0206571424833</v>
       </c>
-      <c r="S61" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S61">
         <v>234.93759701834279</v>
       </c>
     </row>
@@ -6158,31 +6771,24 @@
       <c r="A62" s="1">
         <v>43968</v>
       </c>
-      <c r="B62" s="2">
-        <f t="shared" si="4"/>
+      <c r="B62">
         <v>60</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G62">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4716.4975779999741</v>
       </c>
-      <c r="H62" s="2">
-        <f t="shared" si="2"/>
+      <c r="H62">
+        <f t="shared" si="1"/>
         <v>9.476920857490768</v>
       </c>
       <c r="O62" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43968</v>
       </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R62">
         <v>4716.4975779999741</v>
       </c>
-      <c r="S62" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S62">
         <v>189.53841714981536</v>
       </c>
     </row>
@@ -6190,31 +6796,24 @@
       <c r="A63" s="1">
         <v>43969</v>
       </c>
-      <c r="B63" s="2">
-        <f t="shared" ref="B63:B69" si="5">A63-A$2</f>
+      <c r="B63">
         <v>61</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G63">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4724.080301773226</v>
       </c>
-      <c r="H63" s="2">
-        <f t="shared" si="2"/>
+      <c r="H63">
+        <f t="shared" si="1"/>
         <v>7.5827237732519279</v>
       </c>
       <c r="O63" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43969</v>
       </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R63">
         <v>4724.080301773226</v>
       </c>
-      <c r="S63" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S63">
         <v>151.65447546503856</v>
       </c>
     </row>
@@ -6222,31 +6821,24 @@
       <c r="A64" s="1">
         <v>43970</v>
       </c>
-      <c r="B64" s="2">
-        <f t="shared" si="5"/>
+      <c r="B64">
         <v>62</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G64">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4730.0975298275926</v>
       </c>
-      <c r="H64" s="2">
-        <f t="shared" si="2"/>
+      <c r="H64">
+        <f t="shared" si="1"/>
         <v>6.0172280543665693</v>
       </c>
       <c r="O64" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43970</v>
       </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R64">
         <v>4730.0975298275926</v>
       </c>
-      <c r="S64" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S64">
         <v>120.34456108733139</v>
       </c>
     </row>
@@ -6254,31 +6846,24 @@
       <c r="A65" s="1">
         <v>43971</v>
       </c>
-      <c r="B65" s="2">
-        <f t="shared" si="5"/>
+      <c r="B65">
         <v>63</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G65">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4734.8331947035704</v>
       </c>
-      <c r="H65" s="2">
-        <f t="shared" si="2"/>
+      <c r="H65">
+        <f t="shared" si="1"/>
         <v>4.7356648759778182</v>
       </c>
       <c r="O65" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43971</v>
       </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R65">
         <v>4734.8331947035704</v>
       </c>
-      <c r="S65" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S65">
         <v>94.713297519556363</v>
       </c>
     </row>
@@ -6286,31 +6871,24 @@
       <c r="A66" s="1">
         <v>43972</v>
       </c>
-      <c r="B66" s="2">
-        <f t="shared" si="5"/>
+      <c r="B66">
         <v>64</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G66">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4738.5295925171422</v>
       </c>
-      <c r="H66" s="2">
-        <f t="shared" ref="H66:H74" si="6">G66-G65</f>
+      <c r="H66">
+        <f t="shared" ref="H66:H97" si="2">G66-G65</f>
         <v>3.6963978135718207</v>
       </c>
       <c r="O66" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43972</v>
       </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R66">
         <v>4738.5295925171422</v>
       </c>
-      <c r="S66" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S66">
         <v>73.927956271436415</v>
       </c>
     </row>
@@ -6318,31 +6896,24 @@
       <c r="A67" s="1">
         <v>43973</v>
       </c>
-      <c r="B67" s="2">
-        <f t="shared" si="5"/>
+      <c r="B67">
         <v>65</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G67">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4741.391065835136</v>
       </c>
-      <c r="H67" s="2">
-        <f t="shared" si="6"/>
+      <c r="H67">
+        <f t="shared" si="2"/>
         <v>2.8614733179938412</v>
       </c>
       <c r="O67" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43973</v>
       </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R67">
         <v>4741.391065835136</v>
       </c>
-      <c r="S67" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S67">
         <v>57.229466359876824</v>
       </c>
     </row>
@@ -6350,31 +6921,24 @@
       <c r="A68" s="1">
         <v>43974</v>
       </c>
-      <c r="B68" s="2">
-        <f t="shared" si="5"/>
+      <c r="B68">
         <v>66</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G68">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4743.5879843497569</v>
       </c>
-      <c r="H68" s="2">
-        <f t="shared" si="6"/>
+      <c r="H68">
+        <f t="shared" si="2"/>
         <v>2.1969185146208474</v>
       </c>
       <c r="O68" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43974</v>
       </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R68">
         <v>4743.5879843497569</v>
       </c>
-      <c r="S68" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S68">
         <v>43.938370292416948</v>
       </c>
     </row>
@@ -6382,31 +6946,24 @@
       <c r="A69" s="1">
         <v>43975</v>
       </c>
-      <c r="B69" s="2">
-        <f t="shared" si="5"/>
+      <c r="B69">
         <v>67</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G69">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4745.2608129651326</v>
       </c>
-      <c r="H69" s="2">
-        <f t="shared" si="6"/>
+      <c r="H69">
+        <f t="shared" si="2"/>
         <v>1.6728286153756926</v>
       </c>
       <c r="O69" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43975</v>
       </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R69">
         <v>4745.2608129651326</v>
       </c>
-      <c r="S69" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S69">
         <v>33.456572307513852</v>
       </c>
     </row>
@@ -6414,31 +6971,24 @@
       <c r="A70" s="1">
         <v>43976</v>
       </c>
-      <c r="B70" s="2">
-        <f t="shared" ref="B70:B74" si="7">A70-A$2</f>
+      <c r="B70">
         <v>68</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G70">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4746.524100468635</v>
       </c>
-      <c r="H70" s="2">
-        <f t="shared" si="6"/>
+      <c r="H70">
+        <f t="shared" si="2"/>
         <v>1.2632875035023972</v>
       </c>
       <c r="O70" s="1">
-        <f>Table26[[#This Row],[Date of Death]]</f>
         <v>43976</v>
       </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2">
-        <f>Table26[[#This Row],[Model (deaths)]]</f>
+      <c r="R70">
         <v>4746.524100468635</v>
       </c>
-      <c r="S70" s="2">
-        <f>Table26[[#This Row],[Model (deaths/day)]]*20</f>
+      <c r="S70">
         <v>25.265750070047943</v>
       </c>
     </row>
@@ -6446,97 +6996,68 @@
       <c r="A71" s="1">
         <v>43977</v>
       </c>
-      <c r="B71" s="2">
-        <f t="shared" si="7"/>
+      <c r="B71">
         <v>69</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G71">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4747.4702639938905</v>
       </c>
-      <c r="H71" s="2">
-        <f t="shared" si="6"/>
+      <c r="H71">
+        <f t="shared" si="2"/>
         <v>0.94616352525554248</v>
       </c>
-      <c r="O71" s="1"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43978</v>
       </c>
-      <c r="B72" s="2">
-        <f t="shared" si="7"/>
+      <c r="B72">
         <v>70</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G72">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4748.1730829292883</v>
       </c>
-      <c r="H72" s="2">
-        <f t="shared" si="6"/>
+      <c r="H72">
+        <f t="shared" si="2"/>
         <v>0.70281893539777229</v>
       </c>
-      <c r="O72" s="1"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43979</v>
       </c>
-      <c r="B73" s="2">
-        <f t="shared" si="7"/>
+      <c r="B73">
         <v>71</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G73">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4748.6908494380332</v>
       </c>
-      <c r="H73" s="2">
-        <f t="shared" si="6"/>
+      <c r="H73">
+        <f t="shared" si="2"/>
         <v>0.5177665087448986</v>
       </c>
-      <c r="O73" s="1"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43980</v>
       </c>
-      <c r="B74" s="2">
-        <f t="shared" si="7"/>
+      <c r="B74">
         <v>72</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2">
-        <f>$K$4*NORMDIST(Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+      <c r="G74">
+        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4749.0691506260637</v>
       </c>
-      <c r="H74" s="2">
-        <f t="shared" si="6"/>
+      <c r="H74">
+        <f t="shared" si="2"/>
         <v>0.37830118803049118</v>
       </c>
-      <c r="O74" s="1"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <tableParts count="3">
     <tablePart r:id="rId2"/>

--- a/MA case analysis.xlsx
+++ b/MA case analysis.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mserviciosrc-my.sharepoint.com/personal/lmelahn_lcred_org/Documents/COVID/MA-Covid-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{57D028E9-32F3-A142-888D-E37C1EB3B3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A904E06A-2188-9B4B-B03D-C722D5CAE0FA}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{57D028E9-32F3-A142-888D-E37C1EB3B3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5FB14D0-1F31-584D-BB49-97966D6F1B92}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{53B553D5-63C9-1943-8F02-62576D22A04A}"/>
   </bookViews>
   <sheets>
     <sheet name="Massachusetts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -153,9 +150,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yy"/>
@@ -164,10 +167,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2785,16 +2785,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2824,1084 +2824,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Massachussets"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="P1" t="str">
-            <v>Deaths/day * 20</v>
-          </cell>
-          <cell r="Q1" t="str">
-            <v>Total Deaths</v>
-          </cell>
-          <cell r="R1" t="str">
-            <v>Deaths Model</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>Daily Deaths Model *20</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="O2">
-            <v>43908</v>
-          </cell>
-          <cell r="P2">
-            <v>40</v>
-          </cell>
-          <cell r="Q2">
-            <v>2</v>
-          </cell>
-          <cell r="R2">
-            <v>6.4120156502429433</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="O3">
-            <v>43909</v>
-          </cell>
-          <cell r="P3">
-            <v>20</v>
-          </cell>
-          <cell r="Q3">
-            <v>3</v>
-          </cell>
-          <cell r="R3">
-            <v>8.6089341648644506</v>
-          </cell>
-          <cell r="S3">
-            <v>43.93837029243015</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="O4">
-            <v>43910</v>
-          </cell>
-          <cell r="P4">
-            <v>40</v>
-          </cell>
-          <cell r="Q4">
-            <v>5</v>
-          </cell>
-          <cell r="R4">
-            <v>11.470407482857341</v>
-          </cell>
-          <cell r="S4">
-            <v>57.229466359857817</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="O5">
-            <v>43911</v>
-          </cell>
-          <cell r="P5">
-            <v>40</v>
-          </cell>
-          <cell r="Q5">
-            <v>7</v>
-          </cell>
-          <cell r="R5">
-            <v>15.16680529642926</v>
-          </cell>
-          <cell r="S5">
-            <v>73.927956271438376</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="O6">
-            <v>43912</v>
-          </cell>
-          <cell r="P6">
-            <v>80</v>
-          </cell>
-          <cell r="Q6">
-            <v>11</v>
-          </cell>
-          <cell r="R6">
-            <v>19.90247017240744</v>
-          </cell>
-          <cell r="S6">
-            <v>94.713297519563611</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="O7">
-            <v>43913</v>
-          </cell>
-          <cell r="P7">
-            <v>120</v>
-          </cell>
-          <cell r="Q7">
-            <v>17</v>
-          </cell>
-          <cell r="R7">
-            <v>25.919698226774216</v>
-          </cell>
-          <cell r="S7">
-            <v>120.34456108733551</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="O8">
-            <v>43914</v>
-          </cell>
-          <cell r="P8">
-            <v>180</v>
-          </cell>
-          <cell r="Q8">
-            <v>26</v>
-          </cell>
-          <cell r="R8">
-            <v>33.502422000026378</v>
-          </cell>
-          <cell r="S8">
-            <v>151.65447546504325</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="O9">
-            <v>43915</v>
-          </cell>
-          <cell r="P9">
-            <v>140</v>
-          </cell>
-          <cell r="Q9">
-            <v>33</v>
-          </cell>
-          <cell r="R9">
-            <v>42.979342857516379</v>
-          </cell>
-          <cell r="S9">
-            <v>189.53841714980001</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="O10">
-            <v>43916</v>
-          </cell>
-          <cell r="P10">
-            <v>180</v>
-          </cell>
-          <cell r="Q10">
-            <v>42</v>
-          </cell>
-          <cell r="R10">
-            <v>54.726222708434371</v>
-          </cell>
-          <cell r="S10">
-            <v>234.93759701835984</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="O11">
-            <v>43917</v>
-          </cell>
-          <cell r="P11">
-            <v>300</v>
-          </cell>
-          <cell r="Q11">
-            <v>57</v>
-          </cell>
-          <cell r="R11">
-            <v>69.167016111914492</v>
-          </cell>
-          <cell r="S11">
-            <v>288.8158680696024</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="O12">
-            <v>43918</v>
-          </cell>
-          <cell r="P12">
-            <v>300</v>
-          </cell>
-          <cell r="Q12">
-            <v>72</v>
-          </cell>
-          <cell r="R12">
-            <v>86.77350830481808</v>
-          </cell>
-          <cell r="S12">
-            <v>352.12984385807175</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="O13">
-            <v>43919</v>
-          </cell>
-          <cell r="P13">
-            <v>540</v>
-          </cell>
-          <cell r="Q13">
-            <v>99</v>
-          </cell>
-          <cell r="R13">
-            <v>108.06312675385117</v>
-          </cell>
-          <cell r="S13">
-            <v>425.79236898066171</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="O14">
-            <v>43920</v>
-          </cell>
-          <cell r="P14">
-            <v>520</v>
-          </cell>
-          <cell r="Q14">
-            <v>125</v>
-          </cell>
-          <cell r="R14">
-            <v>133.59461754467122</v>
-          </cell>
-          <cell r="S14">
-            <v>510.62981581640116</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="O15">
-            <v>43921</v>
-          </cell>
-          <cell r="P15">
-            <v>580</v>
-          </cell>
-          <cell r="Q15">
-            <v>154</v>
-          </cell>
-          <cell r="R15">
-            <v>163.96132648673623</v>
-          </cell>
-          <cell r="S15">
-            <v>607.33417884130006</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="O16">
-            <v>43922</v>
-          </cell>
-          <cell r="P16">
-            <v>700</v>
-          </cell>
-          <cell r="Q16">
-            <v>189</v>
-          </cell>
-          <cell r="R16">
-            <v>199.78190014504457</v>
-          </cell>
-          <cell r="S16">
-            <v>716.41147316616696</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="O17">
-            <v>43923</v>
-          </cell>
-          <cell r="P17">
-            <v>840</v>
-          </cell>
-          <cell r="Q17">
-            <v>231</v>
-          </cell>
-          <cell r="R17">
-            <v>241.68832425923688</v>
-          </cell>
-          <cell r="S17">
-            <v>838.1284822838461</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="O18">
-            <v>43924</v>
-          </cell>
-          <cell r="P18">
-            <v>720</v>
-          </cell>
-          <cell r="Q18">
-            <v>267</v>
-          </cell>
-          <cell r="R18">
-            <v>290.31134418902798</v>
-          </cell>
-          <cell r="S18">
-            <v>972.46039859582197</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="O19">
-            <v>43925</v>
-          </cell>
-          <cell r="P19">
-            <v>780</v>
-          </cell>
-          <cell r="Q19">
-            <v>306</v>
-          </cell>
-          <cell r="R19">
-            <v>346.26345976094302</v>
-          </cell>
-          <cell r="S19">
-            <v>1119.0423114383009</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="O20">
-            <v>43926</v>
-          </cell>
-          <cell r="P20">
-            <v>1340</v>
-          </cell>
-          <cell r="Q20">
-            <v>373</v>
-          </cell>
-          <cell r="R20">
-            <v>410.11984836952757</v>
-          </cell>
-          <cell r="S20">
-            <v>1277.127772171691</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="O21">
-            <v>43927</v>
-          </cell>
-          <cell r="P21">
-            <v>1580</v>
-          </cell>
-          <cell r="Q21">
-            <v>452</v>
-          </cell>
-          <cell r="R21">
-            <v>482.39773631493733</v>
-          </cell>
-          <cell r="S21">
-            <v>1445.5577589081952</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="O22">
-            <v>43928</v>
-          </cell>
-          <cell r="P22">
-            <v>1340</v>
-          </cell>
-          <cell r="Q22">
-            <v>519</v>
-          </cell>
-          <cell r="R22">
-            <v>563.53489818716093</v>
-          </cell>
-          <cell r="S22">
-            <v>1622.743237444472</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="O23">
-            <v>43929</v>
-          </cell>
-          <cell r="P23">
-            <v>2000</v>
-          </cell>
-          <cell r="Q23">
-            <v>619</v>
-          </cell>
-          <cell r="R23">
-            <v>653.86810548966105</v>
-          </cell>
-          <cell r="S23">
-            <v>1806.6641460500023</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="O24">
-            <v>43930</v>
-          </cell>
-          <cell r="P24">
-            <v>2240</v>
-          </cell>
-          <cell r="Q24">
-            <v>731</v>
-          </cell>
-          <cell r="R24">
-            <v>753.61245617442069</v>
-          </cell>
-          <cell r="S24">
-            <v>1994.8870136951928</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="O25">
-            <v>43931</v>
-          </cell>
-          <cell r="P25">
-            <v>2100</v>
-          </cell>
-          <cell r="Q25">
-            <v>836</v>
-          </cell>
-          <cell r="R25">
-            <v>862.8425846063825</v>
-          </cell>
-          <cell r="S25">
-            <v>2184.6025686392363</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="O26">
-            <v>43932</v>
-          </cell>
-          <cell r="P26">
-            <v>2340</v>
-          </cell>
-          <cell r="Q26">
-            <v>953</v>
-          </cell>
-          <cell r="R26">
-            <v>981.47676679739618</v>
-          </cell>
-          <cell r="S26">
-            <v>2372.6836438202736</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="O27">
-            <v>43933</v>
-          </cell>
-          <cell r="P27">
-            <v>2220</v>
-          </cell>
-          <cell r="Q27">
-            <v>1064</v>
-          </cell>
-          <cell r="R27">
-            <v>1109.2648915735372</v>
-          </cell>
-          <cell r="S27">
-            <v>2555.7624955228198</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="O28">
-            <v>43934</v>
-          </cell>
-          <cell r="P28">
-            <v>3160</v>
-          </cell>
-          <cell r="Q28">
-            <v>1222</v>
-          </cell>
-          <cell r="R28">
-            <v>1245.781161533868</v>
-          </cell>
-          <cell r="S28">
-            <v>2730.3253992066175</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="O29">
-            <v>43935</v>
-          </cell>
-          <cell r="P29">
-            <v>2380</v>
-          </cell>
-          <cell r="Q29">
-            <v>1341</v>
-          </cell>
-          <cell r="R29">
-            <v>1390.422219601202</v>
-          </cell>
-          <cell r="S29">
-            <v>2892.8211613466783</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="O30">
-            <v>43936</v>
-          </cell>
-          <cell r="P30">
-            <v>3500</v>
-          </cell>
-          <cell r="Q30">
-            <v>1516</v>
-          </cell>
-          <cell r="R30">
-            <v>1542.4111738510423</v>
-          </cell>
-          <cell r="S30">
-            <v>3039.7790849968078</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="O31">
-            <v>43937</v>
-          </cell>
-          <cell r="P31">
-            <v>3340</v>
-          </cell>
-          <cell r="Q31">
-            <v>1683</v>
-          </cell>
-          <cell r="R31">
-            <v>1700.8077260319676</v>
-          </cell>
-          <cell r="S31">
-            <v>3167.9310436185051</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="O32">
-            <v>43938</v>
-          </cell>
-          <cell r="P32">
-            <v>3240</v>
-          </cell>
-          <cell r="Q32">
-            <v>1845</v>
-          </cell>
-          <cell r="R32">
-            <v>1864.5243128004536</v>
-          </cell>
-          <cell r="S32">
-            <v>3274.3317353697194</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="O33">
-            <v>43939</v>
-          </cell>
-          <cell r="P33">
-            <v>3320</v>
-          </cell>
-          <cell r="Q33">
-            <v>2011</v>
-          </cell>
-          <cell r="R33">
-            <v>2032.3478613851698</v>
-          </cell>
-          <cell r="S33">
-            <v>3356.4709716943253</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="O34">
-            <v>43940</v>
-          </cell>
-          <cell r="P34">
-            <v>3420</v>
-          </cell>
-          <cell r="Q34">
-            <v>2182</v>
-          </cell>
-          <cell r="R34">
-            <v>2202.9664631897517</v>
-          </cell>
-          <cell r="S34">
-            <v>3412.3720360916377</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="O35">
-            <v>43941</v>
-          </cell>
-          <cell r="P35">
-            <v>3400</v>
-          </cell>
-          <cell r="Q35">
-            <v>2352</v>
-          </cell>
-          <cell r="R35">
-            <v>2375</v>
-          </cell>
-          <cell r="S35">
-            <v>3440.6707362049656</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="O36">
-            <v>43942</v>
-          </cell>
-          <cell r="P36">
-            <v>3040</v>
-          </cell>
-          <cell r="Q36">
-            <v>2504</v>
-          </cell>
-          <cell r="R36">
-            <v>2547.0335368102483</v>
-          </cell>
-          <cell r="S36">
-            <v>3440.6707362049656</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="O37">
-            <v>43943</v>
-          </cell>
-          <cell r="P37">
-            <v>3000</v>
-          </cell>
-          <cell r="Q37">
-            <v>2654</v>
-          </cell>
-          <cell r="R37">
-            <v>2717.6521386148302</v>
-          </cell>
-          <cell r="S37">
-            <v>3412.3720360916377</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="O38">
-            <v>43944</v>
-          </cell>
-          <cell r="P38">
-            <v>3780</v>
-          </cell>
-          <cell r="Q38">
-            <v>2843</v>
-          </cell>
-          <cell r="R38">
-            <v>2885.4756871995464</v>
-          </cell>
-          <cell r="S38">
-            <v>3356.4709716943253</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="O39">
-            <v>43945</v>
-          </cell>
-          <cell r="P39">
-            <v>3680</v>
-          </cell>
-          <cell r="Q39">
-            <v>3027</v>
-          </cell>
-          <cell r="R39">
-            <v>3049.1922739680322</v>
-          </cell>
-          <cell r="S39">
-            <v>3274.3317353697148</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="O40">
-            <v>43946</v>
-          </cell>
-          <cell r="P40">
-            <v>2860</v>
-          </cell>
-          <cell r="Q40">
-            <v>3170</v>
-          </cell>
-          <cell r="R40">
-            <v>3207.5888261489577</v>
-          </cell>
-          <cell r="S40">
-            <v>3167.9310436185096</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="O41">
-            <v>43947</v>
-          </cell>
-          <cell r="P41">
-            <v>2920</v>
-          </cell>
-          <cell r="Q41">
-            <v>3316</v>
-          </cell>
-          <cell r="R41">
-            <v>3359.577780398798</v>
-          </cell>
-          <cell r="S41">
-            <v>3039.7790849968078</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="O42">
-            <v>43948</v>
-          </cell>
-          <cell r="P42">
-            <v>3180</v>
-          </cell>
-          <cell r="Q42">
-            <v>3475</v>
-          </cell>
-          <cell r="R42">
-            <v>3504.2188384661317</v>
-          </cell>
-          <cell r="S42">
-            <v>2892.8211613466738</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="O43">
-            <v>43949</v>
-          </cell>
-          <cell r="P43">
-            <v>2760</v>
-          </cell>
-          <cell r="Q43">
-            <v>3613</v>
-          </cell>
-          <cell r="R43">
-            <v>3640.7351084264628</v>
-          </cell>
-          <cell r="S43">
-            <v>2730.325399206622</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="O44">
-            <v>43950</v>
-          </cell>
-          <cell r="P44">
-            <v>2840</v>
-          </cell>
-          <cell r="Q44">
-            <v>3755</v>
-          </cell>
-          <cell r="R44">
-            <v>3768.5232332026039</v>
-          </cell>
-          <cell r="S44">
-            <v>2555.7624955228221</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="O45">
-            <v>43951</v>
-          </cell>
-          <cell r="P45">
-            <v>2440</v>
-          </cell>
-          <cell r="Q45">
-            <v>3877</v>
-          </cell>
-          <cell r="R45">
-            <v>3887.1574153936176</v>
-          </cell>
-          <cell r="S45">
-            <v>2372.6836438202736</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="O46">
-            <v>43952</v>
-          </cell>
-          <cell r="P46">
-            <v>2440</v>
-          </cell>
-          <cell r="Q46">
-            <v>3999</v>
-          </cell>
-          <cell r="R46">
-            <v>3996.3875438255795</v>
-          </cell>
-          <cell r="S46">
-            <v>2184.6025686392386</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="O47">
-            <v>43953</v>
-          </cell>
-          <cell r="P47">
-            <v>1140</v>
-          </cell>
-          <cell r="Q47">
-            <v>4056</v>
-          </cell>
-          <cell r="R47">
-            <v>4096.1318945103394</v>
-          </cell>
-          <cell r="S47">
-            <v>1994.8870136951973</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="O48">
-            <v>43954</v>
-          </cell>
-          <cell r="R48">
-            <v>4186.4651018128388</v>
-          </cell>
-          <cell r="S48">
-            <v>1806.6641460499886</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="O49">
-            <v>43955</v>
-          </cell>
-          <cell r="R49">
-            <v>4267.602263685063</v>
-          </cell>
-          <cell r="S49">
-            <v>1622.7432374444834</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="O50">
-            <v>43956</v>
-          </cell>
-          <cell r="R50">
-            <v>4339.880151630472</v>
-          </cell>
-          <cell r="S50">
-            <v>1445.5577589081804</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="O51">
-            <v>43957</v>
-          </cell>
-          <cell r="R51">
-            <v>4403.7365402390569</v>
-          </cell>
-          <cell r="S51">
-            <v>1277.1277721716979</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="O52">
-            <v>43958</v>
-          </cell>
-          <cell r="R52">
-            <v>4459.6886558109718</v>
-          </cell>
-          <cell r="S52">
-            <v>1119.0423114382975</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="O53">
-            <v>43959</v>
-          </cell>
-          <cell r="R53">
-            <v>4508.3116757407624</v>
-          </cell>
-          <cell r="S53">
-            <v>972.46039859581288</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="O54">
-            <v>43960</v>
-          </cell>
-          <cell r="R54">
-            <v>4550.2180998549557</v>
-          </cell>
-          <cell r="S54">
-            <v>838.12848228386429</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="O55">
-            <v>43961</v>
-          </cell>
-          <cell r="R55">
-            <v>4586.0386735132643</v>
-          </cell>
-          <cell r="S55">
-            <v>716.41147316617207</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="O56">
-            <v>43962</v>
-          </cell>
-          <cell r="R56">
-            <v>4616.4053824553284</v>
-          </cell>
-          <cell r="S56">
-            <v>607.33417884128357</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="O57">
-            <v>43963</v>
-          </cell>
-          <cell r="R57">
-            <v>4641.9368732461489</v>
-          </cell>
-          <cell r="S57">
-            <v>510.62981581640997</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="O58">
-            <v>43964</v>
-          </cell>
-          <cell r="R58">
-            <v>4663.2264916951817</v>
-          </cell>
-          <cell r="S58">
-            <v>425.79236898065574</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="O59">
-            <v>43965</v>
-          </cell>
-          <cell r="R59">
-            <v>4680.8329838880854</v>
-          </cell>
-          <cell r="S59">
-            <v>352.12984385807431</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="O60">
-            <v>43966</v>
-          </cell>
-          <cell r="R60">
-            <v>4695.2737772915661</v>
-          </cell>
-          <cell r="S60">
-            <v>288.81586806961423</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="O61">
-            <v>43967</v>
-          </cell>
-          <cell r="R61">
-            <v>4707.0206571424833</v>
-          </cell>
-          <cell r="S61">
-            <v>234.93759701834279</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="O62">
-            <v>43968</v>
-          </cell>
-          <cell r="R62">
-            <v>4716.4975779999741</v>
-          </cell>
-          <cell r="S62">
-            <v>189.53841714981536</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="O63">
-            <v>43969</v>
-          </cell>
-          <cell r="R63">
-            <v>4724.080301773226</v>
-          </cell>
-          <cell r="S63">
-            <v>151.65447546503856</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="O64">
-            <v>43970</v>
-          </cell>
-          <cell r="R64">
-            <v>4730.0975298275926</v>
-          </cell>
-          <cell r="S64">
-            <v>120.34456108733139</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="O65">
-            <v>43971</v>
-          </cell>
-          <cell r="R65">
-            <v>4734.8331947035704</v>
-          </cell>
-          <cell r="S65">
-            <v>94.713297519556363</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="O66">
-            <v>43972</v>
-          </cell>
-          <cell r="R66">
-            <v>4738.5295925171422</v>
-          </cell>
-          <cell r="S66">
-            <v>73.927956271436415</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="O67">
-            <v>43973</v>
-          </cell>
-          <cell r="R67">
-            <v>4741.391065835136</v>
-          </cell>
-          <cell r="S67">
-            <v>57.229466359876824</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="O68">
-            <v>43974</v>
-          </cell>
-          <cell r="R68">
-            <v>4743.5879843497569</v>
-          </cell>
-          <cell r="S68">
-            <v>43.938370292416948</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="O69">
-            <v>43975</v>
-          </cell>
-          <cell r="R69">
-            <v>4745.2608129651326</v>
-          </cell>
-          <cell r="S69">
-            <v>33.456572307513852</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="O70">
-            <v>43976</v>
-          </cell>
-          <cell r="R70">
-            <v>4746.524100468635</v>
-          </cell>
-          <cell r="S70">
-            <v>25.265750070047943</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDEDC61A-DAAD-344B-A64E-DA3E1E2A3D1B}" name="Table1" displayName="Table1" ref="A1:H74" totalsRowShown="0">
   <autoFilter ref="A1:H74" xr:uid="{9F5FAF62-E848-F54F-963B-0F29B33B7744}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{406E5C67-6DBF-2D4A-862E-59F357A3BC34}" name="Date of Death" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{406E5C67-6DBF-2D4A-862E-59F357A3BC34}" name="Date of Death" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{C87E43E7-C161-A041-8A3A-FB6D2DB3CB30}" name="Time"/>
     <tableColumn id="3" xr3:uid="{C60420CB-D4C9-B24C-A088-DB19FA78F336}" name="New Deaths"/>
     <tableColumn id="4" xr3:uid="{11A4F42F-EFD9-6645-B6A9-D7706A134FA0}" name="Running Total"/>
-    <tableColumn id="5" xr3:uid="{E40C8084-3C05-7A4B-8262-0EBD2C4D0196}" name="Deaths (normalized)" dataDxfId="4">
-      <calculatedColumnFormula>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{E40C8084-3C05-7A4B-8262-0EBD2C4D0196}" name="Deaths (normalized)" dataDxfId="2">
+      <calculatedColumnFormula>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DD75D7D1-AF29-894F-82B1-4172DC3A9275}" name="Running Total (normalized)" dataDxfId="3">
-      <calculatedColumnFormula>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{DD75D7D1-AF29-894F-82B1-4172DC3A9275}" name="Running Total (normalized)" dataDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DE2BC88E-C406-2548-B151-92BB5C26883B}" name="Model (deaths)">
-      <calculatedColumnFormula>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{DE2BC88E-C406-2548-B151-92BB5C26883B}" name="Model (deaths)" dataDxfId="0">
+      <calculatedColumnFormula>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F8EE4233-E2D0-4748-AF5F-505A7DAF2B2D}" name="Model (deaths/day)" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{F8EE4233-E2D0-4748-AF5F-505A7DAF2B2D}" name="Model (deaths/day)" dataDxfId="4">
       <calculatedColumnFormula>G2-G1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3925,10 +2865,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4304B0B4-4584-1042-B599-94E8681E1826}" name="Table3" displayName="Table3" ref="O1:S70" totalsRowShown="0">
   <autoFilter ref="O1:S70" xr:uid="{2EE0D2BC-E15D-7A42-843A-5D5504704ACD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{19A56E58-C143-D642-AF7B-876C7956CBF2}" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{19A56E58-C143-D642-AF7B-876C7956CBF2}" name="Date" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{C8EAD9F4-C4ED-EE49-9DB8-25A845742D11}" name="Deaths/day * 20"/>
     <tableColumn id="3" xr3:uid="{90083916-7BA6-A14C-817D-2ADAE0D4BB0A}" name="Total Deaths"/>
-    <tableColumn id="4" xr3:uid="{9D2EAB4E-D3A4-7840-AEA4-406E756DDAC1}" name="Deaths Model"/>
+    <tableColumn id="4" xr3:uid="{9D2EAB4E-D3A4-7840-AEA4-406E756DDAC1}" name="Deaths Model">
+      <calculatedColumnFormula>Table1[[#This Row],[Model (deaths)]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{00156412-23EF-CB47-A53F-880FF66A43C7}" name="Daily Deaths Model *20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4234,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039AF893-0F3E-7648-8E22-05B45FBF5E08}">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4319,15 +3261,15 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>1.0582010582010581E-2</v>
       </c>
       <c r="F2">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>4.9309664694280081E-4</v>
       </c>
       <c r="G2">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>6.4120156502429433</v>
       </c>
       <c r="J2" t="s">
@@ -4370,19 +3312,19 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>5.2910052910052907E-3</v>
       </c>
       <c r="F3">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>7.3964497041420117E-4</v>
       </c>
       <c r="G3">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>8.6089341648644506</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H2:H33" si="0">G3-G2</f>
+        <f t="shared" ref="H3:H33" si="0">G3-G2</f>
         <v>2.1969185146215073</v>
       </c>
       <c r="J3" t="s">
@@ -4404,9 +3346,11 @@
         <v>3</v>
       </c>
       <c r="R3">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>8.6089341648644506</v>
       </c>
       <c r="S3">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>43.93837029243015</v>
       </c>
     </row>
@@ -4424,15 +3368,15 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>1.0582010582010581E-2</v>
       </c>
       <c r="F4">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>1.232741617357002E-3</v>
       </c>
       <c r="G4">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>11.470407482857341</v>
       </c>
       <c r="H4">
@@ -4458,9 +3402,11 @@
         <v>5</v>
       </c>
       <c r="R4">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>11.470407482857341</v>
       </c>
       <c r="S4">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>57.229466359857817</v>
       </c>
     </row>
@@ -4478,15 +3424,15 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>1.0582010582010581E-2</v>
       </c>
       <c r="F5">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>1.7258382642998027E-3</v>
       </c>
       <c r="G5">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>15.16680529642926</v>
       </c>
       <c r="H5">
@@ -4512,9 +3458,11 @@
         <v>7</v>
       </c>
       <c r="R5">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>15.16680529642926</v>
       </c>
       <c r="S5">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>73.927956271438376</v>
       </c>
     </row>
@@ -4532,15 +3480,15 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>2.1164021164021163E-2</v>
       </c>
       <c r="F6">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>2.7120315581854043E-3</v>
       </c>
       <c r="G6">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>19.90247017240744</v>
       </c>
       <c r="H6">
@@ -4566,9 +3514,11 @@
         <v>11</v>
       </c>
       <c r="R6">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>19.90247017240744</v>
       </c>
       <c r="S6">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>94.713297519563611</v>
       </c>
     </row>
@@ -4586,15 +3536,15 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>3.1746031746031744E-2</v>
       </c>
       <c r="F7">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>4.1913214990138064E-3</v>
       </c>
       <c r="G7">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>25.919698226774216</v>
       </c>
       <c r="H7">
@@ -4611,9 +3561,11 @@
         <v>17</v>
       </c>
       <c r="R7">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>25.919698226774216</v>
       </c>
       <c r="S7">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>120.34456108733551</v>
       </c>
     </row>
@@ -4631,15 +3583,15 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="F8">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="G8">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>33.502422000026378</v>
       </c>
       <c r="H8">
@@ -4656,9 +3608,11 @@
         <v>26</v>
       </c>
       <c r="R8">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>33.502422000026378</v>
       </c>
       <c r="S8">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>151.65447546504325</v>
       </c>
     </row>
@@ -4676,15 +3630,15 @@
         <v>33</v>
       </c>
       <c r="E9">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="F9">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>8.1360946745562129E-3</v>
       </c>
       <c r="G9">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>42.979342857516379</v>
       </c>
       <c r="H9">
@@ -4701,9 +3655,11 @@
         <v>33</v>
       </c>
       <c r="R9">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>42.979342857516379</v>
       </c>
       <c r="S9">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>189.53841714980001</v>
       </c>
     </row>
@@ -4721,15 +3677,15 @@
         <v>42</v>
       </c>
       <c r="E10">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="F10">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>1.0355029585798817E-2</v>
       </c>
       <c r="G10">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>54.726222708434371</v>
       </c>
       <c r="H10">
@@ -4746,9 +3702,11 @@
         <v>42</v>
       </c>
       <c r="R10">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>54.726222708434371</v>
       </c>
       <c r="S10">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>234.93759701835984</v>
       </c>
     </row>
@@ -4766,15 +3724,15 @@
         <v>57</v>
       </c>
       <c r="E11">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>7.9365079365079361E-2</v>
       </c>
       <c r="F11">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>1.4053254437869823E-2</v>
       </c>
       <c r="G11">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>69.167016111914492</v>
       </c>
       <c r="H11">
@@ -4791,9 +3749,11 @@
         <v>57</v>
       </c>
       <c r="R11">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>69.167016111914492</v>
       </c>
       <c r="S11">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>288.8158680696024</v>
       </c>
     </row>
@@ -4811,15 +3771,15 @@
         <v>72</v>
       </c>
       <c r="E12">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>7.9365079365079361E-2</v>
       </c>
       <c r="F12">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>1.7751479289940829E-2</v>
       </c>
       <c r="G12">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>86.77350830481808</v>
       </c>
       <c r="H12">
@@ -4836,9 +3796,11 @@
         <v>72</v>
       </c>
       <c r="R12">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>86.77350830481808</v>
       </c>
       <c r="S12">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>352.12984385807175</v>
       </c>
     </row>
@@ -4856,15 +3818,15 @@
         <v>99</v>
       </c>
       <c r="E13">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="F13">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>2.4408284023668639E-2</v>
       </c>
       <c r="G13">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>108.06312675385117</v>
       </c>
       <c r="H13">
@@ -4881,9 +3843,11 @@
         <v>99</v>
       </c>
       <c r="R13">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>108.06312675385117</v>
       </c>
       <c r="S13">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>425.79236898066171</v>
       </c>
     </row>
@@ -4901,15 +3865,15 @@
         <v>125</v>
       </c>
       <c r="E14">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.13756613756613756</v>
       </c>
       <c r="F14">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>3.0818540433925051E-2</v>
       </c>
       <c r="G14">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>133.59461754467122</v>
       </c>
       <c r="H14">
@@ -4926,9 +3890,11 @@
         <v>125</v>
       </c>
       <c r="R14">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>133.59461754467122</v>
       </c>
       <c r="S14">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>510.62981581640116</v>
       </c>
     </row>
@@ -4946,15 +3912,15 @@
         <v>154</v>
       </c>
       <c r="E15">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.15343915343915343</v>
       </c>
       <c r="F15">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>3.796844181459566E-2</v>
       </c>
       <c r="G15">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>163.96132648673623</v>
       </c>
       <c r="H15">
@@ -4971,9 +3937,11 @@
         <v>154</v>
       </c>
       <c r="R15">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>163.96132648673623</v>
       </c>
       <c r="S15">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>607.33417884130006</v>
       </c>
     </row>
@@ -4991,15 +3959,15 @@
         <v>189</v>
       </c>
       <c r="E16">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.18518518518518517</v>
       </c>
       <c r="F16">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>4.6597633136094677E-2</v>
       </c>
       <c r="G16">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>199.78190014504457</v>
       </c>
       <c r="H16">
@@ -5016,9 +3984,11 @@
         <v>189</v>
       </c>
       <c r="R16">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>199.78190014504457</v>
       </c>
       <c r="S16">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>716.41147316616696</v>
       </c>
     </row>
@@ -5036,15 +4006,15 @@
         <v>231</v>
       </c>
       <c r="E17">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="F17">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>5.6952662721893491E-2</v>
       </c>
       <c r="G17">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>241.68832425923688</v>
       </c>
       <c r="H17">
@@ -5061,9 +4031,11 @@
         <v>231</v>
       </c>
       <c r="R17">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>241.68832425923688</v>
       </c>
       <c r="S17">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>838.1284822838461</v>
       </c>
     </row>
@@ -5081,15 +4053,15 @@
         <v>267</v>
       </c>
       <c r="E18">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.19047619047619047</v>
       </c>
       <c r="F18">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>6.5828402366863908E-2</v>
       </c>
       <c r="G18">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>290.31134418902798</v>
       </c>
       <c r="H18">
@@ -5106,9 +4078,11 @@
         <v>267</v>
       </c>
       <c r="R18">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>290.31134418902798</v>
       </c>
       <c r="S18">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>972.46039859582197</v>
       </c>
     </row>
@@ -5126,15 +4100,15 @@
         <v>306</v>
       </c>
       <c r="E19">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.20634920634920634</v>
       </c>
       <c r="F19">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>7.5443786982248517E-2</v>
       </c>
       <c r="G19">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>346.26345976094302</v>
       </c>
       <c r="H19">
@@ -5151,9 +4125,11 @@
         <v>306</v>
       </c>
       <c r="R19">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>346.26345976094302</v>
       </c>
       <c r="S19">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1119.0423114383009</v>
       </c>
     </row>
@@ -5171,15 +4147,15 @@
         <v>373</v>
       </c>
       <c r="E20">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.35449735449735448</v>
       </c>
       <c r="F20">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>9.1962524654832345E-2</v>
       </c>
       <c r="G20">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>410.11984836952757</v>
       </c>
       <c r="H20">
@@ -5196,9 +4172,11 @@
         <v>373</v>
       </c>
       <c r="R20">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>410.11984836952757</v>
       </c>
       <c r="S20">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1277.127772171691</v>
       </c>
     </row>
@@ -5216,15 +4194,15 @@
         <v>452</v>
       </c>
       <c r="E21">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.41798941798941797</v>
       </c>
       <c r="F21">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.11143984220907298</v>
       </c>
       <c r="G21">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>482.39773631493733</v>
       </c>
       <c r="H21">
@@ -5241,9 +4219,11 @@
         <v>452</v>
       </c>
       <c r="R21">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>482.39773631493733</v>
       </c>
       <c r="S21">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1445.5577589081952</v>
       </c>
     </row>
@@ -5261,15 +4241,15 @@
         <v>519</v>
       </c>
       <c r="E22">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.35449735449735448</v>
       </c>
       <c r="F22">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.12795857988165679</v>
       </c>
       <c r="G22">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>563.53489818716093</v>
       </c>
       <c r="H22">
@@ -5286,9 +4266,11 @@
         <v>519</v>
       </c>
       <c r="R22">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>563.53489818716093</v>
       </c>
       <c r="S22">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1622.743237444472</v>
       </c>
     </row>
@@ -5306,15 +4288,15 @@
         <v>619</v>
       </c>
       <c r="E23">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.52910052910052907</v>
       </c>
       <c r="F23">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.15261341222879685</v>
       </c>
       <c r="G23">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>653.86810548966105</v>
       </c>
       <c r="H23">
@@ -5331,9 +4313,11 @@
         <v>619</v>
       </c>
       <c r="R23">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>653.86810548966105</v>
       </c>
       <c r="S23">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1806.6641460500023</v>
       </c>
     </row>
@@ -5351,15 +4335,15 @@
         <v>731</v>
       </c>
       <c r="E24">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.59259259259259256</v>
       </c>
       <c r="F24">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.18022682445759369</v>
       </c>
       <c r="G24">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>753.61245617442069</v>
       </c>
       <c r="H24">
@@ -5376,9 +4360,11 @@
         <v>731</v>
       </c>
       <c r="R24">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>753.61245617442069</v>
       </c>
       <c r="S24">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1994.8870136951928</v>
       </c>
     </row>
@@ -5396,15 +4382,15 @@
         <v>836</v>
       </c>
       <c r="E25">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.55555555555555558</v>
       </c>
       <c r="F25">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.20611439842209073</v>
       </c>
       <c r="G25">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>862.8425846063825</v>
       </c>
       <c r="H25">
@@ -5421,9 +4407,11 @@
         <v>836</v>
       </c>
       <c r="R25">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>862.8425846063825</v>
       </c>
       <c r="S25">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2184.6025686392363</v>
       </c>
     </row>
@@ -5441,15 +4429,15 @@
         <v>953</v>
       </c>
       <c r="E26">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.61904761904761907</v>
       </c>
       <c r="F26">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.23496055226824458</v>
       </c>
       <c r="G26">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>981.47676679739618</v>
       </c>
       <c r="H26">
@@ -5466,9 +4454,11 @@
         <v>953</v>
       </c>
       <c r="R26">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>981.47676679739618</v>
       </c>
       <c r="S26">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2372.6836438202736</v>
       </c>
     </row>
@@ -5486,15 +4476,15 @@
         <v>1064</v>
       </c>
       <c r="E27">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.58730158730158732</v>
       </c>
       <c r="F27">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.26232741617357003</v>
       </c>
       <c r="G27">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1109.2648915735372</v>
       </c>
       <c r="H27">
@@ -5511,9 +4501,11 @@
         <v>1064</v>
       </c>
       <c r="R27">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>1109.2648915735372</v>
       </c>
       <c r="S27">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2555.7624955228198</v>
       </c>
     </row>
@@ -5531,15 +4523,15 @@
         <v>1222</v>
       </c>
       <c r="E28">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.83597883597883593</v>
       </c>
       <c r="F28">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.30128205128205127</v>
       </c>
       <c r="G28">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1245.781161533868</v>
       </c>
       <c r="H28">
@@ -5556,9 +4548,11 @@
         <v>1222</v>
       </c>
       <c r="R28">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>1245.781161533868</v>
       </c>
       <c r="S28">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2730.3253992066175</v>
       </c>
     </row>
@@ -5576,15 +4570,15 @@
         <v>1341</v>
       </c>
       <c r="E29">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.62962962962962965</v>
       </c>
       <c r="F29">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.33062130177514792</v>
       </c>
       <c r="G29">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1390.422219601202</v>
       </c>
       <c r="H29">
@@ -5601,9 +4595,11 @@
         <v>1341</v>
       </c>
       <c r="R29">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>1390.422219601202</v>
       </c>
       <c r="S29">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2892.8211613466783</v>
       </c>
     </row>
@@ -5621,15 +4617,15 @@
         <v>1516</v>
       </c>
       <c r="E30">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.92592592592592593</v>
       </c>
       <c r="F30">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.37376725838264302</v>
       </c>
       <c r="G30">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1542.4111738510423</v>
       </c>
       <c r="H30">
@@ -5646,9 +4642,11 @@
         <v>1516</v>
       </c>
       <c r="R30">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>1542.4111738510423</v>
       </c>
       <c r="S30">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3039.7790849968078</v>
       </c>
     </row>
@@ -5666,15 +4664,15 @@
         <v>1683</v>
       </c>
       <c r="E31">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.8835978835978836</v>
       </c>
       <c r="F31">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.41494082840236685</v>
       </c>
       <c r="G31">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1700.8077260319676</v>
       </c>
       <c r="H31">
@@ -5691,9 +4689,11 @@
         <v>1683</v>
       </c>
       <c r="R31">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>1700.8077260319676</v>
       </c>
       <c r="S31">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3167.9310436185051</v>
       </c>
     </row>
@@ -5711,15 +4711,15 @@
         <v>1845</v>
       </c>
       <c r="E32">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="F32">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.45488165680473375</v>
       </c>
       <c r="G32">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>1864.5243128004536</v>
       </c>
       <c r="H32">
@@ -5736,9 +4736,11 @@
         <v>1845</v>
       </c>
       <c r="R32">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>1864.5243128004536</v>
       </c>
       <c r="S32">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3274.3317353697194</v>
       </c>
     </row>
@@ -5756,15 +4758,15 @@
         <v>2011</v>
       </c>
       <c r="E33">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.87830687830687826</v>
       </c>
       <c r="F33">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.4958086785009862</v>
       </c>
       <c r="G33">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2032.3478613851698</v>
       </c>
       <c r="H33">
@@ -5781,9 +4783,11 @@
         <v>2011</v>
       </c>
       <c r="R33">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>2032.3478613851698</v>
       </c>
       <c r="S33">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3356.4709716943253</v>
       </c>
     </row>
@@ -5801,15 +4805,15 @@
         <v>2182</v>
       </c>
       <c r="E34">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.90476190476190477</v>
       </c>
       <c r="F34">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.53796844181459569</v>
       </c>
       <c r="G34">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2202.9664631897517</v>
       </c>
       <c r="H34">
@@ -5826,9 +4830,11 @@
         <v>2182</v>
       </c>
       <c r="R34">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>2202.9664631897517</v>
       </c>
       <c r="S34">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3412.3720360916377</v>
       </c>
     </row>
@@ -5846,15 +4852,15 @@
         <v>2352</v>
       </c>
       <c r="E35">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.89947089947089942</v>
       </c>
       <c r="F35">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.57988165680473369</v>
       </c>
       <c r="G35">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2375</v>
       </c>
       <c r="H35">
@@ -5871,9 +4877,11 @@
         <v>2352</v>
       </c>
       <c r="R35">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>2375</v>
       </c>
       <c r="S35">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3440.6707362049656</v>
       </c>
     </row>
@@ -5891,15 +4899,15 @@
         <v>2504</v>
       </c>
       <c r="E36">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.80423280423280419</v>
       </c>
       <c r="F36">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.61735700197238663</v>
       </c>
       <c r="G36">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2547.0335368102483</v>
       </c>
       <c r="H36">
@@ -5916,9 +4924,11 @@
         <v>2504</v>
       </c>
       <c r="R36">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>2547.0335368102483</v>
       </c>
       <c r="S36">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3440.6707362049656</v>
       </c>
     </row>
@@ -5936,15 +4946,15 @@
         <v>2654</v>
       </c>
       <c r="E37">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.79365079365079361</v>
       </c>
       <c r="F37">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.6543392504930966</v>
       </c>
       <c r="G37">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2717.6521386148302</v>
       </c>
       <c r="H37">
@@ -5961,9 +4971,11 @@
         <v>2654</v>
       </c>
       <c r="R37">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>2717.6521386148302</v>
       </c>
       <c r="S37">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3412.3720360916377</v>
       </c>
     </row>
@@ -5981,15 +4993,15 @@
         <v>2843</v>
       </c>
       <c r="E38">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>1</v>
       </c>
       <c r="F38">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.70093688362919138</v>
       </c>
       <c r="G38">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>2885.4756871995464</v>
       </c>
       <c r="H38">
@@ -6006,9 +5018,11 @@
         <v>2843</v>
       </c>
       <c r="R38">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>2885.4756871995464</v>
       </c>
       <c r="S38">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3356.4709716943253</v>
       </c>
     </row>
@@ -6026,15 +5040,15 @@
         <v>3027</v>
       </c>
       <c r="E39">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.97354497354497349</v>
       </c>
       <c r="F39">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.74630177514792895</v>
       </c>
       <c r="G39">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3049.1922739680322</v>
       </c>
       <c r="H39">
@@ -6051,9 +5065,11 @@
         <v>3027</v>
       </c>
       <c r="R39">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>3049.1922739680322</v>
       </c>
       <c r="S39">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3274.3317353697148</v>
       </c>
     </row>
@@ -6071,15 +5087,15 @@
         <v>3170</v>
       </c>
       <c r="E40">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.75661375661375663</v>
       </c>
       <c r="F40">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.7815581854043393</v>
       </c>
       <c r="G40">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3207.5888261489577</v>
       </c>
       <c r="H40">
@@ -6096,9 +5112,11 @@
         <v>3170</v>
       </c>
       <c r="R40">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>3207.5888261489577</v>
       </c>
       <c r="S40">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3167.9310436185096</v>
       </c>
     </row>
@@ -6116,15 +5134,15 @@
         <v>3316</v>
       </c>
       <c r="E41">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.77248677248677244</v>
       </c>
       <c r="F41">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.81755424063116366</v>
       </c>
       <c r="G41">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3359.577780398798</v>
       </c>
       <c r="H41">
@@ -6141,9 +5159,11 @@
         <v>3316</v>
       </c>
       <c r="R41">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>3359.577780398798</v>
       </c>
       <c r="S41">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3039.7790849968078</v>
       </c>
     </row>
@@ -6161,15 +5181,15 @@
         <v>3475</v>
       </c>
       <c r="E42">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.84126984126984128</v>
       </c>
       <c r="F42">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.85675542406311633</v>
       </c>
       <c r="G42">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3504.2188384661317</v>
       </c>
       <c r="H42">
@@ -6186,9 +5206,11 @@
         <v>3475</v>
       </c>
       <c r="R42">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>3504.2188384661317</v>
       </c>
       <c r="S42">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2892.8211613466738</v>
       </c>
     </row>
@@ -6206,15 +5228,15 @@
         <v>3613</v>
       </c>
       <c r="E43">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.73015873015873012</v>
       </c>
       <c r="F43">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.89077909270216959</v>
       </c>
       <c r="G43">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3640.7351084264628</v>
       </c>
       <c r="H43">
@@ -6231,9 +5253,11 @@
         <v>3613</v>
       </c>
       <c r="R43">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>3640.7351084264628</v>
       </c>
       <c r="S43">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2730.325399206622</v>
       </c>
     </row>
@@ -6251,15 +5275,15 @@
         <v>3755</v>
       </c>
       <c r="E44">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.75132275132275128</v>
       </c>
       <c r="F44">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.92578895463510846</v>
       </c>
       <c r="G44">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3768.5232332026039</v>
       </c>
       <c r="H44">
@@ -6276,9 +5300,11 @@
         <v>3755</v>
       </c>
       <c r="R44">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>3768.5232332026039</v>
       </c>
       <c r="S44">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2555.7624955228221</v>
       </c>
     </row>
@@ -6296,15 +5322,15 @@
         <v>3877</v>
       </c>
       <c r="E45">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.64550264550264547</v>
       </c>
       <c r="F45">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.9558678500986193</v>
       </c>
       <c r="G45">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3887.1574153936176</v>
       </c>
       <c r="H45">
@@ -6321,9 +5347,11 @@
         <v>3877</v>
       </c>
       <c r="R45">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>3887.1574153936176</v>
       </c>
       <c r="S45">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2372.6836438202736</v>
       </c>
     </row>
@@ -6341,15 +5369,15 @@
         <v>3999</v>
       </c>
       <c r="E46">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.64550264550264547</v>
       </c>
       <c r="F46">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>0.98594674556213013</v>
       </c>
       <c r="G46">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>3996.3875438255795</v>
       </c>
       <c r="H46">
@@ -6366,9 +5394,11 @@
         <v>3999</v>
       </c>
       <c r="R46">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>3996.3875438255795</v>
       </c>
       <c r="S46">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2184.6025686392386</v>
       </c>
     </row>
@@ -6386,15 +5416,15 @@
         <v>4056</v>
       </c>
       <c r="E47">
-        <f>[1]!Table26[[#This Row],[New Deaths]]/MAX([1]!Table26[New Deaths])</f>
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
         <v>0.30158730158730157</v>
       </c>
       <c r="F47">
-        <f>[1]!Table26[[#This Row],[Running Total]]/MAX([1]!Table26[Running Total])</f>
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
         <v>1</v>
       </c>
       <c r="G47">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4096.1318945103394</v>
       </c>
       <c r="H47">
@@ -6411,9 +5441,11 @@
         <v>4056</v>
       </c>
       <c r="R47">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4096.1318945103394</v>
       </c>
       <c r="S47">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1994.8870136951973</v>
       </c>
     </row>
@@ -6424,8 +5456,16 @@
       <c r="B48">
         <v>46</v>
       </c>
+      <c r="E48">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G48">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4186.4651018128388</v>
       </c>
       <c r="H48">
@@ -6436,9 +5476,11 @@
         <v>43954</v>
       </c>
       <c r="R48">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4186.4651018128388</v>
       </c>
       <c r="S48">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1806.6641460499886</v>
       </c>
     </row>
@@ -6449,8 +5491,16 @@
       <c r="B49">
         <v>47</v>
       </c>
+      <c r="E49">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G49">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4267.602263685063</v>
       </c>
       <c r="H49">
@@ -6461,9 +5511,11 @@
         <v>43955</v>
       </c>
       <c r="R49">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4267.602263685063</v>
       </c>
       <c r="S49">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1622.7432374444834</v>
       </c>
     </row>
@@ -6474,8 +5526,16 @@
       <c r="B50">
         <v>48</v>
       </c>
+      <c r="E50">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G50">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4339.880151630472</v>
       </c>
       <c r="H50">
@@ -6486,9 +5546,11 @@
         <v>43956</v>
       </c>
       <c r="R50">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4339.880151630472</v>
       </c>
       <c r="S50">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1445.5577589081804</v>
       </c>
     </row>
@@ -6499,8 +5561,16 @@
       <c r="B51">
         <v>49</v>
       </c>
+      <c r="E51">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G51">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4403.7365402390569</v>
       </c>
       <c r="H51">
@@ -6511,9 +5581,11 @@
         <v>43957</v>
       </c>
       <c r="R51">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4403.7365402390569</v>
       </c>
       <c r="S51">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1277.1277721716979</v>
       </c>
     </row>
@@ -6524,8 +5596,16 @@
       <c r="B52">
         <v>50</v>
       </c>
+      <c r="E52">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G52">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4459.6886558109718</v>
       </c>
       <c r="H52">
@@ -6536,9 +5616,11 @@
         <v>43958</v>
       </c>
       <c r="R52">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4459.6886558109718</v>
       </c>
       <c r="S52">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1119.0423114382975</v>
       </c>
     </row>
@@ -6549,8 +5631,16 @@
       <c r="B53">
         <v>51</v>
       </c>
+      <c r="E53">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G53">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4508.3116757407624</v>
       </c>
       <c r="H53">
@@ -6561,9 +5651,11 @@
         <v>43959</v>
       </c>
       <c r="R53">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4508.3116757407624</v>
       </c>
       <c r="S53">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>972.46039859581288</v>
       </c>
     </row>
@@ -6574,8 +5666,16 @@
       <c r="B54">
         <v>52</v>
       </c>
+      <c r="E54">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G54">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4550.2180998549557</v>
       </c>
       <c r="H54">
@@ -6586,9 +5686,11 @@
         <v>43960</v>
       </c>
       <c r="R54">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4550.2180998549557</v>
       </c>
       <c r="S54">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>838.12848228386429</v>
       </c>
     </row>
@@ -6599,8 +5701,16 @@
       <c r="B55">
         <v>53</v>
       </c>
+      <c r="E55">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G55">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4586.0386735132643</v>
       </c>
       <c r="H55">
@@ -6611,9 +5721,11 @@
         <v>43961</v>
       </c>
       <c r="R55">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4586.0386735132643</v>
       </c>
       <c r="S55">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>716.41147316617207</v>
       </c>
     </row>
@@ -6624,8 +5736,16 @@
       <c r="B56">
         <v>54</v>
       </c>
+      <c r="E56">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G56">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4616.4053824553284</v>
       </c>
       <c r="H56">
@@ -6636,9 +5756,11 @@
         <v>43962</v>
       </c>
       <c r="R56">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4616.4053824553284</v>
       </c>
       <c r="S56">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>607.33417884128357</v>
       </c>
     </row>
@@ -6649,8 +5771,16 @@
       <c r="B57">
         <v>55</v>
       </c>
+      <c r="E57">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G57">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4641.9368732461489</v>
       </c>
       <c r="H57">
@@ -6661,9 +5791,11 @@
         <v>43963</v>
       </c>
       <c r="R57">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4641.9368732461489</v>
       </c>
       <c r="S57">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>510.62981581640997</v>
       </c>
     </row>
@@ -6674,8 +5806,16 @@
       <c r="B58">
         <v>56</v>
       </c>
+      <c r="E58">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G58">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4663.2264916951817</v>
       </c>
       <c r="H58">
@@ -6686,9 +5826,11 @@
         <v>43964</v>
       </c>
       <c r="R58">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4663.2264916951817</v>
       </c>
       <c r="S58">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>425.79236898065574</v>
       </c>
     </row>
@@ -6699,8 +5841,16 @@
       <c r="B59">
         <v>57</v>
       </c>
+      <c r="E59">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G59">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4680.8329838880854</v>
       </c>
       <c r="H59">
@@ -6711,9 +5861,11 @@
         <v>43965</v>
       </c>
       <c r="R59">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4680.8329838880854</v>
       </c>
       <c r="S59">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>352.12984385807431</v>
       </c>
     </row>
@@ -6724,8 +5876,16 @@
       <c r="B60">
         <v>58</v>
       </c>
+      <c r="E60">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G60">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4695.2737772915661</v>
       </c>
       <c r="H60">
@@ -6736,9 +5896,11 @@
         <v>43966</v>
       </c>
       <c r="R60">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4695.2737772915661</v>
       </c>
       <c r="S60">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>288.81586806961423</v>
       </c>
     </row>
@@ -6749,8 +5911,16 @@
       <c r="B61">
         <v>59</v>
       </c>
+      <c r="E61">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G61">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4707.0206571424833</v>
       </c>
       <c r="H61">
@@ -6761,9 +5931,11 @@
         <v>43967</v>
       </c>
       <c r="R61">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4707.0206571424833</v>
       </c>
       <c r="S61">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>234.93759701834279</v>
       </c>
     </row>
@@ -6774,8 +5946,16 @@
       <c r="B62">
         <v>60</v>
       </c>
+      <c r="E62">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G62">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4716.4975779999741</v>
       </c>
       <c r="H62">
@@ -6786,9 +5966,11 @@
         <v>43968</v>
       </c>
       <c r="R62">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4716.4975779999741</v>
       </c>
       <c r="S62">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>189.53841714981536</v>
       </c>
     </row>
@@ -6799,8 +5981,16 @@
       <c r="B63">
         <v>61</v>
       </c>
+      <c r="E63">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G63">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4724.080301773226</v>
       </c>
       <c r="H63">
@@ -6811,9 +6001,11 @@
         <v>43969</v>
       </c>
       <c r="R63">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4724.080301773226</v>
       </c>
       <c r="S63">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>151.65447546503856</v>
       </c>
     </row>
@@ -6824,8 +6016,16 @@
       <c r="B64">
         <v>62</v>
       </c>
+      <c r="E64">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G64">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4730.0975298275926</v>
       </c>
       <c r="H64">
@@ -6836,9 +6036,11 @@
         <v>43970</v>
       </c>
       <c r="R64">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4730.0975298275926</v>
       </c>
       <c r="S64">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>120.34456108733139</v>
       </c>
     </row>
@@ -6849,8 +6051,16 @@
       <c r="B65">
         <v>63</v>
       </c>
+      <c r="E65">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G65">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4734.8331947035704</v>
       </c>
       <c r="H65">
@@ -6861,9 +6071,11 @@
         <v>43971</v>
       </c>
       <c r="R65">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4734.8331947035704</v>
       </c>
       <c r="S65">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>94.713297519556363</v>
       </c>
     </row>
@@ -6874,21 +6086,31 @@
       <c r="B66">
         <v>64</v>
       </c>
+      <c r="E66">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G66">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4738.5295925171422</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H97" si="2">G66-G65</f>
+        <f t="shared" ref="H66:H74" si="2">G66-G65</f>
         <v>3.6963978135718207</v>
       </c>
       <c r="O66" s="1">
         <v>43972</v>
       </c>
       <c r="R66">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4738.5295925171422</v>
       </c>
       <c r="S66">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>73.927956271436415</v>
       </c>
     </row>
@@ -6899,8 +6121,16 @@
       <c r="B67">
         <v>65</v>
       </c>
+      <c r="E67">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G67">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4741.391065835136</v>
       </c>
       <c r="H67">
@@ -6911,9 +6141,11 @@
         <v>43973</v>
       </c>
       <c r="R67">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4741.391065835136</v>
       </c>
       <c r="S67">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>57.229466359876824</v>
       </c>
     </row>
@@ -6924,8 +6156,16 @@
       <c r="B68">
         <v>66</v>
       </c>
+      <c r="E68">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G68">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4743.5879843497569</v>
       </c>
       <c r="H68">
@@ -6936,9 +6176,11 @@
         <v>43974</v>
       </c>
       <c r="R68">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4743.5879843497569</v>
       </c>
       <c r="S68">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>43.938370292416948</v>
       </c>
     </row>
@@ -6949,8 +6191,16 @@
       <c r="B69">
         <v>67</v>
       </c>
+      <c r="E69">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G69">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4745.2608129651326</v>
       </c>
       <c r="H69">
@@ -6961,9 +6211,11 @@
         <v>43975</v>
       </c>
       <c r="R69">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4745.2608129651326</v>
       </c>
       <c r="S69">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>33.456572307513852</v>
       </c>
     </row>
@@ -6974,8 +6226,16 @@
       <c r="B70">
         <v>68</v>
       </c>
+      <c r="E70">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G70">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4746.524100468635</v>
       </c>
       <c r="H70">
@@ -6986,9 +6246,11 @@
         <v>43976</v>
       </c>
       <c r="R70">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4746.524100468635</v>
       </c>
       <c r="S70">
+        <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>25.265750070047943</v>
       </c>
     </row>
@@ -6999,8 +6261,16 @@
       <c r="B71">
         <v>69</v>
       </c>
+      <c r="E71">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G71">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4747.4702639938905</v>
       </c>
       <c r="H71">
@@ -7015,8 +6285,16 @@
       <c r="B72">
         <v>70</v>
       </c>
+      <c r="E72">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G72">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4748.1730829292883</v>
       </c>
       <c r="H72">
@@ -7031,8 +6309,16 @@
       <c r="B73">
         <v>71</v>
       </c>
+      <c r="E73">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G73">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4748.6908494380332</v>
       </c>
       <c r="H73">
@@ -7047,8 +6333,16 @@
       <c r="B74">
         <v>72</v>
       </c>
+      <c r="E74">
+        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
+        <v>0</v>
+      </c>
       <c r="G74">
-        <f>$K$4*NORMDIST([1]!Table26[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
         <v>4749.0691506260637</v>
       </c>
       <c r="H74">

--- a/MA case analysis.xlsx
+++ b/MA case analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mserviciosrc-my.sharepoint.com/personal/lmelahn_lcred_org/Documents/COVID/MA-Covid-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{57D028E9-32F3-A142-888D-E37C1EB3B3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5FB14D0-1F31-584D-BB49-97966D6F1B92}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{57D028E9-32F3-A142-888D-E37C1EB3B3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E39A1876-3DBD-D54E-9AA4-88C9BBC7DF37}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{53B553D5-63C9-1943-8F02-62576D22A04A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Date of Death</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Running Total</t>
-  </si>
-  <si>
-    <t>Deaths (normalized)</t>
-  </si>
-  <si>
-    <t>Running Total (normalized)</t>
   </si>
   <si>
     <t>Model (deaths)</t>
@@ -150,18 +144,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -267,7 +255,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Massachusetts!$Q$1</c:f>
+              <c:f>Massachusetts!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -298,7 +286,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Massachusetts!$O$2:$O$70</c:f>
+              <c:f>Massachusetts!$M$2:$M$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="69"/>
@@ -514,7 +502,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Massachusetts!$Q$2:$Q$70</c:f>
+              <c:f>Massachusetts!$O$2:$O$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -671,7 +659,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Massachusetts!$R$1</c:f>
+              <c:f>Massachusetts!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -694,7 +682,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Massachusetts!$O$2:$O$70</c:f>
+              <c:f>Massachusetts!$M$2:$M$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="69"/>
@@ -910,7 +898,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Massachusetts!$R$2:$R$70</c:f>
+              <c:f>Massachusetts!$P$2:$P$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -1136,7 +1124,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Massachusetts!$S$1</c:f>
+              <c:f>Massachusetts!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1159,7 +1147,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Massachusetts!$O$2:$O$70</c:f>
+              <c:f>Massachusetts!$M$2:$M$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="69"/>
@@ -1375,7 +1363,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Massachusetts!$S$2:$S$70</c:f>
+              <c:f>Massachusetts!$Q$2:$Q$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -1598,7 +1586,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Massachusetts!$P$1</c:f>
+              <c:f>Massachusetts!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1631,7 +1619,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Massachusetts!$O$2:$O$70</c:f>
+              <c:f>Massachusetts!$M$2:$M$70</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="69"/>
@@ -1847,7 +1835,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Massachusetts!$P$2:$P$70</c:f>
+              <c:f>Massachusetts!$N$2:$N$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -2785,13 +2773,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>901700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>577850</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
@@ -2825,24 +2813,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDEDC61A-DAAD-344B-A64E-DA3E1E2A3D1B}" name="Table1" displayName="Table1" ref="A1:H74" totalsRowShown="0">
-  <autoFilter ref="A1:H74" xr:uid="{9F5FAF62-E848-F54F-963B-0F29B33B7744}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{406E5C67-6DBF-2D4A-862E-59F357A3BC34}" name="Date of Death" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDEDC61A-DAAD-344B-A64E-DA3E1E2A3D1B}" name="Table1" displayName="Table1" ref="A1:F74" totalsRowShown="0">
+  <autoFilter ref="A1:F74" xr:uid="{9F5FAF62-E848-F54F-963B-0F29B33B7744}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{406E5C67-6DBF-2D4A-862E-59F357A3BC34}" name="Date of Death" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{C87E43E7-C161-A041-8A3A-FB6D2DB3CB30}" name="Time"/>
     <tableColumn id="3" xr3:uid="{C60420CB-D4C9-B24C-A088-DB19FA78F336}" name="New Deaths"/>
     <tableColumn id="4" xr3:uid="{11A4F42F-EFD9-6645-B6A9-D7706A134FA0}" name="Running Total"/>
-    <tableColumn id="5" xr3:uid="{E40C8084-3C05-7A4B-8262-0EBD2C4D0196}" name="Deaths (normalized)" dataDxfId="2">
-      <calculatedColumnFormula>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{DE2BC88E-C406-2548-B151-92BB5C26883B}" name="Model (deaths)" dataDxfId="2">
+      <calculatedColumnFormula>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DD75D7D1-AF29-894F-82B1-4172DC3A9275}" name="Running Total (normalized)" dataDxfId="1">
-      <calculatedColumnFormula>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{DE2BC88E-C406-2548-B151-92BB5C26883B}" name="Model (deaths)" dataDxfId="0">
-      <calculatedColumnFormula>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{F8EE4233-E2D0-4748-AF5F-505A7DAF2B2D}" name="Model (deaths/day)" dataDxfId="4">
-      <calculatedColumnFormula>G2-G1</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{F8EE4233-E2D0-4748-AF5F-505A7DAF2B2D}" name="Model (deaths/day)" dataDxfId="1">
+      <calculatedColumnFormula>E2-E1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2850,8 +2832,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B1C575D-43F6-924C-9F38-628E176E8842}" name="Table2" displayName="Table2" ref="J1:L6" totalsRowShown="0">
-  <autoFilter ref="J1:L6" xr:uid="{DE297445-6B90-674C-97B2-6539F8CED9C5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B1C575D-43F6-924C-9F38-628E176E8842}" name="Table2" displayName="Table2" ref="H1:J6" totalsRowShown="0">
+  <autoFilter ref="H1:J6" xr:uid="{DE297445-6B90-674C-97B2-6539F8CED9C5}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{63222C2C-B819-BF4A-BA1A-ADE530C34EB3}" name="Simple Model"/>
     <tableColumn id="2" xr3:uid="{37CD1CE7-957E-FE4F-9B73-EEACEBDD1983}" name="Value"/>
@@ -2862,10 +2844,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4304B0B4-4584-1042-B599-94E8681E1826}" name="Table3" displayName="Table3" ref="O1:S70" totalsRowShown="0">
-  <autoFilter ref="O1:S70" xr:uid="{2EE0D2BC-E15D-7A42-843A-5D5504704ACD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4304B0B4-4584-1042-B599-94E8681E1826}" name="Table3" displayName="Table3" ref="M1:Q70" totalsRowShown="0">
+  <autoFilter ref="M1:Q70" xr:uid="{2EE0D2BC-E15D-7A42-843A-5D5504704ACD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{19A56E58-C143-D642-AF7B-876C7956CBF2}" name="Date" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{19A56E58-C143-D642-AF7B-876C7956CBF2}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{C8EAD9F4-C4ED-EE49-9DB8-25A845742D11}" name="Deaths/day * 20"/>
     <tableColumn id="3" xr3:uid="{90083916-7BA6-A14C-817D-2ADAE0D4BB0A}" name="Total Deaths"/>
     <tableColumn id="4" xr3:uid="{9D2EAB4E-D3A4-7840-AEA4-406E756DDAC1}" name="Deaths Model">
@@ -3174,10 +3156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039AF893-0F3E-7648-8E22-05B45FBF5E08}">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S70"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3185,19 +3167,17 @@
     <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1"/>
-    <col min="16" max="16" width="17.1640625" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="17.1640625" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3216,22 +3196,22 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
       <c r="P1" t="s">
@@ -3240,14 +3220,8 @@
       <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43908</v>
       </c>
@@ -3261,44 +3235,36 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>1.0582010582010581E-2</v>
-      </c>
-      <c r="F2">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>4.9309664694280081E-4</v>
-      </c>
-      <c r="G2">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
         <v>6.4120156502429433</v>
       </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>33</v>
+      </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="1">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1">
         <f>Table1[[#This Row],[Date of Death]]</f>
         <v>43908</v>
       </c>
-      <c r="P2">
+      <c r="N2">
         <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>40</v>
       </c>
-      <c r="Q2">
+      <c r="O2">
         <f>Table1[[#This Row],[Running Total]]</f>
         <v>2</v>
       </c>
-      <c r="R2">
+      <c r="P2">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>6.4120156502429433</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43909</v>
       </c>
@@ -3312,49 +3278,41 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>5.2910052910052907E-3</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>8.6089341648644506</v>
       </c>
       <c r="F3">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>7.3964497041420117E-4</v>
-      </c>
-      <c r="G3">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f t="shared" ref="F3:F33" si="0">E3-E2</f>
+        <v>2.1969185146215073</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1">
+        <v>43909</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>8.6089341648644506</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H33" si="0">G3-G2</f>
-        <v>2.1969185146215073</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="1">
-        <v>43909</v>
-      </c>
-      <c r="P3">
-        <v>20</v>
-      </c>
       <c r="Q3">
-        <v>3</v>
-      </c>
-      <c r="R3">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>8.6089341648644506</v>
-      </c>
-      <c r="S3">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>43.93837029243015</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43910</v>
       </c>
@@ -3368,49 +3326,41 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>1.0582010582010581E-2</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>11.470407482857341</v>
       </c>
       <c r="F4">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>1.232741617357002E-3</v>
-      </c>
-      <c r="G4">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>11.470407482857341</v>
-      </c>
-      <c r="H4">
         <f t="shared" si="0"/>
         <v>2.8614733179928908</v>
       </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>4750</v>
+      </c>
       <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>4750</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="1">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1">
         <v>43910</v>
       </c>
+      <c r="N4">
+        <v>40</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
       <c r="P4">
-        <v>40</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>11.470407482857341</v>
       </c>
       <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>11.470407482857341</v>
-      </c>
-      <c r="S4">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>57.229466359857817</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43911</v>
       </c>
@@ -3424,49 +3374,41 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>1.0582010582010581E-2</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>15.16680529642926</v>
       </c>
       <c r="F5">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>1.7258382642998027E-3</v>
-      </c>
-      <c r="G5">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>15.16680529642926</v>
-      </c>
-      <c r="H5">
         <f t="shared" si="0"/>
         <v>3.6963978135719184</v>
       </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="1">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1">
         <v>43911</v>
       </c>
+      <c r="N5">
+        <v>40</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
       <c r="P5">
-        <v>40</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>15.16680529642926</v>
       </c>
       <c r="Q5">
-        <v>7</v>
-      </c>
-      <c r="R5">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>15.16680529642926</v>
-      </c>
-      <c r="S5">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>73.927956271438376</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43912</v>
       </c>
@@ -3480,49 +3422,41 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>2.1164021164021163E-2</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>19.90247017240744</v>
       </c>
       <c r="F6">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>2.7120315581854043E-3</v>
-      </c>
-      <c r="G6">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>19.90247017240744</v>
-      </c>
-      <c r="H6">
         <f t="shared" si="0"/>
         <v>4.7356648759781805</v>
       </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
       <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="1">
+        <v>17</v>
+      </c>
+      <c r="M6" s="1">
         <v>43912</v>
       </c>
+      <c r="N6">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>11</v>
+      </c>
       <c r="P6">
-        <v>80</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>19.90247017240744</v>
       </c>
       <c r="Q6">
-        <v>11</v>
-      </c>
-      <c r="R6">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>19.90247017240744</v>
-      </c>
-      <c r="S6">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>94.713297519563611</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43913</v>
       </c>
@@ -3536,40 +3470,32 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>3.1746031746031744E-2</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>25.919698226774216</v>
       </c>
       <c r="F7">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>4.1913214990138064E-3</v>
-      </c>
-      <c r="G7">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>25.919698226774216</v>
-      </c>
-      <c r="H7">
         <f t="shared" si="0"/>
         <v>6.0172280543667753</v>
       </c>
-      <c r="O7" s="1">
+      <c r="M7" s="1">
         <v>43913</v>
       </c>
+      <c r="N7">
+        <v>120</v>
+      </c>
+      <c r="O7">
+        <v>17</v>
+      </c>
       <c r="P7">
-        <v>120</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>25.919698226774216</v>
       </c>
       <c r="Q7">
-        <v>17</v>
-      </c>
-      <c r="R7">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>25.919698226774216</v>
-      </c>
-      <c r="S7">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>120.34456108733551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43914</v>
       </c>
@@ -3583,40 +3509,32 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>4.7619047619047616E-2</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>33.502422000026378</v>
       </c>
       <c r="F8">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>6.41025641025641E-3</v>
-      </c>
-      <c r="G8">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>33.502422000026378</v>
-      </c>
-      <c r="H8">
         <f t="shared" si="0"/>
         <v>7.5827237732521624</v>
       </c>
-      <c r="O8" s="1">
+      <c r="M8" s="1">
         <v>43914</v>
       </c>
+      <c r="N8">
+        <v>180</v>
+      </c>
+      <c r="O8">
+        <v>26</v>
+      </c>
       <c r="P8">
-        <v>180</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>33.502422000026378</v>
       </c>
       <c r="Q8">
-        <v>26</v>
-      </c>
-      <c r="R8">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>33.502422000026378</v>
-      </c>
-      <c r="S8">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>151.65447546504325</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43915</v>
       </c>
@@ -3630,40 +3548,32 @@
         <v>33</v>
       </c>
       <c r="E9">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>3.7037037037037035E-2</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>42.979342857516379</v>
       </c>
       <c r="F9">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>8.1360946745562129E-3</v>
-      </c>
-      <c r="G9">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>42.979342857516379</v>
-      </c>
-      <c r="H9">
         <f t="shared" si="0"/>
         <v>9.4769208574900006</v>
       </c>
-      <c r="O9" s="1">
+      <c r="M9" s="1">
         <v>43915</v>
       </c>
+      <c r="N9">
+        <v>140</v>
+      </c>
+      <c r="O9">
+        <v>33</v>
+      </c>
       <c r="P9">
-        <v>140</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>42.979342857516379</v>
       </c>
       <c r="Q9">
-        <v>33</v>
-      </c>
-      <c r="R9">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>42.979342857516379</v>
-      </c>
-      <c r="S9">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>189.53841714980001</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43916</v>
       </c>
@@ -3677,40 +3587,32 @@
         <v>42</v>
       </c>
       <c r="E10">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>4.7619047619047616E-2</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>54.726222708434371</v>
       </c>
       <c r="F10">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>1.0355029585798817E-2</v>
-      </c>
-      <c r="G10">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>54.726222708434371</v>
-      </c>
-      <c r="H10">
         <f t="shared" si="0"/>
         <v>11.746879850917992</v>
       </c>
-      <c r="O10" s="1">
+      <c r="M10" s="1">
         <v>43916</v>
       </c>
+      <c r="N10">
+        <v>180</v>
+      </c>
+      <c r="O10">
+        <v>42</v>
+      </c>
       <c r="P10">
-        <v>180</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>54.726222708434371</v>
       </c>
       <c r="Q10">
-        <v>42</v>
-      </c>
-      <c r="R10">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>54.726222708434371</v>
-      </c>
-      <c r="S10">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>234.93759701835984</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43917</v>
       </c>
@@ -3724,40 +3626,32 @@
         <v>57</v>
       </c>
       <c r="E11">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>7.9365079365079361E-2</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>69.167016111914492</v>
       </c>
       <c r="F11">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>1.4053254437869823E-2</v>
-      </c>
-      <c r="G11">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>69.167016111914492</v>
-      </c>
-      <c r="H11">
         <f t="shared" si="0"/>
         <v>14.440793403480122</v>
       </c>
-      <c r="O11" s="1">
+      <c r="M11" s="1">
         <v>43917</v>
       </c>
+      <c r="N11">
+        <v>300</v>
+      </c>
+      <c r="O11">
+        <v>57</v>
+      </c>
       <c r="P11">
-        <v>300</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>69.167016111914492</v>
       </c>
       <c r="Q11">
-        <v>57</v>
-      </c>
-      <c r="R11">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>69.167016111914492</v>
-      </c>
-      <c r="S11">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>288.8158680696024</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43918</v>
       </c>
@@ -3771,40 +3665,32 @@
         <v>72</v>
       </c>
       <c r="E12">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>7.9365079365079361E-2</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>86.77350830481808</v>
       </c>
       <c r="F12">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>1.7751479289940829E-2</v>
-      </c>
-      <c r="G12">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>86.77350830481808</v>
-      </c>
-      <c r="H12">
         <f t="shared" si="0"/>
         <v>17.606492192903588</v>
       </c>
-      <c r="O12" s="1">
+      <c r="M12" s="1">
         <v>43918</v>
       </c>
+      <c r="N12">
+        <v>300</v>
+      </c>
+      <c r="O12">
+        <v>72</v>
+      </c>
       <c r="P12">
-        <v>300</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>86.77350830481808</v>
       </c>
       <c r="Q12">
-        <v>72</v>
-      </c>
-      <c r="R12">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>86.77350830481808</v>
-      </c>
-      <c r="S12">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>352.12984385807175</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43919</v>
       </c>
@@ -3818,40 +3704,32 @@
         <v>99</v>
       </c>
       <c r="E13">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.14285714285714285</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>108.06312675385117</v>
       </c>
       <c r="F13">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>2.4408284023668639E-2</v>
-      </c>
-      <c r="G13">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>108.06312675385117</v>
-      </c>
-      <c r="H13">
         <f t="shared" si="0"/>
         <v>21.289618449033085</v>
       </c>
-      <c r="O13" s="1">
+      <c r="M13" s="1">
         <v>43919</v>
       </c>
+      <c r="N13">
+        <v>540</v>
+      </c>
+      <c r="O13">
+        <v>99</v>
+      </c>
       <c r="P13">
-        <v>540</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>108.06312675385117</v>
       </c>
       <c r="Q13">
-        <v>99</v>
-      </c>
-      <c r="R13">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>108.06312675385117</v>
-      </c>
-      <c r="S13">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>425.79236898066171</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43920</v>
       </c>
@@ -3865,40 +3743,32 @@
         <v>125</v>
       </c>
       <c r="E14">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.13756613756613756</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>133.59461754467122</v>
       </c>
       <c r="F14">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>3.0818540433925051E-2</v>
-      </c>
-      <c r="G14">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>133.59461754467122</v>
-      </c>
-      <c r="H14">
         <f t="shared" si="0"/>
         <v>25.531490790820058</v>
       </c>
-      <c r="O14" s="1">
+      <c r="M14" s="1">
         <v>43920</v>
       </c>
+      <c r="N14">
+        <v>520</v>
+      </c>
+      <c r="O14">
+        <v>125</v>
+      </c>
       <c r="P14">
-        <v>520</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>133.59461754467122</v>
       </c>
       <c r="Q14">
-        <v>125</v>
-      </c>
-      <c r="R14">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>133.59461754467122</v>
-      </c>
-      <c r="S14">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>510.62981581640116</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43921</v>
       </c>
@@ -3912,40 +3782,32 @@
         <v>154</v>
       </c>
       <c r="E15">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.15343915343915343</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>163.96132648673623</v>
       </c>
       <c r="F15">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>3.796844181459566E-2</v>
-      </c>
-      <c r="G15">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>163.96132648673623</v>
-      </c>
-      <c r="H15">
         <f t="shared" si="0"/>
         <v>30.366708942065003</v>
       </c>
-      <c r="O15" s="1">
+      <c r="M15" s="1">
         <v>43921</v>
       </c>
+      <c r="N15">
+        <v>580</v>
+      </c>
+      <c r="O15">
+        <v>154</v>
+      </c>
       <c r="P15">
-        <v>580</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>163.96132648673623</v>
       </c>
       <c r="Q15">
-        <v>154</v>
-      </c>
-      <c r="R15">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>163.96132648673623</v>
-      </c>
-      <c r="S15">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>607.33417884130006</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43922</v>
       </c>
@@ -3959,40 +3821,32 @@
         <v>189</v>
       </c>
       <c r="E16">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.18518518518518517</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>199.78190014504457</v>
       </c>
       <c r="F16">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>4.6597633136094677E-2</v>
-      </c>
-      <c r="G16">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>199.78190014504457</v>
-      </c>
-      <c r="H16">
         <f t="shared" si="0"/>
         <v>35.820573658308348</v>
       </c>
-      <c r="O16" s="1">
+      <c r="M16" s="1">
         <v>43922</v>
       </c>
+      <c r="N16">
+        <v>700</v>
+      </c>
+      <c r="O16">
+        <v>189</v>
+      </c>
       <c r="P16">
-        <v>700</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>199.78190014504457</v>
       </c>
       <c r="Q16">
-        <v>189</v>
-      </c>
-      <c r="R16">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>199.78190014504457</v>
-      </c>
-      <c r="S16">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>716.41147316616696</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43923</v>
       </c>
@@ -4006,40 +3860,32 @@
         <v>231</v>
       </c>
       <c r="E17">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.22222222222222221</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>241.68832425923688</v>
       </c>
       <c r="F17">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>5.6952662721893491E-2</v>
-      </c>
-      <c r="G17">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>241.68832425923688</v>
-      </c>
-      <c r="H17">
         <f t="shared" si="0"/>
         <v>41.906424114192305</v>
       </c>
-      <c r="O17" s="1">
+      <c r="M17" s="1">
         <v>43923</v>
       </c>
+      <c r="N17">
+        <v>840</v>
+      </c>
+      <c r="O17">
+        <v>231</v>
+      </c>
       <c r="P17">
-        <v>840</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>241.68832425923688</v>
       </c>
       <c r="Q17">
-        <v>231</v>
-      </c>
-      <c r="R17">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>241.68832425923688</v>
-      </c>
-      <c r="S17">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>838.1284822838461</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43924</v>
       </c>
@@ -4053,40 +3899,32 @@
         <v>267</v>
       </c>
       <c r="E18">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.19047619047619047</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>290.31134418902798</v>
       </c>
       <c r="F18">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>6.5828402366863908E-2</v>
-      </c>
-      <c r="G18">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>290.31134418902798</v>
-      </c>
-      <c r="H18">
         <f t="shared" si="0"/>
         <v>48.623019929791099</v>
       </c>
-      <c r="O18" s="1">
+      <c r="M18" s="1">
         <v>43924</v>
       </c>
+      <c r="N18">
+        <v>720</v>
+      </c>
+      <c r="O18">
+        <v>267</v>
+      </c>
       <c r="P18">
-        <v>720</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>290.31134418902798</v>
       </c>
       <c r="Q18">
-        <v>267</v>
-      </c>
-      <c r="R18">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>290.31134418902798</v>
-      </c>
-      <c r="S18">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>972.46039859582197</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43925</v>
       </c>
@@ -4100,40 +3938,32 @@
         <v>306</v>
       </c>
       <c r="E19">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.20634920634920634</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>346.26345976094302</v>
       </c>
       <c r="F19">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>7.5443786982248517E-2</v>
-      </c>
-      <c r="G19">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>346.26345976094302</v>
-      </c>
-      <c r="H19">
         <f t="shared" si="0"/>
         <v>55.952115571915044</v>
       </c>
-      <c r="O19" s="1">
+      <c r="M19" s="1">
         <v>43925</v>
       </c>
+      <c r="N19">
+        <v>780</v>
+      </c>
+      <c r="O19">
+        <v>306</v>
+      </c>
       <c r="P19">
-        <v>780</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>346.26345976094302</v>
       </c>
       <c r="Q19">
-        <v>306</v>
-      </c>
-      <c r="R19">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>346.26345976094302</v>
-      </c>
-      <c r="S19">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1119.0423114383009</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43926</v>
       </c>
@@ -4147,40 +3977,32 @@
         <v>373</v>
       </c>
       <c r="E20">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.35449735449735448</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>410.11984836952757</v>
       </c>
       <c r="F20">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>9.1962524654832345E-2</v>
-      </c>
-      <c r="G20">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>410.11984836952757</v>
-      </c>
-      <c r="H20">
         <f t="shared" si="0"/>
         <v>63.856388608584552</v>
       </c>
-      <c r="O20" s="1">
+      <c r="M20" s="1">
         <v>43926</v>
       </c>
+      <c r="N20">
+        <v>1340</v>
+      </c>
+      <c r="O20">
+        <v>373</v>
+      </c>
       <c r="P20">
-        <v>1340</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>410.11984836952757</v>
       </c>
       <c r="Q20">
-        <v>373</v>
-      </c>
-      <c r="R20">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>410.11984836952757</v>
-      </c>
-      <c r="S20">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1277.127772171691</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43927</v>
       </c>
@@ -4194,40 +4016,32 @@
         <v>452</v>
       </c>
       <c r="E21">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.41798941798941797</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>482.39773631493733</v>
       </c>
       <c r="F21">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.11143984220907298</v>
-      </c>
-      <c r="G21">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>482.39773631493733</v>
-      </c>
-      <c r="H21">
         <f t="shared" si="0"/>
         <v>72.277887945409759</v>
       </c>
-      <c r="O21" s="1">
+      <c r="M21" s="1">
         <v>43927</v>
       </c>
+      <c r="N21">
+        <v>1580</v>
+      </c>
+      <c r="O21">
+        <v>452</v>
+      </c>
       <c r="P21">
-        <v>1580</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>482.39773631493733</v>
       </c>
       <c r="Q21">
-        <v>452</v>
-      </c>
-      <c r="R21">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>482.39773631493733</v>
-      </c>
-      <c r="S21">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1445.5577589081952</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43928</v>
       </c>
@@ -4241,40 +4055,32 @@
         <v>519</v>
       </c>
       <c r="E22">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.35449735449735448</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>563.53489818716093</v>
       </c>
       <c r="F22">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.12795857988165679</v>
-      </c>
-      <c r="G22">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>563.53489818716093</v>
-      </c>
-      <c r="H22">
         <f t="shared" si="0"/>
         <v>81.137161872223601</v>
       </c>
-      <c r="O22" s="1">
+      <c r="M22" s="1">
         <v>43928</v>
       </c>
+      <c r="N22">
+        <v>1340</v>
+      </c>
+      <c r="O22">
+        <v>519</v>
+      </c>
       <c r="P22">
-        <v>1340</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>563.53489818716093</v>
       </c>
       <c r="Q22">
-        <v>519</v>
-      </c>
-      <c r="R22">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>563.53489818716093</v>
-      </c>
-      <c r="S22">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1622.743237444472</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43929</v>
       </c>
@@ -4288,40 +4094,32 @@
         <v>619</v>
       </c>
       <c r="E23">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.52910052910052907</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>653.86810548966105</v>
       </c>
       <c r="F23">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.15261341222879685</v>
-      </c>
-      <c r="G23">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>653.86810548966105</v>
-      </c>
-      <c r="H23">
         <f t="shared" si="0"/>
         <v>90.333207302500114</v>
       </c>
-      <c r="O23" s="1">
+      <c r="M23" s="1">
         <v>43929</v>
       </c>
+      <c r="N23">
+        <v>2000</v>
+      </c>
+      <c r="O23">
+        <v>619</v>
+      </c>
       <c r="P23">
-        <v>2000</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>653.86810548966105</v>
       </c>
       <c r="Q23">
-        <v>619</v>
-      </c>
-      <c r="R23">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>653.86810548966105</v>
-      </c>
-      <c r="S23">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1806.6641460500023</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43930</v>
       </c>
@@ -4335,40 +4133,32 @@
         <v>731</v>
       </c>
       <c r="E24">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.59259259259259256</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>753.61245617442069</v>
       </c>
       <c r="F24">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.18022682445759369</v>
-      </c>
-      <c r="G24">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>753.61245617442069</v>
-      </c>
-      <c r="H24">
         <f t="shared" si="0"/>
         <v>99.744350684759638</v>
       </c>
-      <c r="O24" s="1">
+      <c r="M24" s="1">
         <v>43930</v>
       </c>
+      <c r="N24">
+        <v>2240</v>
+      </c>
+      <c r="O24">
+        <v>731</v>
+      </c>
       <c r="P24">
-        <v>2240</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>753.61245617442069</v>
       </c>
       <c r="Q24">
-        <v>731</v>
-      </c>
-      <c r="R24">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>753.61245617442069</v>
-      </c>
-      <c r="S24">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1994.8870136951928</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43931</v>
       </c>
@@ -4382,40 +4172,32 @@
         <v>836</v>
       </c>
       <c r="E25">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.55555555555555558</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>862.8425846063825</v>
       </c>
       <c r="F25">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.20611439842209073</v>
-      </c>
-      <c r="G25">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>862.8425846063825</v>
-      </c>
-      <c r="H25">
         <f t="shared" si="0"/>
         <v>109.23012843196182</v>
       </c>
-      <c r="O25" s="1">
+      <c r="M25" s="1">
         <v>43931</v>
       </c>
+      <c r="N25">
+        <v>2100</v>
+      </c>
+      <c r="O25">
+        <v>836</v>
+      </c>
       <c r="P25">
-        <v>2100</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>862.8425846063825</v>
       </c>
       <c r="Q25">
-        <v>836</v>
-      </c>
-      <c r="R25">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>862.8425846063825</v>
-      </c>
-      <c r="S25">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2184.6025686392363</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43932</v>
       </c>
@@ -4429,40 +4211,32 @@
         <v>953</v>
       </c>
       <c r="E26">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.61904761904761907</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>981.47676679739618</v>
       </c>
       <c r="F26">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.23496055226824458</v>
-      </c>
-      <c r="G26">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>981.47676679739618</v>
-      </c>
-      <c r="H26">
         <f t="shared" si="0"/>
         <v>118.63418219101368</v>
       </c>
-      <c r="O26" s="1">
+      <c r="M26" s="1">
         <v>43932</v>
       </c>
+      <c r="N26">
+        <v>2340</v>
+      </c>
+      <c r="O26">
+        <v>953</v>
+      </c>
       <c r="P26">
-        <v>2340</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>981.47676679739618</v>
       </c>
       <c r="Q26">
-        <v>953</v>
-      </c>
-      <c r="R26">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>981.47676679739618</v>
-      </c>
-      <c r="S26">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2372.6836438202736</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43933</v>
       </c>
@@ -4476,40 +4250,32 @@
         <v>1064</v>
       </c>
       <c r="E27">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.58730158730158732</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>1109.2648915735372</v>
       </c>
       <c r="F27">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.26232741617357003</v>
-      </c>
-      <c r="G27">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>1109.2648915735372</v>
-      </c>
-      <c r="H27">
         <f t="shared" si="0"/>
         <v>127.78812477614099</v>
       </c>
-      <c r="O27" s="1">
+      <c r="M27" s="1">
         <v>43933</v>
       </c>
+      <c r="N27">
+        <v>2220</v>
+      </c>
+      <c r="O27">
+        <v>1064</v>
+      </c>
       <c r="P27">
-        <v>2220</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>1109.2648915735372</v>
       </c>
       <c r="Q27">
-        <v>1064</v>
-      </c>
-      <c r="R27">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1109.2648915735372</v>
-      </c>
-      <c r="S27">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2555.7624955228198</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43934</v>
       </c>
@@ -4523,40 +4289,32 @@
         <v>1222</v>
       </c>
       <c r="E28">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.83597883597883593</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>1245.781161533868</v>
       </c>
       <c r="F28">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.30128205128205127</v>
-      </c>
-      <c r="G28">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>1245.781161533868</v>
-      </c>
-      <c r="H28">
         <f t="shared" si="0"/>
         <v>136.51626996033087</v>
       </c>
-      <c r="O28" s="1">
+      <c r="M28" s="1">
         <v>43934</v>
       </c>
+      <c r="N28">
+        <v>3160</v>
+      </c>
+      <c r="O28">
+        <v>1222</v>
+      </c>
       <c r="P28">
-        <v>3160</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>1245.781161533868</v>
       </c>
       <c r="Q28">
-        <v>1222</v>
-      </c>
-      <c r="R28">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1245.781161533868</v>
-      </c>
-      <c r="S28">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2730.3253992066175</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43935</v>
       </c>
@@ -4570,40 +4328,32 @@
         <v>1341</v>
       </c>
       <c r="E29">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.62962962962962965</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>1390.422219601202</v>
       </c>
       <c r="F29">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.33062130177514792</v>
-      </c>
-      <c r="G29">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>1390.422219601202</v>
-      </c>
-      <c r="H29">
         <f t="shared" si="0"/>
         <v>144.64105806733392</v>
       </c>
-      <c r="O29" s="1">
+      <c r="M29" s="1">
         <v>43935</v>
       </c>
+      <c r="N29">
+        <v>2380</v>
+      </c>
+      <c r="O29">
+        <v>1341</v>
+      </c>
       <c r="P29">
-        <v>2380</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>1390.422219601202</v>
       </c>
       <c r="Q29">
-        <v>1341</v>
-      </c>
-      <c r="R29">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1390.422219601202</v>
-      </c>
-      <c r="S29">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2892.8211613466783</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43936</v>
       </c>
@@ -4617,40 +4367,32 @@
         <v>1516</v>
       </c>
       <c r="E30">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.92592592592592593</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>1542.4111738510423</v>
       </c>
       <c r="F30">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.37376725838264302</v>
-      </c>
-      <c r="G30">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>1542.4111738510423</v>
-      </c>
-      <c r="H30">
         <f t="shared" si="0"/>
         <v>151.98895424984039</v>
       </c>
-      <c r="O30" s="1">
+      <c r="M30" s="1">
         <v>43936</v>
       </c>
+      <c r="N30">
+        <v>3500</v>
+      </c>
+      <c r="O30">
+        <v>1516</v>
+      </c>
       <c r="P30">
-        <v>3500</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>1542.4111738510423</v>
       </c>
       <c r="Q30">
-        <v>1516</v>
-      </c>
-      <c r="R30">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1542.4111738510423</v>
-      </c>
-      <c r="S30">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3039.7790849968078</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43937</v>
       </c>
@@ -4664,40 +4406,32 @@
         <v>1683</v>
       </c>
       <c r="E31">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.8835978835978836</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>1700.8077260319676</v>
       </c>
       <c r="F31">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.41494082840236685</v>
-      </c>
-      <c r="G31">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>1700.8077260319676</v>
-      </c>
-      <c r="H31">
         <f t="shared" si="0"/>
         <v>158.39655218092526</v>
       </c>
-      <c r="O31" s="1">
+      <c r="M31" s="1">
         <v>43937</v>
       </c>
+      <c r="N31">
+        <v>3340</v>
+      </c>
+      <c r="O31">
+        <v>1683</v>
+      </c>
       <c r="P31">
-        <v>3340</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>1700.8077260319676</v>
       </c>
       <c r="Q31">
-        <v>1683</v>
-      </c>
-      <c r="R31">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1700.8077260319676</v>
-      </c>
-      <c r="S31">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3167.9310436185051</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43938</v>
       </c>
@@ -4711,40 +4445,32 @@
         <v>1845</v>
       </c>
       <c r="E32">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.8571428571428571</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>1864.5243128004536</v>
       </c>
       <c r="F32">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.45488165680473375</v>
-      </c>
-      <c r="G32">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>1864.5243128004536</v>
-      </c>
-      <c r="H32">
         <f t="shared" si="0"/>
         <v>163.71658676848597</v>
       </c>
-      <c r="O32" s="1">
+      <c r="M32" s="1">
         <v>43938</v>
       </c>
+      <c r="N32">
+        <v>3240</v>
+      </c>
+      <c r="O32">
+        <v>1845</v>
+      </c>
       <c r="P32">
-        <v>3240</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>1864.5243128004536</v>
       </c>
       <c r="Q32">
-        <v>1845</v>
-      </c>
-      <c r="R32">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1864.5243128004536</v>
-      </c>
-      <c r="S32">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3274.3317353697194</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43939</v>
       </c>
@@ -4758,40 +4484,32 @@
         <v>2011</v>
       </c>
       <c r="E33">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.87830687830687826</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>2032.3478613851698</v>
       </c>
       <c r="F33">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.4958086785009862</v>
-      </c>
-      <c r="G33">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>2032.3478613851698</v>
-      </c>
-      <c r="H33">
         <f t="shared" si="0"/>
         <v>167.82354858471626</v>
       </c>
-      <c r="O33" s="1">
+      <c r="M33" s="1">
         <v>43939</v>
       </c>
+      <c r="N33">
+        <v>3320</v>
+      </c>
+      <c r="O33">
+        <v>2011</v>
+      </c>
       <c r="P33">
-        <v>3320</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>2032.3478613851698</v>
       </c>
       <c r="Q33">
-        <v>2011</v>
-      </c>
-      <c r="R33">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2032.3478613851698</v>
-      </c>
-      <c r="S33">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3356.4709716943253</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43940</v>
       </c>
@@ -4805,40 +4523,32 @@
         <v>2182</v>
       </c>
       <c r="E34">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.90476190476190477</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>2202.9664631897517</v>
       </c>
       <c r="F34">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.53796844181459569</v>
-      </c>
-      <c r="G34">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f t="shared" ref="F34:F65" si="1">E34-E33</f>
+        <v>170.61860180458189</v>
+      </c>
+      <c r="M34" s="1">
+        <v>43940</v>
+      </c>
+      <c r="N34">
+        <v>3420</v>
+      </c>
+      <c r="O34">
+        <v>2182</v>
+      </c>
+      <c r="P34">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>2202.9664631897517</v>
       </c>
-      <c r="H34">
-        <f t="shared" ref="H34:H65" si="1">G34-G33</f>
-        <v>170.61860180458189</v>
-      </c>
-      <c r="O34" s="1">
-        <v>43940</v>
-      </c>
-      <c r="P34">
-        <v>3420</v>
-      </c>
       <c r="Q34">
-        <v>2182</v>
-      </c>
-      <c r="R34">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2202.9664631897517</v>
-      </c>
-      <c r="S34">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3412.3720360916377</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43941</v>
       </c>
@@ -4852,40 +4562,32 @@
         <v>2352</v>
       </c>
       <c r="E35">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.89947089947089942</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>2375</v>
       </c>
       <c r="F35">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.57988165680473369</v>
-      </c>
-      <c r="G35">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>2375</v>
-      </c>
-      <c r="H35">
         <f t="shared" si="1"/>
         <v>172.03353681024828</v>
       </c>
-      <c r="O35" s="1">
+      <c r="M35" s="1">
         <v>43941</v>
       </c>
+      <c r="N35">
+        <v>3400</v>
+      </c>
+      <c r="O35">
+        <v>2352</v>
+      </c>
       <c r="P35">
-        <v>3400</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>2375</v>
       </c>
       <c r="Q35">
-        <v>2352</v>
-      </c>
-      <c r="R35">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2375</v>
-      </c>
-      <c r="S35">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3440.6707362049656</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43942</v>
       </c>
@@ -4899,40 +4601,32 @@
         <v>2504</v>
       </c>
       <c r="E36">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.80423280423280419</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>2547.0335368102483</v>
       </c>
       <c r="F36">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.61735700197238663</v>
-      </c>
-      <c r="G36">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>2547.0335368102483</v>
-      </c>
-      <c r="H36">
         <f t="shared" si="1"/>
         <v>172.03353681024828</v>
       </c>
-      <c r="O36" s="1">
+      <c r="M36" s="1">
         <v>43942</v>
       </c>
+      <c r="N36">
+        <v>3040</v>
+      </c>
+      <c r="O36">
+        <v>2504</v>
+      </c>
       <c r="P36">
-        <v>3040</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>2547.0335368102483</v>
       </c>
       <c r="Q36">
-        <v>2504</v>
-      </c>
-      <c r="R36">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2547.0335368102483</v>
-      </c>
-      <c r="S36">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3440.6707362049656</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43943</v>
       </c>
@@ -4946,40 +4640,32 @@
         <v>2654</v>
       </c>
       <c r="E37">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.79365079365079361</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>2717.6521386148302</v>
       </c>
       <c r="F37">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.6543392504930966</v>
-      </c>
-      <c r="G37">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>2717.6521386148302</v>
-      </c>
-      <c r="H37">
         <f t="shared" si="1"/>
         <v>170.61860180458189</v>
       </c>
-      <c r="O37" s="1">
+      <c r="M37" s="1">
         <v>43943</v>
       </c>
+      <c r="N37">
+        <v>3000</v>
+      </c>
+      <c r="O37">
+        <v>2654</v>
+      </c>
       <c r="P37">
-        <v>3000</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>2717.6521386148302</v>
       </c>
       <c r="Q37">
-        <v>2654</v>
-      </c>
-      <c r="R37">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2717.6521386148302</v>
-      </c>
-      <c r="S37">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3412.3720360916377</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43944</v>
       </c>
@@ -4993,40 +4679,32 @@
         <v>2843</v>
       </c>
       <c r="E38">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>1</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>2885.4756871995464</v>
       </c>
       <c r="F38">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.70093688362919138</v>
-      </c>
-      <c r="G38">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>2885.4756871995464</v>
-      </c>
-      <c r="H38">
         <f t="shared" si="1"/>
         <v>167.82354858471626</v>
       </c>
-      <c r="O38" s="1">
+      <c r="M38" s="1">
         <v>43944</v>
       </c>
+      <c r="N38">
+        <v>3780</v>
+      </c>
+      <c r="O38">
+        <v>2843</v>
+      </c>
       <c r="P38">
-        <v>3780</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>2885.4756871995464</v>
       </c>
       <c r="Q38">
-        <v>2843</v>
-      </c>
-      <c r="R38">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2885.4756871995464</v>
-      </c>
-      <c r="S38">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3356.4709716943253</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43945</v>
       </c>
@@ -5040,40 +4718,32 @@
         <v>3027</v>
       </c>
       <c r="E39">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.97354497354497349</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>3049.1922739680322</v>
       </c>
       <c r="F39">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.74630177514792895</v>
-      </c>
-      <c r="G39">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>3049.1922739680322</v>
-      </c>
-      <c r="H39">
         <f t="shared" si="1"/>
         <v>163.71658676848574</v>
       </c>
-      <c r="O39" s="1">
+      <c r="M39" s="1">
         <v>43945</v>
       </c>
+      <c r="N39">
+        <v>3680</v>
+      </c>
+      <c r="O39">
+        <v>3027</v>
+      </c>
       <c r="P39">
-        <v>3680</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>3049.1922739680322</v>
       </c>
       <c r="Q39">
-        <v>3027</v>
-      </c>
-      <c r="R39">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3049.1922739680322</v>
-      </c>
-      <c r="S39">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3274.3317353697148</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43946</v>
       </c>
@@ -5087,40 +4757,32 @@
         <v>3170</v>
       </c>
       <c r="E40">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.75661375661375663</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>3207.5888261489577</v>
       </c>
       <c r="F40">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.7815581854043393</v>
-      </c>
-      <c r="G40">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>3207.5888261489577</v>
-      </c>
-      <c r="H40">
         <f t="shared" si="1"/>
         <v>158.39655218092548</v>
       </c>
-      <c r="O40" s="1">
+      <c r="M40" s="1">
         <v>43946</v>
       </c>
+      <c r="N40">
+        <v>2860</v>
+      </c>
+      <c r="O40">
+        <v>3170</v>
+      </c>
       <c r="P40">
-        <v>2860</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>3207.5888261489577</v>
       </c>
       <c r="Q40">
-        <v>3170</v>
-      </c>
-      <c r="R40">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3207.5888261489577</v>
-      </c>
-      <c r="S40">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3167.9310436185096</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43947</v>
       </c>
@@ -5134,40 +4796,32 @@
         <v>3316</v>
       </c>
       <c r="E41">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.77248677248677244</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>3359.577780398798</v>
       </c>
       <c r="F41">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.81755424063116366</v>
-      </c>
-      <c r="G41">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>3359.577780398798</v>
-      </c>
-      <c r="H41">
         <f t="shared" si="1"/>
         <v>151.98895424984039</v>
       </c>
-      <c r="O41" s="1">
+      <c r="M41" s="1">
         <v>43947</v>
       </c>
+      <c r="N41">
+        <v>2920</v>
+      </c>
+      <c r="O41">
+        <v>3316</v>
+      </c>
       <c r="P41">
-        <v>2920</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>3359.577780398798</v>
       </c>
       <c r="Q41">
-        <v>3316</v>
-      </c>
-      <c r="R41">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3359.577780398798</v>
-      </c>
-      <c r="S41">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>3039.7790849968078</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43948</v>
       </c>
@@ -5181,40 +4835,32 @@
         <v>3475</v>
       </c>
       <c r="E42">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.84126984126984128</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>3504.2188384661317</v>
       </c>
       <c r="F42">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.85675542406311633</v>
-      </c>
-      <c r="G42">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>3504.2188384661317</v>
-      </c>
-      <c r="H42">
         <f t="shared" si="1"/>
         <v>144.64105806733369</v>
       </c>
-      <c r="O42" s="1">
+      <c r="M42" s="1">
         <v>43948</v>
       </c>
+      <c r="N42">
+        <v>3180</v>
+      </c>
+      <c r="O42">
+        <v>3475</v>
+      </c>
       <c r="P42">
-        <v>3180</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>3504.2188384661317</v>
       </c>
       <c r="Q42">
-        <v>3475</v>
-      </c>
-      <c r="R42">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3504.2188384661317</v>
-      </c>
-      <c r="S42">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2892.8211613466738</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43949</v>
       </c>
@@ -5228,40 +4874,32 @@
         <v>3613</v>
       </c>
       <c r="E43">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.73015873015873012</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>3640.7351084264628</v>
       </c>
       <c r="F43">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.89077909270216959</v>
-      </c>
-      <c r="G43">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>3640.7351084264628</v>
-      </c>
-      <c r="H43">
         <f t="shared" si="1"/>
         <v>136.5162699603311</v>
       </c>
-      <c r="O43" s="1">
+      <c r="M43" s="1">
         <v>43949</v>
       </c>
+      <c r="N43">
+        <v>2760</v>
+      </c>
+      <c r="O43">
+        <v>3613</v>
+      </c>
       <c r="P43">
-        <v>2760</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>3640.7351084264628</v>
       </c>
       <c r="Q43">
-        <v>3613</v>
-      </c>
-      <c r="R43">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3640.7351084264628</v>
-      </c>
-      <c r="S43">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2730.325399206622</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43950</v>
       </c>
@@ -5275,40 +4913,32 @@
         <v>3755</v>
       </c>
       <c r="E44">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.75132275132275128</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>3768.5232332026039</v>
       </c>
       <c r="F44">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.92578895463510846</v>
-      </c>
-      <c r="G44">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>3768.5232332026039</v>
-      </c>
-      <c r="H44">
         <f t="shared" si="1"/>
         <v>127.7881247761411</v>
       </c>
-      <c r="O44" s="1">
+      <c r="M44" s="1">
         <v>43950</v>
       </c>
+      <c r="N44">
+        <v>2840</v>
+      </c>
+      <c r="O44">
+        <v>3755</v>
+      </c>
       <c r="P44">
-        <v>2840</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>3768.5232332026039</v>
       </c>
       <c r="Q44">
-        <v>3755</v>
-      </c>
-      <c r="R44">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3768.5232332026039</v>
-      </c>
-      <c r="S44">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2555.7624955228221</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43951</v>
       </c>
@@ -5322,40 +4952,32 @@
         <v>3877</v>
       </c>
       <c r="E45">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.64550264550264547</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>3887.1574153936176</v>
       </c>
       <c r="F45">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.9558678500986193</v>
-      </c>
-      <c r="G45">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>3887.1574153936176</v>
-      </c>
-      <c r="H45">
         <f t="shared" si="1"/>
         <v>118.63418219101368</v>
       </c>
-      <c r="O45" s="1">
+      <c r="M45" s="1">
         <v>43951</v>
       </c>
+      <c r="N45">
+        <v>2440</v>
+      </c>
+      <c r="O45">
+        <v>3877</v>
+      </c>
       <c r="P45">
-        <v>2440</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>3887.1574153936176</v>
       </c>
       <c r="Q45">
-        <v>3877</v>
-      </c>
-      <c r="R45">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3887.1574153936176</v>
-      </c>
-      <c r="S45">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2372.6836438202736</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43952</v>
       </c>
@@ -5369,40 +4991,32 @@
         <v>3999</v>
       </c>
       <c r="E46">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.64550264550264547</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>3996.3875438255795</v>
       </c>
       <c r="F46">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0.98594674556213013</v>
-      </c>
-      <c r="G46">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>3996.3875438255795</v>
-      </c>
-      <c r="H46">
         <f t="shared" si="1"/>
         <v>109.23012843196193</v>
       </c>
-      <c r="O46" s="1">
+      <c r="M46" s="1">
         <v>43952</v>
       </c>
+      <c r="N46">
+        <v>2440</v>
+      </c>
+      <c r="O46">
+        <v>3999</v>
+      </c>
       <c r="P46">
-        <v>2440</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>3996.3875438255795</v>
       </c>
       <c r="Q46">
-        <v>3999</v>
-      </c>
-      <c r="R46">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3996.3875438255795</v>
-      </c>
-      <c r="S46">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>2184.6025686392386</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43953</v>
       </c>
@@ -5416,40 +5030,32 @@
         <v>4056</v>
       </c>
       <c r="E47">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0.30158730158730157</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4096.1318945103394</v>
       </c>
       <c r="F47">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4096.1318945103394</v>
-      </c>
-      <c r="H47">
         <f t="shared" si="1"/>
         <v>99.744350684759866</v>
       </c>
-      <c r="O47" s="1">
+      <c r="M47" s="1">
         <v>43953</v>
       </c>
+      <c r="N47">
+        <v>1140</v>
+      </c>
+      <c r="O47">
+        <v>4056</v>
+      </c>
       <c r="P47">
-        <v>1140</v>
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
+        <v>4096.1318945103394</v>
       </c>
       <c r="Q47">
-        <v>4056</v>
-      </c>
-      <c r="R47">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4096.1318945103394</v>
-      </c>
-      <c r="S47">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1994.8870136951973</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43954</v>
       </c>
@@ -5457,34 +5063,26 @@
         <v>46</v>
       </c>
       <c r="E48">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4186.4651018128388</v>
       </c>
       <c r="F48">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4186.4651018128388</v>
-      </c>
-      <c r="H48">
         <f t="shared" si="1"/>
         <v>90.333207302499432</v>
       </c>
-      <c r="O48" s="1">
+      <c r="M48" s="1">
         <v>43954</v>
       </c>
-      <c r="R48">
+      <c r="P48">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4186.4651018128388</v>
       </c>
-      <c r="S48">
+      <c r="Q48">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1806.6641460499886</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43955</v>
       </c>
@@ -5492,34 +5090,26 @@
         <v>47</v>
       </c>
       <c r="E49">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4267.602263685063</v>
       </c>
       <c r="F49">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4267.602263685063</v>
-      </c>
-      <c r="H49">
         <f t="shared" si="1"/>
         <v>81.137161872224169</v>
       </c>
-      <c r="O49" s="1">
+      <c r="M49" s="1">
         <v>43955</v>
       </c>
-      <c r="R49">
+      <c r="P49">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4267.602263685063</v>
       </c>
-      <c r="S49">
+      <c r="Q49">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1622.7432374444834</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43956</v>
       </c>
@@ -5527,34 +5117,26 @@
         <v>48</v>
       </c>
       <c r="E50">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4339.880151630472</v>
       </c>
       <c r="F50">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4339.880151630472</v>
-      </c>
-      <c r="H50">
         <f t="shared" si="1"/>
         <v>72.27788794540902</v>
       </c>
-      <c r="O50" s="1">
+      <c r="M50" s="1">
         <v>43956</v>
       </c>
-      <c r="R50">
+      <c r="P50">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4339.880151630472</v>
       </c>
-      <c r="S50">
+      <c r="Q50">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1445.5577589081804</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43957</v>
       </c>
@@ -5562,34 +5144,26 @@
         <v>49</v>
       </c>
       <c r="E51">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4403.7365402390569</v>
       </c>
       <c r="F51">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4403.7365402390569</v>
-      </c>
-      <c r="H51">
         <f t="shared" si="1"/>
         <v>63.856388608584894</v>
       </c>
-      <c r="O51" s="1">
+      <c r="M51" s="1">
         <v>43957</v>
       </c>
-      <c r="R51">
+      <c r="P51">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4403.7365402390569</v>
       </c>
-      <c r="S51">
+      <c r="Q51">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1277.1277721716979</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43958</v>
       </c>
@@ -5597,34 +5171,26 @@
         <v>50</v>
       </c>
       <c r="E52">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4459.6886558109718</v>
       </c>
       <c r="F52">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4459.6886558109718</v>
-      </c>
-      <c r="H52">
         <f t="shared" si="1"/>
         <v>55.952115571914874</v>
       </c>
-      <c r="O52" s="1">
+      <c r="M52" s="1">
         <v>43958</v>
       </c>
-      <c r="R52">
+      <c r="P52">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4459.6886558109718</v>
       </c>
-      <c r="S52">
+      <c r="Q52">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>1119.0423114382975</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43959</v>
       </c>
@@ -5632,34 +5198,26 @@
         <v>51</v>
       </c>
       <c r="E53">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4508.3116757407624</v>
       </c>
       <c r="F53">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4508.3116757407624</v>
-      </c>
-      <c r="H53">
         <f t="shared" si="1"/>
         <v>48.623019929790644</v>
       </c>
-      <c r="O53" s="1">
+      <c r="M53" s="1">
         <v>43959</v>
       </c>
-      <c r="R53">
+      <c r="P53">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4508.3116757407624</v>
       </c>
-      <c r="S53">
+      <c r="Q53">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>972.46039859581288</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43960</v>
       </c>
@@ -5667,34 +5225,26 @@
         <v>52</v>
       </c>
       <c r="E54">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4550.2180998549557</v>
       </c>
       <c r="F54">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4550.2180998549557</v>
-      </c>
-      <c r="H54">
         <f t="shared" si="1"/>
         <v>41.906424114193214</v>
       </c>
-      <c r="O54" s="1">
+      <c r="M54" s="1">
         <v>43960</v>
       </c>
-      <c r="R54">
+      <c r="P54">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4550.2180998549557</v>
       </c>
-      <c r="S54">
+      <c r="Q54">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>838.12848228386429</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43961</v>
       </c>
@@ -5702,34 +5252,26 @@
         <v>53</v>
       </c>
       <c r="E55">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4586.0386735132643</v>
       </c>
       <c r="F55">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4586.0386735132643</v>
-      </c>
-      <c r="H55">
         <f t="shared" si="1"/>
         <v>35.820573658308604</v>
       </c>
-      <c r="O55" s="1">
+      <c r="M55" s="1">
         <v>43961</v>
       </c>
-      <c r="R55">
+      <c r="P55">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4586.0386735132643</v>
       </c>
-      <c r="S55">
+      <c r="Q55">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>716.41147316617207</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43962</v>
       </c>
@@ -5737,34 +5279,26 @@
         <v>54</v>
       </c>
       <c r="E56">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4616.4053824553284</v>
       </c>
       <c r="F56">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4616.4053824553284</v>
-      </c>
-      <c r="H56">
         <f t="shared" si="1"/>
         <v>30.366708942064179</v>
       </c>
-      <c r="O56" s="1">
+      <c r="M56" s="1">
         <v>43962</v>
       </c>
-      <c r="R56">
+      <c r="P56">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4616.4053824553284</v>
       </c>
-      <c r="S56">
+      <c r="Q56">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>607.33417884128357</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43963</v>
       </c>
@@ -5772,34 +5306,26 @@
         <v>55</v>
       </c>
       <c r="E57">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4641.9368732461489</v>
       </c>
       <c r="F57">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4641.9368732461489</v>
-      </c>
-      <c r="H57">
         <f t="shared" si="1"/>
         <v>25.531490790820499</v>
       </c>
-      <c r="O57" s="1">
+      <c r="M57" s="1">
         <v>43963</v>
       </c>
-      <c r="R57">
+      <c r="P57">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4641.9368732461489</v>
       </c>
-      <c r="S57">
+      <c r="Q57">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>510.62981581640997</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43964</v>
       </c>
@@ -5807,34 +5333,26 @@
         <v>56</v>
       </c>
       <c r="E58">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4663.2264916951817</v>
       </c>
       <c r="F58">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4663.2264916951817</v>
-      </c>
-      <c r="H58">
         <f t="shared" si="1"/>
         <v>21.289618449032787</v>
       </c>
-      <c r="O58" s="1">
+      <c r="M58" s="1">
         <v>43964</v>
       </c>
-      <c r="R58">
+      <c r="P58">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4663.2264916951817</v>
       </c>
-      <c r="S58">
+      <c r="Q58">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>425.79236898065574</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43965</v>
       </c>
@@ -5842,34 +5360,26 @@
         <v>57</v>
       </c>
       <c r="E59">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4680.8329838880854</v>
       </c>
       <c r="F59">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4680.8329838880854</v>
-      </c>
-      <c r="H59">
         <f t="shared" si="1"/>
         <v>17.606492192903715</v>
       </c>
-      <c r="O59" s="1">
+      <c r="M59" s="1">
         <v>43965</v>
       </c>
-      <c r="R59">
+      <c r="P59">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4680.8329838880854</v>
       </c>
-      <c r="S59">
+      <c r="Q59">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>352.12984385807431</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43966</v>
       </c>
@@ -5877,34 +5387,26 @@
         <v>58</v>
       </c>
       <c r="E60">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4695.2737772915661</v>
       </c>
       <c r="F60">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4695.2737772915661</v>
-      </c>
-      <c r="H60">
         <f t="shared" si="1"/>
         <v>14.440793403480711</v>
       </c>
-      <c r="O60" s="1">
+      <c r="M60" s="1">
         <v>43966</v>
       </c>
-      <c r="R60">
+      <c r="P60">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4695.2737772915661</v>
       </c>
-      <c r="S60">
+      <c r="Q60">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>288.81586806961423</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43967</v>
       </c>
@@ -5912,34 +5414,26 @@
         <v>59</v>
       </c>
       <c r="E61">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4707.0206571424833</v>
       </c>
       <c r="F61">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4707.0206571424833</v>
-      </c>
-      <c r="H61">
         <f t="shared" si="1"/>
         <v>11.746879850917139</v>
       </c>
-      <c r="O61" s="1">
+      <c r="M61" s="1">
         <v>43967</v>
       </c>
-      <c r="R61">
+      <c r="P61">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4707.0206571424833</v>
       </c>
-      <c r="S61">
+      <c r="Q61">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>234.93759701834279</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43968</v>
       </c>
@@ -5947,34 +5441,26 @@
         <v>60</v>
       </c>
       <c r="E62">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4716.4975779999741</v>
       </c>
       <c r="F62">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4716.4975779999741</v>
-      </c>
-      <c r="H62">
         <f t="shared" si="1"/>
         <v>9.476920857490768</v>
       </c>
-      <c r="O62" s="1">
+      <c r="M62" s="1">
         <v>43968</v>
       </c>
-      <c r="R62">
+      <c r="P62">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4716.4975779999741</v>
       </c>
-      <c r="S62">
+      <c r="Q62">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>189.53841714981536</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43969</v>
       </c>
@@ -5982,34 +5468,26 @@
         <v>61</v>
       </c>
       <c r="E63">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4724.080301773226</v>
       </c>
       <c r="F63">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4724.080301773226</v>
-      </c>
-      <c r="H63">
         <f t="shared" si="1"/>
         <v>7.5827237732519279</v>
       </c>
-      <c r="O63" s="1">
+      <c r="M63" s="1">
         <v>43969</v>
       </c>
-      <c r="R63">
+      <c r="P63">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4724.080301773226</v>
       </c>
-      <c r="S63">
+      <c r="Q63">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>151.65447546503856</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43970</v>
       </c>
@@ -6017,34 +5495,26 @@
         <v>62</v>
       </c>
       <c r="E64">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4730.0975298275926</v>
       </c>
       <c r="F64">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4730.0975298275926</v>
-      </c>
-      <c r="H64">
         <f t="shared" si="1"/>
         <v>6.0172280543665693</v>
       </c>
-      <c r="O64" s="1">
+      <c r="M64" s="1">
         <v>43970</v>
       </c>
-      <c r="R64">
+      <c r="P64">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4730.0975298275926</v>
       </c>
-      <c r="S64">
+      <c r="Q64">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>120.34456108733139</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43971</v>
       </c>
@@ -6052,34 +5522,26 @@
         <v>63</v>
       </c>
       <c r="E65">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4734.8331947035704</v>
       </c>
       <c r="F65">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4734.8331947035704</v>
-      </c>
-      <c r="H65">
         <f t="shared" si="1"/>
         <v>4.7356648759778182</v>
       </c>
-      <c r="O65" s="1">
+      <c r="M65" s="1">
         <v>43971</v>
       </c>
-      <c r="R65">
+      <c r="P65">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4734.8331947035704</v>
       </c>
-      <c r="S65">
+      <c r="Q65">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>94.713297519556363</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43972</v>
       </c>
@@ -6087,34 +5549,26 @@
         <v>64</v>
       </c>
       <c r="E66">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4738.5295925171422</v>
       </c>
       <c r="F66">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
+        <f t="shared" ref="F66:F74" si="2">E66-E65</f>
+        <v>3.6963978135718207</v>
+      </c>
+      <c r="M66" s="1">
+        <v>43972</v>
+      </c>
+      <c r="P66">
+        <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4738.5295925171422</v>
       </c>
-      <c r="H66">
-        <f t="shared" ref="H66:H74" si="2">G66-G65</f>
-        <v>3.6963978135718207</v>
-      </c>
-      <c r="O66" s="1">
-        <v>43972</v>
-      </c>
-      <c r="R66">
-        <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4738.5295925171422</v>
-      </c>
-      <c r="S66">
+      <c r="Q66">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>73.927956271436415</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43973</v>
       </c>
@@ -6122,34 +5576,26 @@
         <v>65</v>
       </c>
       <c r="E67">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4741.391065835136</v>
       </c>
       <c r="F67">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4741.391065835136</v>
-      </c>
-      <c r="H67">
         <f t="shared" si="2"/>
         <v>2.8614733179938412</v>
       </c>
-      <c r="O67" s="1">
+      <c r="M67" s="1">
         <v>43973</v>
       </c>
-      <c r="R67">
+      <c r="P67">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4741.391065835136</v>
       </c>
-      <c r="S67">
+      <c r="Q67">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>57.229466359876824</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43974</v>
       </c>
@@ -6157,34 +5603,26 @@
         <v>66</v>
       </c>
       <c r="E68">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4743.5879843497569</v>
       </c>
       <c r="F68">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4743.5879843497569</v>
-      </c>
-      <c r="H68">
         <f t="shared" si="2"/>
         <v>2.1969185146208474</v>
       </c>
-      <c r="O68" s="1">
+      <c r="M68" s="1">
         <v>43974</v>
       </c>
-      <c r="R68">
+      <c r="P68">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4743.5879843497569</v>
       </c>
-      <c r="S68">
+      <c r="Q68">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>43.938370292416948</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43975</v>
       </c>
@@ -6192,34 +5630,26 @@
         <v>67</v>
       </c>
       <c r="E69">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4745.2608129651326</v>
       </c>
       <c r="F69">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4745.2608129651326</v>
-      </c>
-      <c r="H69">
         <f t="shared" si="2"/>
         <v>1.6728286153756926</v>
       </c>
-      <c r="O69" s="1">
+      <c r="M69" s="1">
         <v>43975</v>
       </c>
-      <c r="R69">
+      <c r="P69">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4745.2608129651326</v>
       </c>
-      <c r="S69">
+      <c r="Q69">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>33.456572307513852</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43976</v>
       </c>
@@ -6227,34 +5657,26 @@
         <v>68</v>
       </c>
       <c r="E70">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4746.524100468635</v>
       </c>
       <c r="F70">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4746.524100468635</v>
-      </c>
-      <c r="H70">
         <f t="shared" si="2"/>
         <v>1.2632875035023972</v>
       </c>
-      <c r="O70" s="1">
+      <c r="M70" s="1">
         <v>43976</v>
       </c>
-      <c r="R70">
+      <c r="P70">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
         <v>4746.524100468635</v>
       </c>
-      <c r="S70">
+      <c r="Q70">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
         <v>25.265750070047943</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43977</v>
       </c>
@@ -6262,23 +5684,15 @@
         <v>69</v>
       </c>
       <c r="E71">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4747.4702639938905</v>
       </c>
       <c r="F71">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4747.4702639938905</v>
-      </c>
-      <c r="H71">
         <f t="shared" si="2"/>
         <v>0.94616352525554248</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43978</v>
       </c>
@@ -6286,23 +5700,15 @@
         <v>70</v>
       </c>
       <c r="E72">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4748.1730829292883</v>
       </c>
       <c r="F72">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4748.1730829292883</v>
-      </c>
-      <c r="H72">
         <f t="shared" si="2"/>
         <v>0.70281893539777229</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43979</v>
       </c>
@@ -6310,23 +5716,15 @@
         <v>71</v>
       </c>
       <c r="E73">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4748.6908494380332</v>
       </c>
       <c r="F73">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4748.6908494380332</v>
-      </c>
-      <c r="H73">
         <f t="shared" si="2"/>
         <v>0.5177665087448986</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43980</v>
       </c>
@@ -6334,18 +5732,10 @@
         <v>72</v>
       </c>
       <c r="E74">
-        <f>Table1[[#This Row],[New Deaths]]/MAX(Table1[New Deaths])</f>
-        <v>0</v>
+        <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
+        <v>4749.0691506260637</v>
       </c>
       <c r="F74">
-        <f>Table1[[#This Row],[Running Total]]/MAX(Table1[Running Total])</f>
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <f>$K$4*NORMDIST(Table1[[#This Row],[Time]],$K$2,$K$3,1)</f>
-        <v>4749.0691506260637</v>
-      </c>
-      <c r="H74">
         <f t="shared" si="2"/>
         <v>0.37830118803049118</v>
       </c>

--- a/MA case analysis.xlsx
+++ b/MA case analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mserviciosrc-my.sharepoint.com/personal/lmelahn_lcred_org/Documents/COVID/MA-Covid-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{57D028E9-32F3-A142-888D-E37C1EB3B3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E39A1876-3DBD-D54E-9AA4-88C9BBC7DF37}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{57D028E9-32F3-A142-888D-E37C1EB3B3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{91FF672E-93DE-B64A-9E4C-CD8479AD0D81}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{53B553D5-63C9-1943-8F02-62576D22A04A}"/>
   </bookViews>
@@ -903,211 +903,211 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>6.4120156502429433</c:v>
+                  <c:v>6.4795105518244478</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6089341648644506</c:v>
+                  <c:v>8.6995545244946033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.470407482857341</c:v>
+                  <c:v>11.59114861425584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.16680529642926</c:v>
+                  <c:v>15.326455878496937</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.90247017240744</c:v>
+                  <c:v>20.111969858432783</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.919698226774216</c:v>
+                  <c:v>26.192537155477105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.502422000026378</c:v>
+                  <c:v>33.855079073710868</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.979342857516379</c:v>
+                  <c:v>43.431756992858659</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54.726222708434371</c:v>
+                  <c:v>55.302288210628411</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.167016111914492</c:v>
+                  <c:v>69.895089965724125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>86.77350830481808</c:v>
+                  <c:v>87.686913655395117</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>108.06312675385117</c:v>
+                  <c:v>109.20063335126012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>133.59461754467122</c:v>
+                  <c:v>135.0008766767204</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>163.96132648673623</c:v>
+                  <c:v>165.68723518659661</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>199.78190014504457</c:v>
+                  <c:v>201.88486751499241</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>241.68832425923688</c:v>
+                  <c:v>244.23241188301833</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>290.31134418902798</c:v>
+                  <c:v>293.36725307522829</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>346.26345976094302</c:v>
+                  <c:v>349.90833828474246</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>410.11984836952757</c:v>
+                  <c:v>414.43689940499632</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>482.39773631493733</c:v>
+                  <c:v>487.47560722351562</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>563.53489818716093</c:v>
+                  <c:v>569.46684448386793</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>653.86810548966105</c:v>
+                  <c:v>660.75092765271017</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>753.61245617442069</c:v>
+                  <c:v>761.54521887099361</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>862.8425846063825</c:v>
+                  <c:v>871.92513812855498</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>981.47676679739618</c:v>
+                  <c:v>991.80810118473721</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1109.2648915735372</c:v>
+                  <c:v>1120.9413641164165</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1245.781161533868</c:v>
+                  <c:v>1258.8946474447509</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1390.422219601202</c:v>
+                  <c:v>1405.0582429654251</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1542.4111738510423</c:v>
+                  <c:v>1558.6470809442112</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1700.8077260319676</c:v>
+                  <c:v>1718.7109652533568</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1864.5243128004536</c:v>
+                  <c:v>1884.1508845141425</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2032.3478613851698</c:v>
+                  <c:v>2053.7409967681715</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2202.9664631897517</c:v>
+                  <c:v>2226.155583854907</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2375</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2547.0335368102483</c:v>
+                  <c:v>2573.844416145093</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2717.6521386148302</c:v>
+                  <c:v>2746.2590032318285</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2885.4756871995464</c:v>
+                  <c:v>2915.8491154858575</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3049.1922739680322</c:v>
+                  <c:v>3081.2890347466432</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3207.5888261489577</c:v>
+                  <c:v>3241.3529190557888</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3359.577780398798</c:v>
+                  <c:v>3394.9417570345749</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3504.2188384661317</c:v>
+                  <c:v>3541.1053525552493</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3640.7351084264628</c:v>
+                  <c:v>3679.0586358835835</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3768.5232332026039</c:v>
+                  <c:v>3808.1918988152629</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3887.1574153936176</c:v>
+                  <c:v>3928.0748618714451</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3996.3875438255795</c:v>
+                  <c:v>4038.4547811290067</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4096.1318945103394</c:v>
+                  <c:v>4139.2490723472902</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4186.4651018128388</c:v>
+                  <c:v>4230.533155516132</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4267.602263685063</c:v>
+                  <c:v>4312.524392776485</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4339.880151630472</c:v>
+                  <c:v>4385.5631005950036</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4403.7365402390569</c:v>
+                  <c:v>4450.0916617152579</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4459.6886558109718</c:v>
+                  <c:v>4506.6327469247717</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4508.3116757407624</c:v>
+                  <c:v>4555.7675881169816</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4550.2180998549557</c:v>
+                  <c:v>4598.1151324850071</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4586.0386735132643</c:v>
+                  <c:v>4634.3127648134032</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4616.4053824553284</c:v>
+                  <c:v>4664.9991233232795</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4641.9368732461489</c:v>
+                  <c:v>4690.79936664874</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4663.2264916951817</c:v>
+                  <c:v>4712.3130863446049</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4680.8329838880854</c:v>
+                  <c:v>4730.1049100342761</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4695.2737772915661</c:v>
+                  <c:v>4744.6977117893721</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4707.0206571424833</c:v>
+                  <c:v>4756.5682430071411</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4716.4975779999741</c:v>
+                  <c:v>4766.1449209262892</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4724.080301773226</c:v>
+                  <c:v>4773.8074628445229</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4730.0975298275926</c:v>
+                  <c:v>4779.8880301415666</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4734.8331947035704</c:v>
+                  <c:v>4784.6735441215033</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4738.5295925171422</c:v>
+                  <c:v>4788.4088513857441</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4741.391065835136</c:v>
+                  <c:v>4791.3004454755055</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4743.5879843497569</c:v>
+                  <c:v>4793.5204894481758</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4745.2608129651326</c:v>
+                  <c:v>4795.2109267858177</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4746.524100468635</c:v>
+                  <c:v>4796.4875120525157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,208 +1368,208 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="1">
-                  <c:v>43.93837029243015</c:v>
+                  <c:v>44.400879453403107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.229466359857817</c:v>
+                  <c:v>57.831881795224724</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.927956271438376</c:v>
+                  <c:v>74.706145284821943</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.713297519563611</c:v>
+                  <c:v>95.710279598716923</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.34456108733551</c:v>
+                  <c:v>121.61134594088644</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>151.65447546504325</c:v>
+                  <c:v>153.25083836467527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>189.53841714980001</c:v>
+                  <c:v>191.53355838295582</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>234.93759701835984</c:v>
+                  <c:v>237.41062435539504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>288.8158680696024</c:v>
+                  <c:v>291.85603510191424</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>352.12984385807175</c:v>
+                  <c:v>355.83647379341983</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>425.79236898066171</c:v>
+                  <c:v>430.27439391730013</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>510.62981581640116</c:v>
+                  <c:v>516.00486650920539</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>607.33417884130006</c:v>
+                  <c:v>613.72717019752429</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>716.41147316616696</c:v>
+                  <c:v>723.95264656791596</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>838.1284822838461</c:v>
+                  <c:v>846.95088736051844</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>972.46039859582197</c:v>
+                  <c:v>982.69682384419923</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1119.0423114383009</c:v>
+                  <c:v>1130.8217041902833</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1277.127772171691</c:v>
+                  <c:v>1290.5712224050774</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1445.5577589081952</c:v>
+                  <c:v>1460.774156370386</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1622.743237444472</c:v>
+                  <c:v>1639.8247452070461</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1806.6641460500023</c:v>
+                  <c:v>1825.6816633768449</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1994.8870136951928</c:v>
+                  <c:v>2015.8858243656687</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2184.6025686392363</c:v>
+                  <c:v>2207.5983851512274</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2372.6836438202736</c:v>
+                  <c:v>2397.6592611236447</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2555.7624955228198</c:v>
+                  <c:v>2582.6652586335854</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2730.3253992066175</c:v>
+                  <c:v>2759.0656665666893</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2892.8211613466783</c:v>
+                  <c:v>2923.2719104134821</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3039.7790849968078</c:v>
+                  <c:v>3071.7767595757232</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3167.9310436185051</c:v>
+                  <c:v>3201.2776861829116</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3274.3317353697194</c:v>
+                  <c:v>3308.798385215714</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3356.4709716943253</c:v>
+                  <c:v>3391.8022450805802</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3412.3720360916377</c:v>
+                  <c:v>3448.2917417347107</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3440.6707362049656</c:v>
+                  <c:v>3476.8883229018593</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3440.6707362049656</c:v>
+                  <c:v>3476.8883229018593</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3412.3720360916377</c:v>
+                  <c:v>3448.2917417347107</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3356.4709716943253</c:v>
+                  <c:v>3391.8022450805802</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3274.3317353697148</c:v>
+                  <c:v>3308.798385215714</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3167.9310436185096</c:v>
+                  <c:v>3201.2776861829116</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3039.7790849968078</c:v>
+                  <c:v>3071.7767595757232</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2892.8211613466738</c:v>
+                  <c:v>2923.2719104134867</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2730.325399206622</c:v>
+                  <c:v>2759.0656665666847</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2555.7624955228221</c:v>
+                  <c:v>2582.6652586335877</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2372.6836438202736</c:v>
+                  <c:v>2397.6592611236447</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2184.6025686392386</c:v>
+                  <c:v>2207.5983851512319</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1994.8870136951973</c:v>
+                  <c:v>2015.8858243656687</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1806.6641460499886</c:v>
+                  <c:v>1825.6816633768358</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1622.7432374444834</c:v>
+                  <c:v>1639.8247452070609</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1445.5577589081804</c:v>
+                  <c:v>1460.7741563703712</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1277.1277721716979</c:v>
+                  <c:v>1290.5712224050876</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1119.0423114382975</c:v>
+                  <c:v>1130.8217041902753</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>972.46039859581288</c:v>
+                  <c:v>982.69682384419866</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>838.12848228386429</c:v>
+                  <c:v>846.9508873605082</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>716.41147316617207</c:v>
+                  <c:v>723.95264656792278</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>607.33417884128357</c:v>
+                  <c:v>613.72717019752599</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>510.62981581640997</c:v>
+                  <c:v>516.00486650921084</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>425.79236898065574</c:v>
+                  <c:v>430.27439391729786</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>352.12984385807431</c:v>
+                  <c:v>355.83647379342437</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>288.81586806961423</c:v>
+                  <c:v>291.85603510191868</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>234.93759701834279</c:v>
+                  <c:v>237.4106243553797</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>189.53841714981536</c:v>
+                  <c:v>191.53355838296193</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>151.65447546503856</c:v>
+                  <c:v>153.25083836467456</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>120.34456108733139</c:v>
+                  <c:v>121.61134594087343</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>94.713297519556363</c:v>
+                  <c:v>95.710279598733905</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>73.927956271436415</c:v>
+                  <c:v>74.706145284817467</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>57.229466359876824</c:v>
+                  <c:v>57.831881795227673</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43.938370292416948</c:v>
+                  <c:v>44.400879453405651</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>33.456572307513852</c:v>
+                  <c:v>33.808746752838488</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>25.265750070047943</c:v>
+                  <c:v>25.531705333960417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,6 +2064,7 @@
         <c:axId val="1491139184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2773,16 +2774,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3158,8 +3159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039AF893-0F3E-7648-8E22-05B45FBF5E08}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3236,7 +3237,7 @@
       </c>
       <c r="E2">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>6.4120156502429433</v>
+        <v>6.4795105518244478</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -3261,7 +3262,7 @@
       </c>
       <c r="P2">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>6.4120156502429433</v>
+        <v>6.4795105518244478</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -3279,11 +3280,11 @@
       </c>
       <c r="E3">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>8.6089341648644506</v>
+        <v>8.6995545244946033</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F33" si="0">E3-E2</f>
-        <v>2.1969185146215073</v>
+        <v>2.2200439726701555</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -3305,11 +3306,11 @@
       </c>
       <c r="P3">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>8.6089341648644506</v>
+        <v>8.6995545244946033</v>
       </c>
       <c r="Q3">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>43.93837029243015</v>
+        <v>44.400879453403107</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3327,17 +3328,17 @@
       </c>
       <c r="E4">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>11.470407482857341</v>
+        <v>11.59114861425584</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>2.8614733179928908</v>
+        <v>2.8915940897612362</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4">
-        <v>4750</v>
+        <v>4800</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -3353,11 +3354,11 @@
       </c>
       <c r="P4">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>11.470407482857341</v>
+        <v>11.59114861425584</v>
       </c>
       <c r="Q4">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>57.229466359857817</v>
+        <v>57.831881795224724</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -3375,11 +3376,11 @@
       </c>
       <c r="E5">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>15.16680529642926</v>
+        <v>15.326455878496937</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>3.6963978135719184</v>
+        <v>3.7353072642410972</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -3401,11 +3402,11 @@
       </c>
       <c r="P5">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>15.16680529642926</v>
+        <v>15.326455878496937</v>
       </c>
       <c r="Q5">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>73.927956271438376</v>
+        <v>74.706145284821943</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -3423,11 +3424,11 @@
       </c>
       <c r="E6">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>19.90247017240744</v>
+        <v>20.111969858432783</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>4.7356648759781805</v>
+        <v>4.7855139799358462</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
@@ -3449,11 +3450,11 @@
       </c>
       <c r="P6">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>19.90247017240744</v>
+        <v>20.111969858432783</v>
       </c>
       <c r="Q6">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>94.713297519563611</v>
+        <v>95.710279598716923</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -3471,11 +3472,11 @@
       </c>
       <c r="E7">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>25.919698226774216</v>
+        <v>26.192537155477105</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>6.0172280543667753</v>
+        <v>6.0805672970443219</v>
       </c>
       <c r="M7" s="1">
         <v>43913</v>
@@ -3488,11 +3489,11 @@
       </c>
       <c r="P7">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>25.919698226774216</v>
+        <v>26.192537155477105</v>
       </c>
       <c r="Q7">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>120.34456108733551</v>
+        <v>121.61134594088644</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3510,11 +3511,11 @@
       </c>
       <c r="E8">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>33.502422000026378</v>
+        <v>33.855079073710868</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>7.5827237732521624</v>
+        <v>7.6625419182337637</v>
       </c>
       <c r="M8" s="1">
         <v>43914</v>
@@ -3527,11 +3528,11 @@
       </c>
       <c r="P8">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>33.502422000026378</v>
+        <v>33.855079073710868</v>
       </c>
       <c r="Q8">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>151.65447546504325</v>
+        <v>153.25083836467527</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -3549,11 +3550,11 @@
       </c>
       <c r="E9">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>42.979342857516379</v>
+        <v>43.431756992858659</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>9.4769208574900006</v>
+        <v>9.5766779191477909</v>
       </c>
       <c r="M9" s="1">
         <v>43915</v>
@@ -3566,11 +3567,11 @@
       </c>
       <c r="P9">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>42.979342857516379</v>
+        <v>43.431756992858659</v>
       </c>
       <c r="Q9">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>189.53841714980001</v>
+        <v>191.53355838295582</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3588,11 +3589,11 @@
       </c>
       <c r="E10">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>54.726222708434371</v>
+        <v>55.302288210628411</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>11.746879850917992</v>
+        <v>11.870531217769752</v>
       </c>
       <c r="M10" s="1">
         <v>43916</v>
@@ -3605,11 +3606,11 @@
       </c>
       <c r="P10">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>54.726222708434371</v>
+        <v>55.302288210628411</v>
       </c>
       <c r="Q10">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>234.93759701835984</v>
+        <v>237.41062435539504</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -3627,11 +3628,11 @@
       </c>
       <c r="E11">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>69.167016111914492</v>
+        <v>69.895089965724125</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>14.440793403480122</v>
+        <v>14.592801755095714</v>
       </c>
       <c r="M11" s="1">
         <v>43917</v>
@@ -3644,11 +3645,11 @@
       </c>
       <c r="P11">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>69.167016111914492</v>
+        <v>69.895089965724125</v>
       </c>
       <c r="Q11">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>288.8158680696024</v>
+        <v>291.85603510191424</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3666,11 +3667,11 @@
       </c>
       <c r="E12">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>86.77350830481808</v>
+        <v>87.686913655395117</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>17.606492192903588</v>
+        <v>17.791823689670991</v>
       </c>
       <c r="M12" s="1">
         <v>43918</v>
@@ -3683,11 +3684,11 @@
       </c>
       <c r="P12">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>86.77350830481808</v>
+        <v>87.686913655395117</v>
       </c>
       <c r="Q12">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>352.12984385807175</v>
+        <v>355.83647379341983</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -3698,18 +3699,18 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>108.06312675385117</v>
+        <v>109.20063335126012</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>21.289618449033085</v>
+        <v>21.513719695865007</v>
       </c>
       <c r="M13" s="1">
         <v>43919</v>
@@ -3722,11 +3723,11 @@
       </c>
       <c r="P13">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>108.06312675385117</v>
+        <v>109.20063335126012</v>
       </c>
       <c r="Q13">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>425.79236898066171</v>
+        <v>430.27439391730013</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -3737,18 +3738,18 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>125</v>
       </c>
       <c r="E14">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>133.59461754467122</v>
+        <v>135.0008766767204</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>25.531490790820058</v>
+        <v>25.800243325460272</v>
       </c>
       <c r="M14" s="1">
         <v>43920</v>
@@ -3761,11 +3762,11 @@
       </c>
       <c r="P14">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>133.59461754467122</v>
+        <v>135.0008766767204</v>
       </c>
       <c r="Q14">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>510.62981581640116</v>
+        <v>516.00486650920539</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -3783,11 +3784,11 @@
       </c>
       <c r="E15">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>163.96132648673623</v>
+        <v>165.68723518659661</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>30.366708942065003</v>
+        <v>30.686358509876214</v>
       </c>
       <c r="M15" s="1">
         <v>43921</v>
@@ -3800,11 +3801,11 @@
       </c>
       <c r="P15">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>163.96132648673623</v>
+        <v>165.68723518659661</v>
       </c>
       <c r="Q15">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>607.33417884130006</v>
+        <v>613.72717019752429</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -3822,11 +3823,11 @@
       </c>
       <c r="E16">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>199.78190014504457</v>
+        <v>201.88486751499241</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>35.820573658308348</v>
+        <v>36.197632328395798</v>
       </c>
       <c r="M16" s="1">
         <v>43922</v>
@@ -3839,11 +3840,11 @@
       </c>
       <c r="P16">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>199.78190014504457</v>
+        <v>201.88486751499241</v>
       </c>
       <c r="Q16">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>716.41147316616696</v>
+        <v>723.95264656791596</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -3861,11 +3862,11 @@
       </c>
       <c r="E17">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>241.68832425923688</v>
+        <v>244.23241188301833</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>41.906424114192305</v>
+        <v>42.347544368025922</v>
       </c>
       <c r="M17" s="1">
         <v>43923</v>
@@ -3878,11 +3879,11 @@
       </c>
       <c r="P17">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>241.68832425923688</v>
+        <v>244.23241188301833</v>
       </c>
       <c r="Q17">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>838.1284822838461</v>
+        <v>846.95088736051844</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -3893,18 +3894,18 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E18">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>290.31134418902798</v>
+        <v>293.36725307522829</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>48.623019929791099</v>
+        <v>49.134841192209961</v>
       </c>
       <c r="M18" s="1">
         <v>43924</v>
@@ -3917,11 +3918,11 @@
       </c>
       <c r="P18">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>290.31134418902798</v>
+        <v>293.36725307522829</v>
       </c>
       <c r="Q18">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>972.46039859582197</v>
+        <v>982.69682384419923</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -3932,18 +3933,18 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>306</v>
       </c>
       <c r="E19">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>346.26345976094302</v>
+        <v>349.90833828474246</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>55.952115571915044</v>
+        <v>56.541085209514165</v>
       </c>
       <c r="M19" s="1">
         <v>43925</v>
@@ -3956,11 +3957,11 @@
       </c>
       <c r="P19">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>346.26345976094302</v>
+        <v>349.90833828474246</v>
       </c>
       <c r="Q19">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1119.0423114383009</v>
+        <v>1130.8217041902833</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -3971,18 +3972,18 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E20">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>410.11984836952757</v>
+        <v>414.43689940499632</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>63.856388608584552</v>
+        <v>64.528561120253869</v>
       </c>
       <c r="M20" s="1">
         <v>43926</v>
@@ -3995,11 +3996,11 @@
       </c>
       <c r="P20">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>410.11984836952757</v>
+        <v>414.43689940499632</v>
       </c>
       <c r="Q20">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1277.127772171691</v>
+        <v>1290.5712224050774</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -4013,15 +4014,15 @@
         <v>79</v>
       </c>
       <c r="D21">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E21">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>482.39773631493733</v>
+        <v>487.47560722351562</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>72.277887945409759</v>
+        <v>73.038707818519299</v>
       </c>
       <c r="M21" s="1">
         <v>43927</v>
@@ -4034,11 +4035,11 @@
       </c>
       <c r="P21">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>482.39773631493733</v>
+        <v>487.47560722351562</v>
       </c>
       <c r="Q21">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1445.5577589081952</v>
+        <v>1460.774156370386</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -4049,18 +4050,18 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E22">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>563.53489818716093</v>
+        <v>569.46684448386793</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>81.137161872223601</v>
+        <v>81.991237260352307</v>
       </c>
       <c r="M22" s="1">
         <v>43928</v>
@@ -4073,11 +4074,11 @@
       </c>
       <c r="P22">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>563.53489818716093</v>
+        <v>569.46684448386793</v>
       </c>
       <c r="Q22">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1622.743237444472</v>
+        <v>1639.8247452070461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -4091,15 +4092,15 @@
         <v>100</v>
       </c>
       <c r="D23">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E23">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>653.86810548966105</v>
+        <v>660.75092765271017</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>90.333207302500114</v>
+        <v>91.284083168842244</v>
       </c>
       <c r="M23" s="1">
         <v>43929</v>
@@ -4112,11 +4113,11 @@
       </c>
       <c r="P23">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>653.86810548966105</v>
+        <v>660.75092765271017</v>
       </c>
       <c r="Q23">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1806.6641460500023</v>
+        <v>1825.6816633768449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -4127,18 +4128,18 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E24">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>753.61245617442069</v>
+        <v>761.54521887099361</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>99.744350684759638</v>
+        <v>100.79429121828343</v>
       </c>
       <c r="M24" s="1">
         <v>43930</v>
@@ -4151,11 +4152,11 @@
       </c>
       <c r="P24">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>753.61245617442069</v>
+        <v>761.54521887099361</v>
       </c>
       <c r="Q24">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1994.8870136951928</v>
+        <v>2015.8858243656687</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -4169,15 +4170,15 @@
         <v>105</v>
       </c>
       <c r="D25">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E25">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>862.8425846063825</v>
+        <v>871.92513812855498</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>109.23012843196182</v>
+        <v>110.37991925756137</v>
       </c>
       <c r="M25" s="1">
         <v>43931</v>
@@ -4190,11 +4191,11 @@
       </c>
       <c r="P25">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>862.8425846063825</v>
+        <v>871.92513812855498</v>
       </c>
       <c r="Q25">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2184.6025686392363</v>
+        <v>2207.5983851512274</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -4208,15 +4209,15 @@
         <v>117</v>
       </c>
       <c r="D26">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E26">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>981.47676679739618</v>
+        <v>991.80810118473721</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>118.63418219101368</v>
+        <v>119.88296305618223</v>
       </c>
       <c r="M26" s="1">
         <v>43932</v>
@@ -4229,11 +4230,11 @@
       </c>
       <c r="P26">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>981.47676679739618</v>
+        <v>991.80810118473721</v>
       </c>
       <c r="Q26">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2372.6836438202736</v>
+        <v>2397.6592611236447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -4244,18 +4245,18 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27">
         <v>1064</v>
       </c>
       <c r="E27">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>1109.2648915735372</v>
+        <v>1120.9413641164165</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>127.78812477614099</v>
+        <v>129.13326293167927</v>
       </c>
       <c r="M27" s="1">
         <v>43933</v>
@@ -4268,11 +4269,11 @@
       </c>
       <c r="P27">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1109.2648915735372</v>
+        <v>1120.9413641164165</v>
       </c>
       <c r="Q27">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2555.7624955228198</v>
+        <v>2582.6652586335854</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -4283,18 +4284,18 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D28">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E28">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>1245.781161533868</v>
+        <v>1258.8946474447509</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>136.51626996033087</v>
+        <v>137.95328332833446</v>
       </c>
       <c r="M28" s="1">
         <v>43934</v>
@@ -4307,11 +4308,11 @@
       </c>
       <c r="P28">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1245.781161533868</v>
+        <v>1258.8946474447509</v>
       </c>
       <c r="Q28">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2730.3253992066175</v>
+        <v>2759.0656665666893</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -4325,15 +4326,15 @@
         <v>119</v>
       </c>
       <c r="D29">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="E29">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>1390.422219601202</v>
+        <v>1405.0582429654251</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>144.64105806733392</v>
+        <v>146.16359552067411</v>
       </c>
       <c r="M29" s="1">
         <v>43935</v>
@@ -4346,11 +4347,11 @@
       </c>
       <c r="P29">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1390.422219601202</v>
+        <v>1405.0582429654251</v>
       </c>
       <c r="Q29">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2892.8211613466783</v>
+        <v>2923.2719104134821</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -4364,15 +4365,15 @@
         <v>175</v>
       </c>
       <c r="D30">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="E30">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>1542.4111738510423</v>
+        <v>1558.6470809442112</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>151.98895424984039</v>
+        <v>153.58883797878616</v>
       </c>
       <c r="M30" s="1">
         <v>43936</v>
@@ -4385,11 +4386,11 @@
       </c>
       <c r="P30">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1542.4111738510423</v>
+        <v>1558.6470809442112</v>
       </c>
       <c r="Q30">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3039.7790849968078</v>
+        <v>3071.7767595757232</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -4403,15 +4404,15 @@
         <v>167</v>
       </c>
       <c r="D31">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="E31">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>1700.8077260319676</v>
+        <v>1718.7109652533568</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>158.39655218092526</v>
+        <v>160.06388430914558</v>
       </c>
       <c r="M31" s="1">
         <v>43937</v>
@@ -4424,11 +4425,11 @@
       </c>
       <c r="P31">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1700.8077260319676</v>
+        <v>1718.7109652533568</v>
       </c>
       <c r="Q31">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3167.9310436185051</v>
+        <v>3201.2776861829116</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -4439,18 +4440,18 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D32">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="E32">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>1864.5243128004536</v>
+        <v>1884.1508845141425</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>163.71658676848597</v>
+        <v>165.4399192607857</v>
       </c>
       <c r="M32" s="1">
         <v>43938</v>
@@ -4463,11 +4464,11 @@
       </c>
       <c r="P32">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1864.5243128004536</v>
+        <v>1884.1508845141425</v>
       </c>
       <c r="Q32">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3274.3317353697194</v>
+        <v>3308.798385215714</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -4478,18 +4479,18 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D33">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E33">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>2032.3478613851698</v>
+        <v>2053.7409967681715</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>167.82354858471626</v>
+        <v>169.59011225402901</v>
       </c>
       <c r="M33" s="1">
         <v>43939</v>
@@ -4502,11 +4503,11 @@
       </c>
       <c r="P33">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2032.3478613851698</v>
+        <v>2053.7409967681715</v>
       </c>
       <c r="Q33">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3356.4709716943253</v>
+        <v>3391.8022450805802</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -4520,15 +4521,15 @@
         <v>171</v>
       </c>
       <c r="D34">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="E34">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>2202.9664631897517</v>
+        <v>2226.155583854907</v>
       </c>
       <c r="F34">
         <f t="shared" ref="F34:F65" si="1">E34-E33</f>
-        <v>170.61860180458189</v>
+        <v>172.41458708673554</v>
       </c>
       <c r="M34" s="1">
         <v>43940</v>
@@ -4541,11 +4542,11 @@
       </c>
       <c r="P34">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2202.9664631897517</v>
+        <v>2226.155583854907</v>
       </c>
       <c r="Q34">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3412.3720360916377</v>
+        <v>3448.2917417347107</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -4556,18 +4557,18 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D35">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="E35">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>2375</v>
+        <v>2400</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>172.03353681024828</v>
+        <v>173.84441614509296</v>
       </c>
       <c r="M35" s="1">
         <v>43941</v>
@@ -4580,11 +4581,11 @@
       </c>
       <c r="P35">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2375</v>
+        <v>2400</v>
       </c>
       <c r="Q35">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3440.6707362049656</v>
+        <v>3476.8883229018593</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -4595,18 +4596,18 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D36">
-        <v>2504</v>
+        <v>2508</v>
       </c>
       <c r="E36">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>2547.0335368102483</v>
+        <v>2573.844416145093</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>172.03353681024828</v>
+        <v>173.84441614509296</v>
       </c>
       <c r="M36" s="1">
         <v>43942</v>
@@ -4619,11 +4620,11 @@
       </c>
       <c r="P36">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2547.0335368102483</v>
+        <v>2573.844416145093</v>
       </c>
       <c r="Q36">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3440.6707362049656</v>
+        <v>3476.8883229018593</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -4634,18 +4635,18 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D37">
-        <v>2654</v>
+        <v>2660</v>
       </c>
       <c r="E37">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>2717.6521386148302</v>
+        <v>2746.2590032318285</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>170.61860180458189</v>
+        <v>172.41458708673554</v>
       </c>
       <c r="M37" s="1">
         <v>43943</v>
@@ -4658,11 +4659,11 @@
       </c>
       <c r="P37">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2717.6521386148302</v>
+        <v>2746.2590032318285</v>
       </c>
       <c r="Q37">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3412.3720360916377</v>
+        <v>3448.2917417347107</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -4673,18 +4674,18 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D38">
-        <v>2843</v>
+        <v>2848</v>
       </c>
       <c r="E38">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>2885.4756871995464</v>
+        <v>2915.8491154858575</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>167.82354858471626</v>
+        <v>169.59011225402901</v>
       </c>
       <c r="M38" s="1">
         <v>43944</v>
@@ -4697,11 +4698,11 @@
       </c>
       <c r="P38">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2885.4756871995464</v>
+        <v>2915.8491154858575</v>
       </c>
       <c r="Q38">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3356.4709716943253</v>
+        <v>3391.8022450805802</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -4712,18 +4713,18 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D39">
-        <v>3027</v>
+        <v>3038</v>
       </c>
       <c r="E39">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3049.1922739680322</v>
+        <v>3081.2890347466432</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>163.71658676848574</v>
+        <v>165.4399192607857</v>
       </c>
       <c r="M39" s="1">
         <v>43945</v>
@@ -4736,11 +4737,11 @@
       </c>
       <c r="P39">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3049.1922739680322</v>
+        <v>3081.2890347466432</v>
       </c>
       <c r="Q39">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3274.3317353697148</v>
+        <v>3308.798385215714</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -4754,15 +4755,15 @@
         <v>143</v>
       </c>
       <c r="D40">
-        <v>3170</v>
+        <v>3181</v>
       </c>
       <c r="E40">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3207.5888261489577</v>
+        <v>3241.3529190557888</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>158.39655218092548</v>
+        <v>160.06388430914558</v>
       </c>
       <c r="M40" s="1">
         <v>43946</v>
@@ -4775,11 +4776,11 @@
       </c>
       <c r="P40">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3207.5888261489577</v>
+        <v>3241.3529190557888</v>
       </c>
       <c r="Q40">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3167.9310436185096</v>
+        <v>3201.2776861829116</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -4793,15 +4794,15 @@
         <v>146</v>
       </c>
       <c r="D41">
-        <v>3316</v>
+        <v>3327</v>
       </c>
       <c r="E41">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3359.577780398798</v>
+        <v>3394.9417570345749</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>151.98895424984039</v>
+        <v>153.58883797878616</v>
       </c>
       <c r="M41" s="1">
         <v>43947</v>
@@ -4814,11 +4815,11 @@
       </c>
       <c r="P41">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3359.577780398798</v>
+        <v>3394.9417570345749</v>
       </c>
       <c r="Q41">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3039.7790849968078</v>
+        <v>3071.7767595757232</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -4829,18 +4830,18 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42">
-        <v>3475</v>
+        <v>3485</v>
       </c>
       <c r="E42">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3504.2188384661317</v>
+        <v>3541.1053525552493</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>144.64105806733369</v>
+        <v>146.16359552067433</v>
       </c>
       <c r="M42" s="1">
         <v>43948</v>
@@ -4853,11 +4854,11 @@
       </c>
       <c r="P42">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3504.2188384661317</v>
+        <v>3541.1053525552493</v>
       </c>
       <c r="Q42">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2892.8211613466738</v>
+        <v>2923.2719104134867</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -4868,18 +4869,18 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D43">
-        <v>3613</v>
+        <v>3625</v>
       </c>
       <c r="E43">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3640.7351084264628</v>
+        <v>3679.0586358835835</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>136.5162699603311</v>
+        <v>137.95328332833424</v>
       </c>
       <c r="M43" s="1">
         <v>43949</v>
@@ -4892,11 +4893,11 @@
       </c>
       <c r="P43">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3640.7351084264628</v>
+        <v>3679.0586358835835</v>
       </c>
       <c r="Q43">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2730.325399206622</v>
+        <v>2759.0656665666847</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -4907,18 +4908,18 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D44">
-        <v>3755</v>
+        <v>3773</v>
       </c>
       <c r="E44">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3768.5232332026039</v>
+        <v>3808.1918988152629</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>127.7881247761411</v>
+        <v>129.13326293167938</v>
       </c>
       <c r="M44" s="1">
         <v>43950</v>
@@ -4931,11 +4932,11 @@
       </c>
       <c r="P44">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3768.5232332026039</v>
+        <v>3808.1918988152629</v>
       </c>
       <c r="Q44">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2555.7624955228221</v>
+        <v>2582.6652586335877</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -4946,18 +4947,18 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D45">
-        <v>3877</v>
+        <v>3901</v>
       </c>
       <c r="E45">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3887.1574153936176</v>
+        <v>3928.0748618714451</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>118.63418219101368</v>
+        <v>119.88296305618223</v>
       </c>
       <c r="M45" s="1">
         <v>43951</v>
@@ -4970,11 +4971,11 @@
       </c>
       <c r="P45">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3887.1574153936176</v>
+        <v>3928.0748618714451</v>
       </c>
       <c r="Q45">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2372.6836438202736</v>
+        <v>2397.6592611236447</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -4985,18 +4986,18 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D46">
-        <v>3999</v>
+        <v>4057</v>
       </c>
       <c r="E46">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3996.3875438255795</v>
+        <v>4038.4547811290067</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>109.23012843196193</v>
+        <v>110.3799192575616</v>
       </c>
       <c r="M46" s="1">
         <v>43952</v>
@@ -5009,11 +5010,11 @@
       </c>
       <c r="P46">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3996.3875438255795</v>
+        <v>4038.4547811290067</v>
       </c>
       <c r="Q46">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2184.6025686392386</v>
+        <v>2207.5983851512319</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -5024,18 +5025,18 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D47">
-        <v>4056</v>
+        <v>4174</v>
       </c>
       <c r="E47">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4096.1318945103394</v>
+        <v>4139.2490723472902</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>99.744350684759866</v>
+        <v>100.79429121828343</v>
       </c>
       <c r="M47" s="1">
         <v>43953</v>
@@ -5048,11 +5049,11 @@
       </c>
       <c r="P47">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4096.1318945103394</v>
+        <v>4139.2490723472902</v>
       </c>
       <c r="Q47">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1994.8870136951973</v>
+        <v>2015.8858243656687</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -5062,24 +5063,30 @@
       <c r="B48">
         <v>46</v>
       </c>
+      <c r="C48">
+        <v>122</v>
+      </c>
+      <c r="D48">
+        <v>4296</v>
+      </c>
       <c r="E48">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4186.4651018128388</v>
+        <v>4230.533155516132</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>90.333207302499432</v>
+        <v>91.284083168841789</v>
       </c>
       <c r="M48" s="1">
         <v>43954</v>
       </c>
       <c r="P48">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4186.4651018128388</v>
+        <v>4230.533155516132</v>
       </c>
       <c r="Q48">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1806.6641460499886</v>
+        <v>1825.6816633768358</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -5089,24 +5096,30 @@
       <c r="B49">
         <v>47</v>
       </c>
+      <c r="C49">
+        <v>74</v>
+      </c>
+      <c r="D49">
+        <v>4370</v>
+      </c>
       <c r="E49">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4267.602263685063</v>
+        <v>4312.524392776485</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>81.137161872224169</v>
+        <v>81.991237260353046</v>
       </c>
       <c r="M49" s="1">
         <v>43955</v>
       </c>
       <c r="P49">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4267.602263685063</v>
+        <v>4312.524392776485</v>
       </c>
       <c r="Q49">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1622.7432374444834</v>
+        <v>1639.8247452070609</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -5118,22 +5131,22 @@
       </c>
       <c r="E50">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4339.880151630472</v>
+        <v>4385.5631005950036</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>72.27788794540902</v>
+        <v>73.03870781851856</v>
       </c>
       <c r="M50" s="1">
         <v>43956</v>
       </c>
       <c r="P50">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4339.880151630472</v>
+        <v>4385.5631005950036</v>
       </c>
       <c r="Q50">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1445.5577589081804</v>
+        <v>1460.7741563703712</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -5145,22 +5158,22 @@
       </c>
       <c r="E51">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4403.7365402390569</v>
+        <v>4450.0916617152579</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>63.856388608584894</v>
+        <v>64.528561120254381</v>
       </c>
       <c r="M51" s="1">
         <v>43957</v>
       </c>
       <c r="P51">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4403.7365402390569</v>
+        <v>4450.0916617152579</v>
       </c>
       <c r="Q51">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1277.1277721716979</v>
+        <v>1290.5712224050876</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -5172,22 +5185,22 @@
       </c>
       <c r="E52">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4459.6886558109718</v>
+        <v>4506.6327469247717</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>55.952115571914874</v>
+        <v>56.541085209513767</v>
       </c>
       <c r="M52" s="1">
         <v>43958</v>
       </c>
       <c r="P52">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4459.6886558109718</v>
+        <v>4506.6327469247717</v>
       </c>
       <c r="Q52">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1119.0423114382975</v>
+        <v>1130.8217041902753</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -5199,22 +5212,22 @@
       </c>
       <c r="E53">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4508.3116757407624</v>
+        <v>4555.7675881169816</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>48.623019929790644</v>
+        <v>49.134841192209933</v>
       </c>
       <c r="M53" s="1">
         <v>43959</v>
       </c>
       <c r="P53">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4508.3116757407624</v>
+        <v>4555.7675881169816</v>
       </c>
       <c r="Q53">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>972.46039859581288</v>
+        <v>982.69682384419866</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -5226,22 +5239,22 @@
       </c>
       <c r="E54">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4550.2180998549557</v>
+        <v>4598.1151324850071</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>41.906424114193214</v>
+        <v>42.34754436802541</v>
       </c>
       <c r="M54" s="1">
         <v>43960</v>
       </c>
       <c r="P54">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4550.2180998549557</v>
+        <v>4598.1151324850071</v>
       </c>
       <c r="Q54">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>838.12848228386429</v>
+        <v>846.9508873605082</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -5253,22 +5266,22 @@
       </c>
       <c r="E55">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4586.0386735132643</v>
+        <v>4634.3127648134032</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>35.820573658308604</v>
+        <v>36.197632328396139</v>
       </c>
       <c r="M55" s="1">
         <v>43961</v>
       </c>
       <c r="P55">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4586.0386735132643</v>
+        <v>4634.3127648134032</v>
       </c>
       <c r="Q55">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>716.41147316617207</v>
+        <v>723.95264656792278</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -5280,22 +5293,22 @@
       </c>
       <c r="E56">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4616.4053824553284</v>
+        <v>4664.9991233232795</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>30.366708942064179</v>
+        <v>30.6863585098763</v>
       </c>
       <c r="M56" s="1">
         <v>43962</v>
       </c>
       <c r="P56">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4616.4053824553284</v>
+        <v>4664.9991233232795</v>
       </c>
       <c r="Q56">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>607.33417884128357</v>
+        <v>613.72717019752599</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -5307,22 +5320,22 @@
       </c>
       <c r="E57">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4641.9368732461489</v>
+        <v>4690.79936664874</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>25.531490790820499</v>
+        <v>25.800243325460542</v>
       </c>
       <c r="M57" s="1">
         <v>43963</v>
       </c>
       <c r="P57">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4641.9368732461489</v>
+        <v>4690.79936664874</v>
       </c>
       <c r="Q57">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>510.62981581640997</v>
+        <v>516.00486650921084</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5334,22 +5347,22 @@
       </c>
       <c r="E58">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4663.2264916951817</v>
+        <v>4712.3130863446049</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>21.289618449032787</v>
+        <v>21.513719695864893</v>
       </c>
       <c r="M58" s="1">
         <v>43964</v>
       </c>
       <c r="P58">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4663.2264916951817</v>
+        <v>4712.3130863446049</v>
       </c>
       <c r="Q58">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>425.79236898065574</v>
+        <v>430.27439391729786</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -5361,22 +5374,22 @@
       </c>
       <c r="E59">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4680.8329838880854</v>
+        <v>4730.1049100342761</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>17.606492192903715</v>
+        <v>17.791823689671219</v>
       </c>
       <c r="M59" s="1">
         <v>43965</v>
       </c>
       <c r="P59">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4680.8329838880854</v>
+        <v>4730.1049100342761</v>
       </c>
       <c r="Q59">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>352.12984385807431</v>
+        <v>355.83647379342437</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -5388,22 +5401,22 @@
       </c>
       <c r="E60">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4695.2737772915661</v>
+        <v>4744.6977117893721</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>14.440793403480711</v>
+        <v>14.592801755095934</v>
       </c>
       <c r="M60" s="1">
         <v>43966</v>
       </c>
       <c r="P60">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4695.2737772915661</v>
+        <v>4744.6977117893721</v>
       </c>
       <c r="Q60">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>288.81586806961423</v>
+        <v>291.85603510191868</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -5415,22 +5428,22 @@
       </c>
       <c r="E61">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4707.0206571424833</v>
+        <v>4756.5682430071411</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>11.746879850917139</v>
+        <v>11.870531217768985</v>
       </c>
       <c r="M61" s="1">
         <v>43967</v>
       </c>
       <c r="P61">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4707.0206571424833</v>
+        <v>4756.5682430071411</v>
       </c>
       <c r="Q61">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>234.93759701834279</v>
+        <v>237.4106243553797</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -5442,22 +5455,22 @@
       </c>
       <c r="E62">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4716.4975779999741</v>
+        <v>4766.1449209262892</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>9.476920857490768</v>
+        <v>9.5766779191480964</v>
       </c>
       <c r="M62" s="1">
         <v>43968</v>
       </c>
       <c r="P62">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4716.4975779999741</v>
+        <v>4766.1449209262892</v>
       </c>
       <c r="Q62">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>189.53841714981536</v>
+        <v>191.53355838296193</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -5469,22 +5482,22 @@
       </c>
       <c r="E63">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4724.080301773226</v>
+        <v>4773.8074628445229</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>7.5827237732519279</v>
+        <v>7.6625419182337282</v>
       </c>
       <c r="M63" s="1">
         <v>43969</v>
       </c>
       <c r="P63">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4724.080301773226</v>
+        <v>4773.8074628445229</v>
       </c>
       <c r="Q63">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>151.65447546503856</v>
+        <v>153.25083836467456</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -5496,22 +5509,22 @@
       </c>
       <c r="E64">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4730.0975298275926</v>
+        <v>4779.8880301415666</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>6.0172280543665693</v>
+        <v>6.0805672970436717</v>
       </c>
       <c r="M64" s="1">
         <v>43970</v>
       </c>
       <c r="P64">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4730.0975298275926</v>
+        <v>4779.8880301415666</v>
       </c>
       <c r="Q64">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>120.34456108733139</v>
+        <v>121.61134594087343</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -5523,22 +5536,22 @@
       </c>
       <c r="E65">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4734.8331947035704</v>
+        <v>4784.6735441215033</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>4.7356648759778182</v>
+        <v>4.7855139799366953</v>
       </c>
       <c r="M65" s="1">
         <v>43971</v>
       </c>
       <c r="P65">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4734.8331947035704</v>
+        <v>4784.6735441215033</v>
       </c>
       <c r="Q65">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>94.713297519556363</v>
+        <v>95.710279598733905</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -5550,22 +5563,22 @@
       </c>
       <c r="E66">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4738.5295925171422</v>
+        <v>4788.4088513857441</v>
       </c>
       <c r="F66">
         <f t="shared" ref="F66:F74" si="2">E66-E65</f>
-        <v>3.6963978135718207</v>
+        <v>3.7353072642408733</v>
       </c>
       <c r="M66" s="1">
         <v>43972</v>
       </c>
       <c r="P66">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4738.5295925171422</v>
+        <v>4788.4088513857441</v>
       </c>
       <c r="Q66">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>73.927956271436415</v>
+        <v>74.706145284817467</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -5577,22 +5590,22 @@
       </c>
       <c r="E67">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4741.391065835136</v>
+        <v>4791.3004454755055</v>
       </c>
       <c r="F67">
         <f t="shared" si="2"/>
-        <v>2.8614733179938412</v>
+        <v>2.8915940897613837</v>
       </c>
       <c r="M67" s="1">
         <v>43973</v>
       </c>
       <c r="P67">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4741.391065835136</v>
+        <v>4791.3004454755055</v>
       </c>
       <c r="Q67">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>57.229466359876824</v>
+        <v>57.831881795227673</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -5604,22 +5617,22 @@
       </c>
       <c r="E68">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4743.5879843497569</v>
+        <v>4793.5204894481758</v>
       </c>
       <c r="F68">
         <f t="shared" si="2"/>
-        <v>2.1969185146208474</v>
+        <v>2.2200439726702825</v>
       </c>
       <c r="M68" s="1">
         <v>43974</v>
       </c>
       <c r="P68">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4743.5879843497569</v>
+        <v>4793.5204894481758</v>
       </c>
       <c r="Q68">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>43.938370292416948</v>
+        <v>44.400879453405651</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -5631,22 +5644,22 @@
       </c>
       <c r="E69">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4745.2608129651326</v>
+        <v>4795.2109267858177</v>
       </c>
       <c r="F69">
         <f t="shared" si="2"/>
-        <v>1.6728286153756926</v>
+        <v>1.6904373376419244</v>
       </c>
       <c r="M69" s="1">
         <v>43975</v>
       </c>
       <c r="P69">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4745.2608129651326</v>
+        <v>4795.2109267858177</v>
       </c>
       <c r="Q69">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>33.456572307513852</v>
+        <v>33.808746752838488</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -5658,22 +5671,22 @@
       </c>
       <c r="E70">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4746.524100468635</v>
+        <v>4796.4875120525157</v>
       </c>
       <c r="F70">
         <f t="shared" si="2"/>
-        <v>1.2632875035023972</v>
+        <v>1.2765852666980209</v>
       </c>
       <c r="M70" s="1">
         <v>43976</v>
       </c>
       <c r="P70">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4746.524100468635</v>
+        <v>4796.4875120525157</v>
       </c>
       <c r="Q70">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>25.265750070047943</v>
+        <v>25.531705333960417</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -5685,11 +5698,11 @@
       </c>
       <c r="E71">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4747.4702639938905</v>
+        <v>4797.4436351938266</v>
       </c>
       <c r="F71">
         <f t="shared" si="2"/>
-        <v>0.94616352525554248</v>
+        <v>0.95612314131085441</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -5701,11 +5714,11 @@
       </c>
       <c r="E72">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4748.1730829292883</v>
+        <v>4798.1538522232813</v>
       </c>
       <c r="F72">
         <f t="shared" si="2"/>
-        <v>0.70281893539777229</v>
+        <v>0.71021702945472498</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -5717,11 +5730,11 @@
       </c>
       <c r="E73">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4748.6908494380332</v>
+        <v>4798.6770689058012</v>
       </c>
       <c r="F73">
         <f t="shared" si="2"/>
-        <v>0.5177665087448986</v>
+        <v>0.5232166825198874</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -5733,11 +5746,11 @@
       </c>
       <c r="E74">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4749.0691506260637</v>
+        <v>4799.0593522116005</v>
       </c>
       <c r="F74">
         <f t="shared" si="2"/>
-        <v>0.37830118803049118</v>
+        <v>0.38228330579931935</v>
       </c>
     </row>
   </sheetData>

--- a/MA case analysis.xlsx
+++ b/MA case analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mserviciosrc-my.sharepoint.com/personal/lmelahn_lcred_org/Documents/COVID/MA-Covid-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{57D028E9-32F3-A142-888D-E37C1EB3B3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{91FF672E-93DE-B64A-9E4C-CD8479AD0D81}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{57D028E9-32F3-A142-888D-E37C1EB3B3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C0453B0-15E2-5047-B6C3-A7CFC1C52BCF}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{53B553D5-63C9-1943-8F02-62576D22A04A}"/>
   </bookViews>
@@ -3160,7 +3160,7 @@
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3386,7 +3386,7 @@
         <v>20</v>
       </c>
       <c r="I5">
-        <v>6.5000000000000002E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>

--- a/MA case analysis.xlsx
+++ b/MA case analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mserviciosrc-my.sharepoint.com/personal/lmelahn_lcred_org/Documents/COVID/MA-Covid-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{57D028E9-32F3-A142-888D-E37C1EB3B3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C0453B0-15E2-5047-B6C3-A7CFC1C52BCF}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{57D028E9-32F3-A142-888D-E37C1EB3B3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD6BA74D-0217-6E47-8EEC-EF11FA40A00D}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{53B553D5-63C9-1943-8F02-62576D22A04A}"/>
   </bookViews>
@@ -540,13 +540,13 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>99</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>154</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>189</c:v>
@@ -558,91 +558,91 @@
                   <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>306</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>373</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>519</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>619</c:v>
+                  <c:v>623</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>731</c:v>
+                  <c:v>735</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>836</c:v>
+                  <c:v>841</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>953</c:v>
+                  <c:v>959</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1064</c:v>
+                  <c:v>1072</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1222</c:v>
+                  <c:v>1233</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1341</c:v>
+                  <c:v>1353</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1516</c:v>
+                  <c:v>1528</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1683</c:v>
+                  <c:v>1701</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1845</c:v>
+                  <c:v>1871</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2011</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2182</c:v>
+                  <c:v>2212</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2352</c:v>
+                  <c:v>2382</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2504</c:v>
+                  <c:v>2542</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2654</c:v>
+                  <c:v>2695</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2843</c:v>
+                  <c:v>2884</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3027</c:v>
+                  <c:v>3079</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3170</c:v>
+                  <c:v>3226</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3316</c:v>
+                  <c:v>3378</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3475</c:v>
+                  <c:v>3537</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3613</c:v>
+                  <c:v>3681</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3755</c:v>
+                  <c:v>3841</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3877</c:v>
+                  <c:v>3981</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3999</c:v>
+                  <c:v>4155</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4056</c:v>
+                  <c:v>4292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,211 +903,211 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="0">
-                  <c:v>6.4795105518244478</c:v>
+                  <c:v>663.80993578051493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6995545244946033</c:v>
+                  <c:v>726.0036343920774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.59114861425584</c:v>
+                  <c:v>792.3733025014144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.326455878496937</c:v>
+                  <c:v>863.02252666281208</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.111969858432783</c:v>
+                  <c:v>938.03951727862682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.192537155477105</c:v>
+                  <c:v>1017.4954570978698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.855079073710868</c:v>
+                  <c:v>1101.4429228192196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.431756992858659</c:v>
+                  <c:v>1189.9144044859274</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.302288210628411</c:v>
+                  <c:v>1282.9209473136139</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.895089965724125</c:v>
+                  <c:v>1380.4509401006962</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.686913655395117</c:v>
+                  <c:v>1482.4690734201929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>109.20063335126012</c:v>
+                  <c:v>1588.9154893754746</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>135.0008766767204</c:v>
+                  <c:v>1699.7051428265115</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>165.68723518659661</c:v>
+                  <c:v>1814.7273916730474</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>201.88486751499241</c:v>
+                  <c:v>1933.8458310439851</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>244.23241188301833</c:v>
+                  <c:v>2056.8983831255518</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>293.36725307522829</c:v>
+                  <c:v>2183.6976509125975</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>349.90833828474246</c:v>
+                  <c:v>2314.0315404449016</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>414.43689940499632</c:v>
+                  <c:v>2447.6641521593997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>487.47560722351562</c:v>
+                  <c:v>2584.3369379225683</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>569.46684448386793</c:v>
+                  <c:v>2723.7701161828568</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>660.75092765271017</c:v>
+                  <c:v>2865.6643335828549</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>761.54521887099361</c:v>
+                  <c:v>3009.702557378072</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>871.92513812855498</c:v>
+                  <c:v>3155.552179206727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>991.80810118473721</c:v>
+                  <c:v>3302.8673072231813</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1120.9413641164165</c:v>
+                  <c:v>3451.2912204222825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1258.8946474447509</c:v>
+                  <c:v>3600.4589562122064</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1405.0582429654251</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1558.6470809442112</c:v>
+                  <c:v>3899.5410437877936</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1718.7109652533568</c:v>
+                  <c:v>4048.7087795777175</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1884.1508845141425</c:v>
+                  <c:v>4197.1326927768187</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2053.7409967681715</c:v>
+                  <c:v>4344.4478207932725</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2226.155583854907</c:v>
+                  <c:v>4490.297442621928</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2400</c:v>
+                  <c:v>4634.3356664171451</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2573.844416145093</c:v>
+                  <c:v>4776.2298838171437</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2746.2590032318285</c:v>
+                  <c:v>4915.6630620774322</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2915.8491154858575</c:v>
+                  <c:v>5052.3358478405999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3081.2890347466432</c:v>
+                  <c:v>5185.968459555098</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3241.3529190557888</c:v>
+                  <c:v>5316.302349087402</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3394.9417570345749</c:v>
+                  <c:v>5443.1016168744482</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3541.1053525552493</c:v>
+                  <c:v>5566.1541689560145</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3679.0586358835835</c:v>
+                  <c:v>5685.2726083269526</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3808.1918988152629</c:v>
+                  <c:v>5800.2948571734878</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3928.0748618714451</c:v>
+                  <c:v>5911.0845106245251</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4038.4547811290067</c:v>
+                  <c:v>6017.5309265798069</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4139.2490723472902</c:v>
+                  <c:v>6119.5490598993038</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4230.533155516132</c:v>
+                  <c:v>6217.0790526863857</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4312.524392776485</c:v>
+                  <c:v>6310.0855955140723</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4385.5631005950036</c:v>
+                  <c:v>6398.5570771807807</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4450.0916617152579</c:v>
+                  <c:v>6482.5045429021302</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4506.6327469247717</c:v>
+                  <c:v>6561.9604827213734</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4555.7675881169816</c:v>
+                  <c:v>6636.9774733371887</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4598.1151324850071</c:v>
+                  <c:v>6707.6266974985856</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4634.3127648134032</c:v>
+                  <c:v>6773.9963656079226</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4664.9991233232795</c:v>
+                  <c:v>6836.1900642194851</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4690.79936664874</c:v>
+                  <c:v>6894.3250557467172</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4712.3130863446049</c:v>
+                  <c:v>6948.5305529276366</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4730.1049100342761</c:v>
+                  <c:v>6998.9459904835639</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4744.6977117893721</c:v>
+                  <c:v>7045.7193149845571</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4756.5682430071411</c:v>
+                  <c:v>7089.0053122533154</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4766.1449209262892</c:v>
+                  <c:v>7128.9639897476391</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4773.8074628445229</c:v>
+                  <c:v>7165.7590293109279</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4779.8880301415666</c:v>
+                  <c:v>7199.5563235213713</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4784.6735441215033</c:v>
+                  <c:v>7230.5226066530568</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4788.4088513857441</c:v>
+                  <c:v>7258.8241890328973</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4791.3004454755055</c:v>
+                  <c:v>7284.6258013799861</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4793.5204894481758</c:v>
+                  <c:v>7308.0895535877107</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4795.2109267858177</c:v>
+                  <c:v>7329.3740103886557</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4796.4875120525157</c:v>
+                  <c:v>7348.6333844572173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,208 +1368,208 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
                 <c:pt idx="1">
-                  <c:v>44.400879453403107</c:v>
+                  <c:v>1243.8739722312494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.831881795224724</c:v>
+                  <c:v>1327.39336218674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.706145284821943</c:v>
+                  <c:v>1412.9844832279537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.710279598716923</c:v>
+                  <c:v>1500.3398123162947</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121.61134594088644</c:v>
+                  <c:v>1589.1187963848597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>153.25083836467527</c:v>
+                  <c:v>1678.9493144269954</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>191.53355838295582</c:v>
+                  <c:v>1769.4296333341572</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>237.41062435539504</c:v>
+                  <c:v>1860.1308565537283</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>291.85603510191424</c:v>
+                  <c:v>1950.5998557416478</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>355.83647379341983</c:v>
+                  <c:v>2040.3626663899331</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>430.27439391730013</c:v>
+                  <c:v>2128.9283191056347</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>516.00486650920539</c:v>
+                  <c:v>2215.7930690207377</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>613.72717019752429</c:v>
+                  <c:v>2300.4449769307166</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>723.95264656791596</c:v>
+                  <c:v>2382.3687874187544</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>846.95088736051844</c:v>
+                  <c:v>2461.0510416313355</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>982.69682384419923</c:v>
+                  <c:v>2535.9853557409133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1130.8217041902833</c:v>
+                  <c:v>2606.6777906460811</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1290.5712224050774</c:v>
+                  <c:v>2672.6522342899625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1460.774156370386</c:v>
+                  <c:v>2733.4557152633715</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1639.8247452070461</c:v>
+                  <c:v>2788.6635652057703</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1825.6816633768449</c:v>
+                  <c:v>2837.8843479999614</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2015.8858243656687</c:v>
+                  <c:v>2880.7644759043433</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2207.5983851512274</c:v>
+                  <c:v>2916.9924365731003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2397.6592611236447</c:v>
+                  <c:v>2946.3025603290862</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2582.6652586335854</c:v>
+                  <c:v>2968.4782639820241</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2759.0656665666893</c:v>
+                  <c:v>2983.3547157984776</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2923.2719104134821</c:v>
+                  <c:v>2990.8208757558714</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3071.7767595757232</c:v>
+                  <c:v>2990.8208757558714</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3201.2776861829116</c:v>
+                  <c:v>2983.3547157984776</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3308.798385215714</c:v>
+                  <c:v>2968.4782639820241</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3391.8022450805802</c:v>
+                  <c:v>2946.3025603290771</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3448.2917417347107</c:v>
+                  <c:v>2916.9924365731094</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3476.8883229018593</c:v>
+                  <c:v>2880.7644759043433</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3476.8883229018593</c:v>
+                  <c:v>2837.8843479999705</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3448.2917417347107</c:v>
+                  <c:v>2788.6635652057703</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3391.8022450805802</c:v>
+                  <c:v>2733.4557152633533</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3308.798385215714</c:v>
+                  <c:v>2672.6522342899625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3201.2776861829116</c:v>
+                  <c:v>2606.6777906460811</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3071.7767595757232</c:v>
+                  <c:v>2535.9853557409224</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2923.2719104134867</c:v>
+                  <c:v>2461.0510416313264</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2759.0656665666847</c:v>
+                  <c:v>2382.3687874187635</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2582.6652586335877</c:v>
+                  <c:v>2300.444976930703</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2397.6592611236447</c:v>
+                  <c:v>2215.7930690207468</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2207.5983851512319</c:v>
+                  <c:v>2128.9283191056347</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2015.8858243656687</c:v>
+                  <c:v>2040.3626663899377</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1825.6816633768358</c:v>
+                  <c:v>1950.5998557416387</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1639.8247452070609</c:v>
+                  <c:v>1860.1308565537329</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1460.7741563703712</c:v>
+                  <c:v>1769.4296333341663</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1290.5712224050876</c:v>
+                  <c:v>1678.9493144269909</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1130.8217041902753</c:v>
+                  <c:v>1589.1187963848643</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>982.69682384419866</c:v>
+                  <c:v>1500.3398123163061</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>846.9508873605082</c:v>
+                  <c:v>1412.9844832279377</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>723.95264656792278</c:v>
+                  <c:v>1327.39336218674</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>613.72717019752599</c:v>
+                  <c:v>1243.8739722312494</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>516.00486650921084</c:v>
+                  <c:v>1162.6998305446432</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>430.27439391729786</c:v>
+                  <c:v>1084.1099436183868</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>355.83647379342437</c:v>
+                  <c:v>1008.3087511185477</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>291.85603510191868</c:v>
+                  <c:v>935.46649001986225</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>237.4106243553797</c:v>
+                  <c:v>865.7199453751673</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>191.53355838296193</c:v>
+                  <c:v>799.17354988647276</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>153.25083836467456</c:v>
+                  <c:v>735.90079126577621</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>121.61134594087343</c:v>
+                  <c:v>675.94588420886794</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>95.710279598733905</c:v>
+                  <c:v>619.32566263370973</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>74.706145284817467</c:v>
+                  <c:v>566.03164759681022</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>57.831881795227673</c:v>
+                  <c:v>516.03224694177698</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>44.400879453405651</c:v>
+                  <c:v>469.27504415449221</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>33.808746752838488</c:v>
+                  <c:v>425.68913601890017</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>25.531705333960417</c:v>
+                  <c:v>385.18748137123112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,16 +1873,16 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>540</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>520</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>580</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>700</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>840</c:v>
@@ -1891,16 +1891,16 @@
                   <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>780</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1340</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1580</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1340</c:v>
+                  <c:v>1420</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2000</c:v>
@@ -1909,73 +1909,73 @@
                   <c:v>2240</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2100</c:v>
+                  <c:v>2120</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2340</c:v>
+                  <c:v>2360</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2220</c:v>
+                  <c:v>2260</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3160</c:v>
+                  <c:v>3220</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2380</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>3460</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>3340</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>3240</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3320</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>3420</c:v>
+                  <c:v>3480</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3040</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3000</c:v>
+                  <c:v>3060</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3780</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3680</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2860</c:v>
+                  <c:v>2940</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2920</c:v>
+                  <c:v>3040</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3180</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2760</c:v>
+                  <c:v>2880</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2840</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2440</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2440</c:v>
+                  <c:v>3480</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1140</c:v>
+                  <c:v>2740</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,7 +2064,6 @@
         <c:axId val="1491139184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2774,16 +2773,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3159,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039AF893-0F3E-7648-8E22-05B45FBF5E08}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3233,17 +3232,18 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <f>SUM(C$2:C2)</f>
         <v>2</v>
       </c>
       <c r="E2">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>6.4795105518244478</v>
+        <v>663.80993578051493</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="P2">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>6.4795105518244478</v>
+        <v>663.80993578051493</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -3276,21 +3276,22 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <f>SUM(C$2:C3)</f>
         <v>3</v>
       </c>
       <c r="E3">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>8.6995545244946033</v>
+        <v>726.0036343920774</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F33" si="0">E3-E2</f>
-        <v>2.2200439726701555</v>
+        <v>62.193698611562468</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -3299,18 +3300,20 @@
         <v>43909</v>
       </c>
       <c r="N3">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>20</v>
       </c>
       <c r="O3">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>3</v>
       </c>
       <c r="P3">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>8.6995545244946033</v>
+        <v>726.0036343920774</v>
       </c>
       <c r="Q3">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>44.400879453403107</v>
+        <v>1243.8739722312494</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -3324,21 +3327,22 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <f>SUM(C$2:C4)</f>
         <v>5</v>
       </c>
       <c r="E4">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>11.59114861425584</v>
+        <v>792.3733025014144</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>2.8915940897612362</v>
+        <v>66.369668109336999</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -3347,18 +3351,20 @@
         <v>43910</v>
       </c>
       <c r="N4">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>40</v>
       </c>
       <c r="O4">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>5</v>
       </c>
       <c r="P4">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>11.59114861425584</v>
+        <v>792.3733025014144</v>
       </c>
       <c r="Q4">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>57.831881795224724</v>
+        <v>1327.39336218674</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -3372,15 +3378,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <f>SUM(C$2:C5)</f>
         <v>7</v>
       </c>
       <c r="E5">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>15.326455878496937</v>
+        <v>863.02252666281208</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>3.7353072642410972</v>
+        <v>70.649224161397683</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -3395,18 +3402,20 @@
         <v>43911</v>
       </c>
       <c r="N5">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>40</v>
       </c>
       <c r="O5">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>7</v>
       </c>
       <c r="P5">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>15.326455878496937</v>
+        <v>863.02252666281208</v>
       </c>
       <c r="Q5">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>74.706145284821943</v>
+        <v>1412.9844832279537</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -3420,15 +3429,16 @@
         <v>4</v>
       </c>
       <c r="D6">
+        <f>SUM(C$2:C6)</f>
         <v>11</v>
       </c>
       <c r="E6">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>20.111969858432783</v>
+        <v>938.03951727862682</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>4.7855139799358462</v>
+        <v>75.016990615814734</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
@@ -3443,18 +3453,20 @@
         <v>43912</v>
       </c>
       <c r="N6">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>80</v>
       </c>
       <c r="O6">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>11</v>
       </c>
       <c r="P6">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>20.111969858432783</v>
+        <v>938.03951727862682</v>
       </c>
       <c r="Q6">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>95.710279598716923</v>
+        <v>1500.3398123162947</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -3468,32 +3480,35 @@
         <v>6</v>
       </c>
       <c r="D7">
+        <f>SUM(C$2:C7)</f>
         <v>17</v>
       </c>
       <c r="E7">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>26.192537155477105</v>
+        <v>1017.4954570978698</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>6.0805672970443219</v>
+        <v>79.455939819242985</v>
       </c>
       <c r="M7" s="1">
         <v>43913</v>
       </c>
       <c r="N7">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>120</v>
       </c>
       <c r="O7">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>17</v>
       </c>
       <c r="P7">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>26.192537155477105</v>
+        <v>1017.4954570978698</v>
       </c>
       <c r="Q7">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>121.61134594088644</v>
+        <v>1589.1187963848597</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3507,32 +3522,35 @@
         <v>9</v>
       </c>
       <c r="D8">
+        <f>SUM(C$2:C8)</f>
         <v>26</v>
       </c>
       <c r="E8">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>33.855079073710868</v>
+        <v>1101.4429228192196</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>7.6625419182337637</v>
+        <v>83.947465721349772</v>
       </c>
       <c r="M8" s="1">
         <v>43914</v>
       </c>
       <c r="N8">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>180</v>
       </c>
       <c r="O8">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>26</v>
       </c>
       <c r="P8">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>33.855079073710868</v>
+        <v>1101.4429228192196</v>
       </c>
       <c r="Q8">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>153.25083836467527</v>
+        <v>1678.9493144269954</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -3546,32 +3564,35 @@
         <v>7</v>
       </c>
       <c r="D9">
+        <f>SUM(C$2:C9)</f>
         <v>33</v>
       </c>
       <c r="E9">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>43.431756992858659</v>
+        <v>1189.9144044859274</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>9.5766779191477909</v>
+        <v>88.471481666707859</v>
       </c>
       <c r="M9" s="1">
         <v>43915</v>
       </c>
       <c r="N9">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>140</v>
       </c>
       <c r="O9">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>33</v>
       </c>
       <c r="P9">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>43.431756992858659</v>
+        <v>1189.9144044859274</v>
       </c>
       <c r="Q9">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>191.53355838295582</v>
+        <v>1769.4296333341572</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3585,32 +3606,35 @@
         <v>9</v>
       </c>
       <c r="D10">
+        <f>SUM(C$2:C10)</f>
         <v>42</v>
       </c>
       <c r="E10">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>55.302288210628411</v>
+        <v>1282.9209473136139</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>11.870531217769752</v>
+        <v>93.006542827686417</v>
       </c>
       <c r="M10" s="1">
         <v>43916</v>
       </c>
       <c r="N10">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>180</v>
       </c>
       <c r="O10">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>42</v>
       </c>
       <c r="P10">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>55.302288210628411</v>
+        <v>1282.9209473136139</v>
       </c>
       <c r="Q10">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>237.41062435539504</v>
+        <v>1860.1308565537283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -3624,32 +3648,35 @@
         <v>15</v>
       </c>
       <c r="D11">
+        <f>SUM(C$2:C11)</f>
         <v>57</v>
       </c>
       <c r="E11">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>69.895089965724125</v>
+        <v>1380.4509401006962</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>14.592801755095714</v>
+        <v>97.529992787082392</v>
       </c>
       <c r="M11" s="1">
         <v>43917</v>
       </c>
       <c r="N11">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>300</v>
       </c>
       <c r="O11">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>57</v>
       </c>
       <c r="P11">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>69.895089965724125</v>
+        <v>1380.4509401006962</v>
       </c>
       <c r="Q11">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>291.85603510191424</v>
+        <v>1950.5998557416478</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3663,32 +3690,35 @@
         <v>15</v>
       </c>
       <c r="D12">
+        <f>SUM(C$2:C12)</f>
         <v>72</v>
       </c>
       <c r="E12">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>87.686913655395117</v>
+        <v>1482.4690734201929</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>17.791823689670991</v>
+        <v>102.01813331949666</v>
       </c>
       <c r="M12" s="1">
         <v>43918</v>
       </c>
       <c r="N12">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>300</v>
       </c>
       <c r="O12">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>72</v>
       </c>
       <c r="P12">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>87.686913655395117</v>
+        <v>1482.4690734201929</v>
       </c>
       <c r="Q12">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>355.83647379341983</v>
+        <v>2040.3626663899331</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -3702,32 +3732,35 @@
         <v>25</v>
       </c>
       <c r="D13">
+        <f>SUM(C$2:C13)</f>
         <v>97</v>
       </c>
       <c r="E13">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>109.20063335126012</v>
+        <v>1588.9154893754746</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>21.513719695865007</v>
+        <v>106.44641595528174</v>
       </c>
       <c r="M13" s="1">
         <v>43919</v>
       </c>
       <c r="N13">
-        <v>540</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>500</v>
       </c>
       <c r="O13">
-        <v>99</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>97</v>
       </c>
       <c r="P13">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>109.20063335126012</v>
+        <v>1588.9154893754746</v>
       </c>
       <c r="Q13">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>430.27439391730013</v>
+        <v>2128.9283191056347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -3741,32 +3774,35 @@
         <v>28</v>
       </c>
       <c r="D14">
+        <f>SUM(C$2:C14)</f>
         <v>125</v>
       </c>
       <c r="E14">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>135.0008766767204</v>
+        <v>1699.7051428265115</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>25.800243325460272</v>
+        <v>110.78965345103688</v>
       </c>
       <c r="M14" s="1">
         <v>43920</v>
       </c>
       <c r="N14">
-        <v>520</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>560</v>
       </c>
       <c r="O14">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>125</v>
       </c>
       <c r="P14">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>135.0008766767204</v>
+        <v>1699.7051428265115</v>
       </c>
       <c r="Q14">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>516.00486650920539</v>
+        <v>2215.7930690207377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -3777,35 +3813,38 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>154</v>
+        <f>SUM(C$2:C15)</f>
+        <v>153</v>
       </c>
       <c r="E15">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>165.68723518659661</v>
+        <v>1814.7273916730474</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>30.686358509876214</v>
+        <v>115.02224884653583</v>
       </c>
       <c r="M15" s="1">
         <v>43921</v>
       </c>
       <c r="N15">
-        <v>580</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>560</v>
       </c>
       <c r="O15">
-        <v>154</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>153</v>
       </c>
       <c r="P15">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>165.68723518659661</v>
+        <v>1814.7273916730474</v>
       </c>
       <c r="Q15">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>613.72717019752429</v>
+        <v>2300.4449769307166</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -3816,35 +3855,38 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16">
+        <f>SUM(C$2:C16)</f>
         <v>189</v>
       </c>
       <c r="E16">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>201.88486751499241</v>
+        <v>1933.8458310439851</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>36.197632328395798</v>
+        <v>119.11843937093772</v>
       </c>
       <c r="M16" s="1">
         <v>43922</v>
       </c>
       <c r="N16">
-        <v>700</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>720</v>
       </c>
       <c r="O16">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>189</v>
       </c>
       <c r="P16">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>201.88486751499241</v>
+        <v>1933.8458310439851</v>
       </c>
       <c r="Q16">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>723.95264656791596</v>
+        <v>2382.3687874187544</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -3858,32 +3900,35 @@
         <v>42</v>
       </c>
       <c r="D17">
+        <f>SUM(C$2:C17)</f>
         <v>231</v>
       </c>
       <c r="E17">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>244.23241188301833</v>
+        <v>2056.8983831255518</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>42.347544368025922</v>
+        <v>123.05255208156677</v>
       </c>
       <c r="M17" s="1">
         <v>43923</v>
       </c>
       <c r="N17">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>840</v>
       </c>
       <c r="O17">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>231</v>
       </c>
       <c r="P17">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>244.23241188301833</v>
+        <v>2056.8983831255518</v>
       </c>
       <c r="Q17">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>846.95088736051844</v>
+        <v>2461.0510416313355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -3894,35 +3939,38 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>268</v>
+        <f>SUM(C$2:C18)</f>
+        <v>267</v>
       </c>
       <c r="E18">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>293.36725307522829</v>
+        <v>2183.6976509125975</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>49.134841192209961</v>
+        <v>126.79926778704566</v>
       </c>
       <c r="M18" s="1">
         <v>43924</v>
       </c>
       <c r="N18">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>720</v>
       </c>
       <c r="O18">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>267</v>
       </c>
       <c r="P18">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>293.36725307522829</v>
+        <v>2183.6976509125975</v>
       </c>
       <c r="Q18">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>982.69682384419923</v>
+        <v>2535.9853557409133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -3933,35 +3981,38 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>306</v>
+        <f>SUM(C$2:C19)</f>
+        <v>304</v>
       </c>
       <c r="E19">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>349.90833828474246</v>
+        <v>2314.0315404449016</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>56.541085209514165</v>
+        <v>130.33388953230406</v>
       </c>
       <c r="M19" s="1">
         <v>43925</v>
       </c>
       <c r="N19">
-        <v>780</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>740</v>
       </c>
       <c r="O19">
-        <v>306</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>304</v>
       </c>
       <c r="P19">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>349.90833828474246</v>
+        <v>2314.0315404449016</v>
       </c>
       <c r="Q19">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1130.8217041902833</v>
+        <v>2606.6777906460811</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -3975,32 +4026,35 @@
         <v>68</v>
       </c>
       <c r="D20">
-        <v>374</v>
+        <f>SUM(C$2:C20)</f>
+        <v>372</v>
       </c>
       <c r="E20">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>414.43689940499632</v>
+        <v>2447.6641521593997</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>64.528561120253869</v>
+        <v>133.63261171449813</v>
       </c>
       <c r="M20" s="1">
         <v>43926</v>
       </c>
       <c r="N20">
-        <v>1340</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>1360</v>
       </c>
       <c r="O20">
-        <v>373</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>372</v>
       </c>
       <c r="P20">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>414.43689940499632</v>
+        <v>2447.6641521593997</v>
       </c>
       <c r="Q20">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1290.5712224050774</v>
+        <v>2672.6522342899625</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -4011,35 +4065,38 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21">
-        <v>453</v>
+        <f>SUM(C$2:C21)</f>
+        <v>452</v>
       </c>
       <c r="E21">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>487.47560722351562</v>
+        <v>2584.3369379225683</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>73.038707818519299</v>
+        <v>136.67278576316858</v>
       </c>
       <c r="M21" s="1">
         <v>43927</v>
       </c>
       <c r="N21">
-        <v>1580</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>1600</v>
       </c>
       <c r="O21">
+        <f>Table1[[#This Row],[Running Total]]</f>
         <v>452</v>
       </c>
       <c r="P21">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>487.47560722351562</v>
+        <v>2584.3369379225683</v>
       </c>
       <c r="Q21">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1460.774156370386</v>
+        <v>2733.4557152633715</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -4050,35 +4107,38 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22">
-        <v>521</v>
+        <f>SUM(C$2:C22)</f>
+        <v>523</v>
       </c>
       <c r="E22">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>569.46684448386793</v>
+        <v>2723.7701161828568</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>81.991237260352307</v>
+        <v>139.43317826028851</v>
       </c>
       <c r="M22" s="1">
         <v>43928</v>
       </c>
       <c r="N22">
-        <v>1340</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>1420</v>
       </c>
       <c r="O22">
-        <v>519</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>523</v>
       </c>
       <c r="P22">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>569.46684448386793</v>
+        <v>2723.7701161828568</v>
       </c>
       <c r="Q22">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1639.8247452070461</v>
+        <v>2788.6635652057703</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -4092,32 +4152,35 @@
         <v>100</v>
       </c>
       <c r="D23">
-        <v>621</v>
+        <f>SUM(C$2:C23)</f>
+        <v>623</v>
       </c>
       <c r="E23">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>660.75092765271017</v>
+        <v>2865.6643335828549</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>91.284083168842244</v>
+        <v>141.89421739999807</v>
       </c>
       <c r="M23" s="1">
         <v>43929</v>
       </c>
       <c r="N23">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>2000</v>
       </c>
       <c r="O23">
-        <v>619</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>623</v>
       </c>
       <c r="P23">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>660.75092765271017</v>
+        <v>2865.6643335828549</v>
       </c>
       <c r="Q23">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1825.6816633768449</v>
+        <v>2837.8843479999614</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -4128,35 +4191,38 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D24">
-        <v>732</v>
+        <f>SUM(C$2:C24)</f>
+        <v>735</v>
       </c>
       <c r="E24">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>761.54521887099361</v>
+        <v>3009.702557378072</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>100.79429121828343</v>
+        <v>144.03822379521716</v>
       </c>
       <c r="M24" s="1">
         <v>43930</v>
       </c>
       <c r="N24">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>2240</v>
       </c>
       <c r="O24">
-        <v>731</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>735</v>
       </c>
       <c r="P24">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>761.54521887099361</v>
+        <v>3009.702557378072</v>
       </c>
       <c r="Q24">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2015.8858243656687</v>
+        <v>2880.7644759043433</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -4167,35 +4233,38 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25">
-        <v>837</v>
+        <f>SUM(C$2:C25)</f>
+        <v>841</v>
       </c>
       <c r="E25">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>871.92513812855498</v>
+        <v>3155.552179206727</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>110.37991925756137</v>
+        <v>145.84962182865502</v>
       </c>
       <c r="M25" s="1">
         <v>43931</v>
       </c>
       <c r="N25">
-        <v>2100</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>2120</v>
       </c>
       <c r="O25">
-        <v>836</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>841</v>
       </c>
       <c r="P25">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>871.92513812855498</v>
+        <v>3155.552179206727</v>
       </c>
       <c r="Q25">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2207.5983851512274</v>
+        <v>2916.9924365731003</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -4206,35 +4275,38 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26">
-        <v>954</v>
+        <f>SUM(C$2:C26)</f>
+        <v>959</v>
       </c>
       <c r="E26">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>991.80810118473721</v>
+        <v>3302.8673072231813</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>119.88296305618223</v>
+        <v>147.31512801645431</v>
       </c>
       <c r="M26" s="1">
         <v>43932</v>
       </c>
       <c r="N26">
-        <v>2340</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>2360</v>
       </c>
       <c r="O26">
-        <v>953</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>959</v>
       </c>
       <c r="P26">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>991.80810118473721</v>
+        <v>3302.8673072231813</v>
       </c>
       <c r="Q26">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2397.6592611236447</v>
+        <v>2946.3025603290862</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -4245,35 +4317,38 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D27">
-        <v>1064</v>
+        <f>SUM(C$2:C27)</f>
+        <v>1072</v>
       </c>
       <c r="E27">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>1120.9413641164165</v>
+        <v>3451.2912204222825</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>129.13326293167927</v>
+        <v>148.42391319910121</v>
       </c>
       <c r="M27" s="1">
         <v>43933</v>
       </c>
       <c r="N27">
-        <v>2220</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>2260</v>
       </c>
       <c r="O27">
-        <v>1064</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>1072</v>
       </c>
       <c r="P27">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1120.9413641164165</v>
+        <v>3451.2912204222825</v>
       </c>
       <c r="Q27">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2582.6652586335854</v>
+        <v>2968.4782639820241</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -4284,35 +4359,38 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D28">
-        <v>1224</v>
+        <f>SUM(C$2:C28)</f>
+        <v>1233</v>
       </c>
       <c r="E28">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>1258.8946474447509</v>
+        <v>3600.4589562122064</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>137.95328332833446</v>
+        <v>149.16773578992388</v>
       </c>
       <c r="M28" s="1">
         <v>43934</v>
       </c>
       <c r="N28">
-        <v>3160</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>3220</v>
       </c>
       <c r="O28">
-        <v>1222</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>1233</v>
       </c>
       <c r="P28">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1258.8946474447509</v>
+        <v>3600.4589562122064</v>
       </c>
       <c r="Q28">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2759.0656665666893</v>
+        <v>2983.3547157984776</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -4323,35 +4401,38 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29">
-        <v>1343</v>
+        <f>SUM(C$2:C29)</f>
+        <v>1353</v>
       </c>
       <c r="E29">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>1405.0582429654251</v>
+        <v>3750</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>146.16359552067411</v>
+        <v>149.54104378779357</v>
       </c>
       <c r="M29" s="1">
         <v>43935</v>
       </c>
       <c r="N29">
-        <v>2380</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>2400</v>
       </c>
       <c r="O29">
-        <v>1341</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>1353</v>
       </c>
       <c r="P29">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1405.0582429654251</v>
+        <v>3750</v>
       </c>
       <c r="Q29">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2923.2719104134821</v>
+        <v>2990.8208757558714</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -4365,32 +4446,35 @@
         <v>175</v>
       </c>
       <c r="D30">
-        <v>1518</v>
+        <f>SUM(C$2:C30)</f>
+        <v>1528</v>
       </c>
       <c r="E30">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>1558.6470809442112</v>
+        <v>3899.5410437877936</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>153.58883797878616</v>
+        <v>149.54104378779357</v>
       </c>
       <c r="M30" s="1">
         <v>43936</v>
       </c>
       <c r="N30">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>3500</v>
       </c>
       <c r="O30">
-        <v>1516</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>1528</v>
       </c>
       <c r="P30">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1558.6470809442112</v>
+        <v>3899.5410437877936</v>
       </c>
       <c r="Q30">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3071.7767595757232</v>
+        <v>2990.8208757558714</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -4401,35 +4485,38 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D31">
-        <v>1685</v>
+        <f>SUM(C$2:C31)</f>
+        <v>1701</v>
       </c>
       <c r="E31">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>1718.7109652533568</v>
+        <v>4048.7087795777175</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>160.06388430914558</v>
+        <v>149.16773578992388</v>
       </c>
       <c r="M31" s="1">
         <v>43937</v>
       </c>
       <c r="N31">
-        <v>3340</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>3460</v>
       </c>
       <c r="O31">
-        <v>1683</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>1701</v>
       </c>
       <c r="P31">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1718.7109652533568</v>
+        <v>4048.7087795777175</v>
       </c>
       <c r="Q31">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3201.2776861829116</v>
+        <v>2983.3547157984776</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -4440,35 +4527,38 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D32">
-        <v>1849</v>
+        <f>SUM(C$2:C32)</f>
+        <v>1871</v>
       </c>
       <c r="E32">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>1884.1508845141425</v>
+        <v>4197.1326927768187</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>165.4399192607857</v>
+        <v>148.42391319910121</v>
       </c>
       <c r="M32" s="1">
         <v>43938</v>
       </c>
       <c r="N32">
-        <v>3240</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>3400</v>
       </c>
       <c r="O32">
-        <v>1845</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>1871</v>
       </c>
       <c r="P32">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>1884.1508845141425</v>
+        <v>4197.1326927768187</v>
       </c>
       <c r="Q32">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3308.798385215714</v>
+        <v>2968.4782639820241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -4479,35 +4569,38 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D33">
-        <v>2014</v>
+        <f>SUM(C$2:C33)</f>
+        <v>2038</v>
       </c>
       <c r="E33">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>2053.7409967681715</v>
+        <v>4344.4478207932725</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>169.59011225402901</v>
+        <v>147.31512801645385</v>
       </c>
       <c r="M33" s="1">
         <v>43939</v>
       </c>
       <c r="N33">
-        <v>3320</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>3340</v>
       </c>
       <c r="O33">
-        <v>2011</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>2038</v>
       </c>
       <c r="P33">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2053.7409967681715</v>
+        <v>4344.4478207932725</v>
       </c>
       <c r="Q33">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3391.8022450805802</v>
+        <v>2946.3025603290771</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -4518,35 +4611,38 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D34">
-        <v>2185</v>
+        <f>SUM(C$2:C34)</f>
+        <v>2212</v>
       </c>
       <c r="E34">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>2226.155583854907</v>
+        <v>4490.297442621928</v>
       </c>
       <c r="F34">
         <f t="shared" ref="F34:F65" si="1">E34-E33</f>
-        <v>172.41458708673554</v>
+        <v>145.84962182865547</v>
       </c>
       <c r="M34" s="1">
         <v>43940</v>
       </c>
       <c r="N34">
-        <v>3420</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>3480</v>
       </c>
       <c r="O34">
-        <v>2182</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>2212</v>
       </c>
       <c r="P34">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2226.155583854907</v>
+        <v>4490.297442621928</v>
       </c>
       <c r="Q34">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3448.2917417347107</v>
+        <v>2916.9924365731094</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -4557,35 +4653,38 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D35">
-        <v>2354</v>
+        <f>SUM(C$2:C35)</f>
+        <v>2382</v>
       </c>
       <c r="E35">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>2400</v>
+        <v>4634.3356664171451</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>173.84441614509296</v>
+        <v>144.03822379521716</v>
       </c>
       <c r="M35" s="1">
         <v>43941</v>
       </c>
       <c r="N35">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>3400</v>
       </c>
       <c r="O35">
-        <v>2352</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>2382</v>
       </c>
       <c r="P35">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2400</v>
+        <v>4634.3356664171451</v>
       </c>
       <c r="Q35">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3476.8883229018593</v>
+        <v>2880.7644759043433</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -4596,35 +4695,38 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D36">
-        <v>2508</v>
+        <f>SUM(C$2:C36)</f>
+        <v>2542</v>
       </c>
       <c r="E36">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>2573.844416145093</v>
+        <v>4776.2298838171437</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>173.84441614509296</v>
+        <v>141.89421739999852</v>
       </c>
       <c r="M36" s="1">
         <v>43942</v>
       </c>
       <c r="N36">
-        <v>3040</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>3200</v>
       </c>
       <c r="O36">
-        <v>2504</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>2542</v>
       </c>
       <c r="P36">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2573.844416145093</v>
+        <v>4776.2298838171437</v>
       </c>
       <c r="Q36">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3476.8883229018593</v>
+        <v>2837.8843479999705</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -4635,35 +4737,38 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D37">
-        <v>2660</v>
+        <f>SUM(C$2:C37)</f>
+        <v>2695</v>
       </c>
       <c r="E37">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>2746.2590032318285</v>
+        <v>4915.6630620774322</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>172.41458708673554</v>
+        <v>139.43317826028851</v>
       </c>
       <c r="M37" s="1">
         <v>43943</v>
       </c>
       <c r="N37">
-        <v>3000</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>3060</v>
       </c>
       <c r="O37">
-        <v>2654</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>2695</v>
       </c>
       <c r="P37">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2746.2590032318285</v>
+        <v>4915.6630620774322</v>
       </c>
       <c r="Q37">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3448.2917417347107</v>
+        <v>2788.6635652057703</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -4674,35 +4779,38 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D38">
-        <v>2848</v>
+        <f>SUM(C$2:C38)</f>
+        <v>2884</v>
       </c>
       <c r="E38">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>2915.8491154858575</v>
+        <v>5052.3358478405999</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>169.59011225402901</v>
+        <v>136.67278576316767</v>
       </c>
       <c r="M38" s="1">
         <v>43944</v>
       </c>
       <c r="N38">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>3780</v>
       </c>
       <c r="O38">
-        <v>2843</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>2884</v>
       </c>
       <c r="P38">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>2915.8491154858575</v>
+        <v>5052.3358478405999</v>
       </c>
       <c r="Q38">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3391.8022450805802</v>
+        <v>2733.4557152633533</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -4713,35 +4821,38 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D39">
-        <v>3038</v>
+        <f>SUM(C$2:C39)</f>
+        <v>3079</v>
       </c>
       <c r="E39">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3081.2890347466432</v>
+        <v>5185.968459555098</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>165.4399192607857</v>
+        <v>133.63261171449813</v>
       </c>
       <c r="M39" s="1">
         <v>43945</v>
       </c>
       <c r="N39">
-        <v>3680</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>3900</v>
       </c>
       <c r="O39">
-        <v>3027</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>3079</v>
       </c>
       <c r="P39">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3081.2890347466432</v>
+        <v>5185.968459555098</v>
       </c>
       <c r="Q39">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3308.798385215714</v>
+        <v>2672.6522342899625</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -4752,35 +4863,38 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D40">
-        <v>3181</v>
+        <f>SUM(C$2:C40)</f>
+        <v>3226</v>
       </c>
       <c r="E40">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3241.3529190557888</v>
+        <v>5316.302349087402</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>160.06388430914558</v>
+        <v>130.33388953230406</v>
       </c>
       <c r="M40" s="1">
         <v>43946</v>
       </c>
       <c r="N40">
-        <v>2860</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>2940</v>
       </c>
       <c r="O40">
-        <v>3170</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>3226</v>
       </c>
       <c r="P40">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3241.3529190557888</v>
+        <v>5316.302349087402</v>
       </c>
       <c r="Q40">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3201.2776861829116</v>
+        <v>2606.6777906460811</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -4791,35 +4905,38 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D41">
-        <v>3327</v>
+        <f>SUM(C$2:C41)</f>
+        <v>3378</v>
       </c>
       <c r="E41">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3394.9417570345749</v>
+        <v>5443.1016168744482</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>153.58883797878616</v>
+        <v>126.79926778704612</v>
       </c>
       <c r="M41" s="1">
         <v>43947</v>
       </c>
       <c r="N41">
-        <v>2920</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>3040</v>
       </c>
       <c r="O41">
-        <v>3316</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>3378</v>
       </c>
       <c r="P41">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3394.9417570345749</v>
+        <v>5443.1016168744482</v>
       </c>
       <c r="Q41">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>3071.7767595757232</v>
+        <v>2535.9853557409224</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -4830,35 +4947,38 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D42">
-        <v>3485</v>
+        <f>SUM(C$2:C42)</f>
+        <v>3537</v>
       </c>
       <c r="E42">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3541.1053525552493</v>
+        <v>5566.1541689560145</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>146.16359552067433</v>
+        <v>123.05255208156632</v>
       </c>
       <c r="M42" s="1">
         <v>43948</v>
       </c>
       <c r="N42">
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
         <v>3180</v>
       </c>
       <c r="O42">
-        <v>3475</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>3537</v>
       </c>
       <c r="P42">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3541.1053525552493</v>
+        <v>5566.1541689560145</v>
       </c>
       <c r="Q42">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2923.2719104134867</v>
+        <v>2461.0510416313264</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -4869,35 +4989,38 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D43">
-        <v>3625</v>
+        <f>SUM(C$2:C43)</f>
+        <v>3681</v>
       </c>
       <c r="E43">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3679.0586358835835</v>
+        <v>5685.2726083269526</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>137.95328332833424</v>
+        <v>119.11843937093818</v>
       </c>
       <c r="M43" s="1">
         <v>43949</v>
       </c>
       <c r="N43">
-        <v>2760</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>2880</v>
       </c>
       <c r="O43">
-        <v>3613</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>3681</v>
       </c>
       <c r="P43">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3679.0586358835835</v>
+        <v>5685.2726083269526</v>
       </c>
       <c r="Q43">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2759.0656665666847</v>
+        <v>2382.3687874187635</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -4908,35 +5031,38 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D44">
-        <v>3773</v>
+        <f>SUM(C$2:C44)</f>
+        <v>3841</v>
       </c>
       <c r="E44">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3808.1918988152629</v>
+        <v>5800.2948571734878</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>129.13326293167938</v>
+        <v>115.02224884653515</v>
       </c>
       <c r="M44" s="1">
         <v>43950</v>
       </c>
       <c r="N44">
-        <v>2840</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>3200</v>
       </c>
       <c r="O44">
-        <v>3755</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>3841</v>
       </c>
       <c r="P44">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3808.1918988152629</v>
+        <v>5800.2948571734878</v>
       </c>
       <c r="Q44">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2582.6652586335877</v>
+        <v>2300.444976930703</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -4947,35 +5073,38 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D45">
-        <v>3901</v>
+        <f>SUM(C$2:C45)</f>
+        <v>3981</v>
       </c>
       <c r="E45">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>3928.0748618714451</v>
+        <v>5911.0845106245251</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>119.88296305618223</v>
+        <v>110.78965345103734</v>
       </c>
       <c r="M45" s="1">
         <v>43951</v>
       </c>
       <c r="N45">
-        <v>2440</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>2800</v>
       </c>
       <c r="O45">
-        <v>3877</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>3981</v>
       </c>
       <c r="P45">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>3928.0748618714451</v>
+        <v>5911.0845106245251</v>
       </c>
       <c r="Q45">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2397.6592611236447</v>
+        <v>2215.7930690207468</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -4986,35 +5115,38 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D46">
-        <v>4057</v>
+        <f>SUM(C$2:C46)</f>
+        <v>4155</v>
       </c>
       <c r="E46">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4038.4547811290067</v>
+        <v>6017.5309265798069</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>110.3799192575616</v>
+        <v>106.44641595528174</v>
       </c>
       <c r="M46" s="1">
         <v>43952</v>
       </c>
       <c r="N46">
-        <v>2440</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>3480</v>
       </c>
       <c r="O46">
-        <v>3999</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>4155</v>
       </c>
       <c r="P46">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4038.4547811290067</v>
+        <v>6017.5309265798069</v>
       </c>
       <c r="Q46">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2207.5983851512319</v>
+        <v>2128.9283191056347</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -5025,35 +5157,38 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D47">
-        <v>4174</v>
+        <f>SUM(C$2:C47)</f>
+        <v>4292</v>
       </c>
       <c r="E47">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4139.2490723472902</v>
+        <v>6119.5490598993038</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>100.79429121828343</v>
+        <v>102.01813331949688</v>
       </c>
       <c r="M47" s="1">
         <v>43953</v>
       </c>
       <c r="N47">
-        <v>1140</v>
+        <f>Table1[[#This Row],[New Deaths]]*20</f>
+        <v>2740</v>
       </c>
       <c r="O47">
-        <v>4056</v>
+        <f>Table1[[#This Row],[Running Total]]</f>
+        <v>4292</v>
       </c>
       <c r="P47">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4139.2490723472902</v>
+        <v>6119.5490598993038</v>
       </c>
       <c r="Q47">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>2015.8858243656687</v>
+        <v>2040.3626663899377</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -5064,29 +5199,30 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D48">
-        <v>4296</v>
+        <f>SUM(C$2:C48)</f>
+        <v>4429</v>
       </c>
       <c r="E48">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4230.533155516132</v>
+        <v>6217.0790526863857</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>91.284083168841789</v>
+        <v>97.529992787081937</v>
       </c>
       <c r="M48" s="1">
         <v>43954</v>
       </c>
       <c r="P48">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4230.533155516132</v>
+        <v>6217.0790526863857</v>
       </c>
       <c r="Q48">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1825.6816633768358</v>
+        <v>1950.5998557416387</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -5097,29 +5233,30 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="D49">
-        <v>4370</v>
+        <f>SUM(C$2:C49)</f>
+        <v>4562</v>
       </c>
       <c r="E49">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4312.524392776485</v>
+        <v>6310.0855955140723</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>81.991237260353046</v>
+        <v>93.006542827686644</v>
       </c>
       <c r="M49" s="1">
         <v>43955</v>
       </c>
       <c r="P49">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4312.524392776485</v>
+        <v>6310.0855955140723</v>
       </c>
       <c r="Q49">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1639.8247452070609</v>
+        <v>1860.1308565537329</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -5129,24 +5266,27 @@
       <c r="B50">
         <v>48</v>
       </c>
+      <c r="C50">
+        <v>135</v>
+      </c>
       <c r="E50">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4385.5631005950036</v>
+        <v>6398.5570771807807</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>73.03870781851856</v>
+        <v>88.471481666708314</v>
       </c>
       <c r="M50" s="1">
         <v>43956</v>
       </c>
       <c r="P50">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4385.5631005950036</v>
+        <v>6398.5570771807807</v>
       </c>
       <c r="Q50">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1460.7741563703712</v>
+        <v>1769.4296333341663</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -5156,24 +5296,27 @@
       <c r="B51">
         <v>49</v>
       </c>
+      <c r="C51">
+        <v>133</v>
+      </c>
       <c r="E51">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4450.0916617152579</v>
+        <v>6482.5045429021302</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>64.528561120254381</v>
+        <v>83.947465721349545</v>
       </c>
       <c r="M51" s="1">
         <v>43957</v>
       </c>
       <c r="P51">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4450.0916617152579</v>
+        <v>6482.5045429021302</v>
       </c>
       <c r="Q51">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1290.5712224050876</v>
+        <v>1678.9493144269909</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -5183,24 +5326,27 @@
       <c r="B52">
         <v>50</v>
       </c>
+      <c r="C52">
+        <v>129</v>
+      </c>
       <c r="E52">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4506.6327469247717</v>
+        <v>6561.9604827213734</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>56.541085209513767</v>
+        <v>79.455939819243213</v>
       </c>
       <c r="M52" s="1">
         <v>43958</v>
       </c>
       <c r="P52">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4506.6327469247717</v>
+        <v>6561.9604827213734</v>
       </c>
       <c r="Q52">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>1130.8217041902753</v>
+        <v>1589.1187963848643</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -5210,24 +5356,27 @@
       <c r="B53">
         <v>51</v>
       </c>
+      <c r="C53">
+        <v>105</v>
+      </c>
       <c r="E53">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4555.7675881169816</v>
+        <v>6636.9774733371887</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>49.134841192209933</v>
+        <v>75.016990615815303</v>
       </c>
       <c r="M53" s="1">
         <v>43959</v>
       </c>
       <c r="P53">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4555.7675881169816</v>
+        <v>6636.9774733371887</v>
       </c>
       <c r="Q53">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>982.69682384419866</v>
+        <v>1500.3398123163061</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -5237,24 +5386,27 @@
       <c r="B54">
         <v>52</v>
       </c>
+      <c r="C54">
+        <v>103</v>
+      </c>
       <c r="E54">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4598.1151324850071</v>
+        <v>6707.6266974985856</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>42.34754436802541</v>
+        <v>70.649224161396887</v>
       </c>
       <c r="M54" s="1">
         <v>43960</v>
       </c>
       <c r="P54">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4598.1151324850071</v>
+        <v>6707.6266974985856</v>
       </c>
       <c r="Q54">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>846.9508873605082</v>
+        <v>1412.9844832279377</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -5264,24 +5416,27 @@
       <c r="B55">
         <v>53</v>
       </c>
+      <c r="C55">
+        <v>117</v>
+      </c>
       <c r="E55">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4634.3127648134032</v>
+        <v>6773.9963656079226</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>36.197632328396139</v>
+        <v>66.369668109336999</v>
       </c>
       <c r="M55" s="1">
         <v>43961</v>
       </c>
       <c r="P55">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4634.3127648134032</v>
+        <v>6773.9963656079226</v>
       </c>
       <c r="Q55">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>723.95264656792278</v>
+        <v>1327.39336218674</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -5291,24 +5446,27 @@
       <c r="B56">
         <v>54</v>
       </c>
+      <c r="C56">
+        <v>118</v>
+      </c>
       <c r="E56">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4664.9991233232795</v>
+        <v>6836.1900642194851</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>30.6863585098763</v>
+        <v>62.193698611562468</v>
       </c>
       <c r="M56" s="1">
         <v>43962</v>
       </c>
       <c r="P56">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4664.9991233232795</v>
+        <v>6836.1900642194851</v>
       </c>
       <c r="Q56">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>613.72717019752599</v>
+        <v>1243.8739722312494</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -5318,24 +5476,27 @@
       <c r="B57">
         <v>55</v>
       </c>
+      <c r="C57">
+        <v>100</v>
+      </c>
       <c r="E57">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4690.79936664874</v>
+        <v>6894.3250557467172</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>25.800243325460542</v>
+        <v>58.13499152723216</v>
       </c>
       <c r="M57" s="1">
         <v>43963</v>
       </c>
       <c r="P57">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4690.79936664874</v>
+        <v>6894.3250557467172</v>
       </c>
       <c r="Q57">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>516.00486650921084</v>
+        <v>1162.6998305446432</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5345,24 +5506,27 @@
       <c r="B58">
         <v>56</v>
       </c>
+      <c r="C58">
+        <v>69</v>
+      </c>
       <c r="E58">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4712.3130863446049</v>
+        <v>6948.5305529276366</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>21.513719695864893</v>
+        <v>54.205497180919338</v>
       </c>
       <c r="M58" s="1">
         <v>43964</v>
       </c>
       <c r="P58">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4712.3130863446049</v>
+        <v>6948.5305529276366</v>
       </c>
       <c r="Q58">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>430.27439391729786</v>
+        <v>1084.1099436183868</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -5374,22 +5538,22 @@
       </c>
       <c r="E59">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4730.1049100342761</v>
+        <v>6998.9459904835639</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>17.791823689671219</v>
+        <v>50.415437555927383</v>
       </c>
       <c r="M59" s="1">
         <v>43965</v>
       </c>
       <c r="P59">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4730.1049100342761</v>
+        <v>6998.9459904835639</v>
       </c>
       <c r="Q59">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>355.83647379342437</v>
+        <v>1008.3087511185477</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -5401,22 +5565,22 @@
       </c>
       <c r="E60">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4744.6977117893721</v>
+        <v>7045.7193149845571</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>14.592801755095934</v>
+        <v>46.773324500993112</v>
       </c>
       <c r="M60" s="1">
         <v>43966</v>
       </c>
       <c r="P60">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4744.6977117893721</v>
+        <v>7045.7193149845571</v>
       </c>
       <c r="Q60">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>291.85603510191868</v>
+        <v>935.46649001986225</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -5428,22 +5592,22 @@
       </c>
       <c r="E61">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4756.5682430071411</v>
+        <v>7089.0053122533154</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>11.870531217768985</v>
+        <v>43.285997268758365</v>
       </c>
       <c r="M61" s="1">
         <v>43967</v>
       </c>
       <c r="P61">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4756.5682430071411</v>
+        <v>7089.0053122533154</v>
       </c>
       <c r="Q61">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>237.4106243553797</v>
+        <v>865.7199453751673</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -5455,22 +5619,22 @@
       </c>
       <c r="E62">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4766.1449209262892</v>
+        <v>7128.9639897476391</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>9.5766779191480964</v>
+        <v>39.958677494323638</v>
       </c>
       <c r="M62" s="1">
         <v>43968</v>
       </c>
       <c r="P62">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4766.1449209262892</v>
+        <v>7128.9639897476391</v>
       </c>
       <c r="Q62">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>191.53355838296193</v>
+        <v>799.17354988647276</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -5482,22 +5646,22 @@
       </c>
       <c r="E63">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4773.8074628445229</v>
+        <v>7165.7590293109279</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>7.6625419182337282</v>
+        <v>36.79503956328881</v>
       </c>
       <c r="M63" s="1">
         <v>43969</v>
       </c>
       <c r="P63">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4773.8074628445229</v>
+        <v>7165.7590293109279</v>
       </c>
       <c r="Q63">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>153.25083836467456</v>
+        <v>735.90079126577621</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -5509,22 +5673,22 @@
       </c>
       <c r="E64">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4779.8880301415666</v>
+        <v>7199.5563235213713</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>6.0805672970436717</v>
+        <v>33.797294210443397</v>
       </c>
       <c r="M64" s="1">
         <v>43970</v>
       </c>
       <c r="P64">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4779.8880301415666</v>
+        <v>7199.5563235213713</v>
       </c>
       <c r="Q64">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>121.61134594087343</v>
+        <v>675.94588420886794</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -5536,22 +5700,22 @@
       </c>
       <c r="E65">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4784.6735441215033</v>
+        <v>7230.5226066530568</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>4.7855139799366953</v>
+        <v>30.966283131685486</v>
       </c>
       <c r="M65" s="1">
         <v>43971</v>
       </c>
       <c r="P65">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4784.6735441215033</v>
+        <v>7230.5226066530568</v>
       </c>
       <c r="Q65">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>95.710279598733905</v>
+        <v>619.32566263370973</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -5563,22 +5727,22 @@
       </c>
       <c r="E66">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4788.4088513857441</v>
+        <v>7258.8241890328973</v>
       </c>
       <c r="F66">
         <f t="shared" ref="F66:F74" si="2">E66-E65</f>
-        <v>3.7353072642408733</v>
+        <v>28.301582379840511</v>
       </c>
       <c r="M66" s="1">
         <v>43972</v>
       </c>
       <c r="P66">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4788.4088513857441</v>
+        <v>7258.8241890328973</v>
       </c>
       <c r="Q66">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>74.706145284817467</v>
+        <v>566.03164759681022</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -5590,22 +5754,22 @@
       </c>
       <c r="E67">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4791.3004454755055</v>
+        <v>7284.6258013799861</v>
       </c>
       <c r="F67">
         <f t="shared" si="2"/>
-        <v>2.8915940897613837</v>
+        <v>25.801612347088849</v>
       </c>
       <c r="M67" s="1">
         <v>43973</v>
       </c>
       <c r="P67">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4791.3004454755055</v>
+        <v>7284.6258013799861</v>
       </c>
       <c r="Q67">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>57.831881795227673</v>
+        <v>516.03224694177698</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -5617,22 +5781,22 @@
       </c>
       <c r="E68">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4793.5204894481758</v>
+        <v>7308.0895535877107</v>
       </c>
       <c r="F68">
         <f t="shared" si="2"/>
-        <v>2.2200439726702825</v>
+        <v>23.46375220772461</v>
       </c>
       <c r="M68" s="1">
         <v>43974</v>
       </c>
       <c r="P68">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4793.5204894481758</v>
+        <v>7308.0895535877107</v>
       </c>
       <c r="Q68">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>44.400879453405651</v>
+        <v>469.27504415449221</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -5644,22 +5808,22 @@
       </c>
       <c r="E69">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4795.2109267858177</v>
+        <v>7329.3740103886557</v>
       </c>
       <c r="F69">
         <f t="shared" si="2"/>
-        <v>1.6904373376419244</v>
+        <v>21.284456800945009</v>
       </c>
       <c r="M69" s="1">
         <v>43975</v>
       </c>
       <c r="P69">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4795.2109267858177</v>
+        <v>7329.3740103886557</v>
       </c>
       <c r="Q69">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>33.808746752838488</v>
+        <v>425.68913601890017</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -5671,22 +5835,22 @@
       </c>
       <c r="E70">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4796.4875120525157</v>
+        <v>7348.6333844572173</v>
       </c>
       <c r="F70">
         <f t="shared" si="2"/>
-        <v>1.2765852666980209</v>
+        <v>19.259374068561556</v>
       </c>
       <c r="M70" s="1">
         <v>43976</v>
       </c>
       <c r="P70">
         <f>Table1[[#This Row],[Model (deaths)]]</f>
-        <v>4796.4875120525157</v>
+        <v>7348.6333844572173</v>
       </c>
       <c r="Q70">
         <f>Table1[[#This Row],[Model (deaths/day)]]*20</f>
-        <v>25.531705333960417</v>
+        <v>385.18748137123112</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -5698,11 +5862,11 @@
       </c>
       <c r="E71">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4797.4436351938266</v>
+        <v>7366.0168457788759</v>
       </c>
       <c r="F71">
         <f t="shared" si="2"/>
-        <v>0.95612314131085441</v>
+        <v>17.383461321658615</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -5714,11 +5878,11 @@
       </c>
       <c r="E72">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4798.1538522232813</v>
+        <v>7381.6679445668215</v>
       </c>
       <c r="F72">
         <f t="shared" si="2"/>
-        <v>0.71021702945472498</v>
+        <v>15.651098787945557</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -5730,11 +5894,11 @@
       </c>
       <c r="E73">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4798.6770689058012</v>
+        <v>7395.7241436487602</v>
       </c>
       <c r="F73">
         <f t="shared" si="2"/>
-        <v>0.5232166825198874</v>
+        <v>14.056199081938757</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -5746,11 +5910,11 @@
       </c>
       <c r="E74">
         <f>$I$4*NORMDIST(Table1[[#This Row],[Time]],$I$2,$I$3,1)</f>
-        <v>4799.0593522116005</v>
+        <v>7408.3164550871652</v>
       </c>
       <c r="F74">
         <f t="shared" si="2"/>
-        <v>0.38228330579931935</v>
+        <v>12.592311438404977</v>
       </c>
     </row>
   </sheetData>
